--- a/suppxls/Scen_Localisation-Lo.xlsx
+++ b/suppxls/Scen_Localisation-Lo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FF2B01-0251-40EB-8158-A6CA8CF63E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD9852E-7E46-4FF6-AA27-BD634A005FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1530" yWindow="-18060" windowWidth="28770" windowHeight="15570" xr2:uid="{232E471A-D1BC-46EA-822F-4A9C8F9BFC34}"/>
+    <workbookView xWindow="30" yWindow="630" windowWidth="28770" windowHeight="15570" xr2:uid="{232E471A-D1BC-46EA-822F-4A9C8F9BFC34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>~TFM_INS-TS</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>FX</t>
+  </si>
+  <si>
+    <t>CGE seems to break if we go to 65% imports.</t>
   </si>
 </sst>
 </file>
@@ -497,7 +500,7 @@
   <dimension ref="C3:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +510,7 @@
     <col min="5" max="5" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +520,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
@@ -549,7 +552,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
@@ -574,16 +577,19 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J5" s="7">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="K5" s="7">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="L5" s="7">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+      <c r="N5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>

--- a/suppxls/Scen_Localisation-Lo.xlsx
+++ b/suppxls/Scen_Localisation-Lo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\suppxls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD9852E-7E46-4FF6-AA27-BD634A005FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE0AFBC-38BB-4832-815A-77A0FAF85E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="630" windowWidth="28770" windowHeight="15570" xr2:uid="{232E471A-D1BC-46EA-822F-4A9C8F9BFC34}"/>
+    <workbookView xWindow="3090" yWindow="1560" windowWidth="24705" windowHeight="14040" xr2:uid="{232E471A-D1BC-46EA-822F-4A9C8F9BFC34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="130">
   <si>
     <t>~TFM_INS-TS</t>
   </si>
@@ -99,6 +99,333 @@
   </si>
   <si>
     <t>CGE seems to break if we go to 65% imports.</t>
+  </si>
+  <si>
+    <t>NCAP_COST</t>
+  </si>
+  <si>
+    <t>TechDesc</t>
+  </si>
+  <si>
+    <t>Pset_PN</t>
+  </si>
+  <si>
+    <t>REGION1</t>
+  </si>
+  <si>
+    <t>MEDUPI</t>
+  </si>
+  <si>
+    <t>ETCLEMEDU-N</t>
+  </si>
+  <si>
+    <t>KUSILE</t>
+  </si>
+  <si>
+    <t>ETCLEKUSI-N</t>
+  </si>
+  <si>
+    <t>Generic Waterberg Coal Plant</t>
+  </si>
+  <si>
+    <t>ETCLEWATE-N</t>
+  </si>
+  <si>
+    <t>Generic Waterberg Coal Plant with CCS</t>
+  </si>
+  <si>
+    <t>ETCLE-CCS-N</t>
+  </si>
+  <si>
+    <t>Pumped Storage New Ingula - Single Storage Tech</t>
+  </si>
+  <si>
+    <t>EPTSTO-N</t>
+  </si>
+  <si>
+    <t>Fluidised Bed Combustion Coal</t>
+  </si>
+  <si>
+    <t>ETCLDFB-N</t>
+  </si>
+  <si>
+    <t>Nuclear Mid</t>
+  </si>
+  <si>
+    <t>ETNUC-N</t>
+  </si>
+  <si>
+    <t>Solar Central Receiver 09 hrs storage</t>
+  </si>
+  <si>
+    <t>ERSOLTC09-N</t>
+  </si>
+  <si>
+    <t>Solar PV Fixed</t>
+  </si>
+  <si>
+    <t>ERSOLPCF-N</t>
+  </si>
+  <si>
+    <t>Solar PV tracking</t>
+  </si>
+  <si>
+    <t>ERSOLPCT-N</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>ERWNDH-N</t>
+  </si>
+  <si>
+    <t>Open Cycle Gas Turbine - LNG</t>
+  </si>
+  <si>
+    <t>ETGICGT-N</t>
+  </si>
+  <si>
+    <t>Hydrogen Turbine or FuelCell</t>
+  </si>
+  <si>
+    <t>ETHGNGT-N</t>
+  </si>
+  <si>
+    <t>Combined Cycle Gas Turbine - LNG</t>
+  </si>
+  <si>
+    <t>ETGICCC-N</t>
+  </si>
+  <si>
+    <t>Combined Cycle Gas Turbine - LNG with CCS</t>
+  </si>
+  <si>
+    <t>ETGICCC-CCS-N</t>
+  </si>
+  <si>
+    <t>Gas Engines - LNG</t>
+  </si>
+  <si>
+    <t>ETGICEN-N</t>
+  </si>
+  <si>
+    <t>Biomass municipal waste</t>
+  </si>
+  <si>
+    <t>ERBIO-N</t>
+  </si>
+  <si>
+    <t>Landfill gas</t>
+  </si>
+  <si>
+    <t>ERBIG-N</t>
+  </si>
+  <si>
+    <t>Utility Scale Storage - 4hrs</t>
+  </si>
+  <si>
+    <t>ESTSUTL</t>
+  </si>
+  <si>
+    <t>Solar PV rooftop Agriculture</t>
+  </si>
+  <si>
+    <t>ERSOLPRA-N</t>
+  </si>
+  <si>
+    <t>Solar PV rooftop Mining</t>
+  </si>
+  <si>
+    <t>ERSOLPRM-N</t>
+  </si>
+  <si>
+    <t>Solar PV rooftop commercial</t>
+  </si>
+  <si>
+    <t>ERSOLPRC-N</t>
+  </si>
+  <si>
+    <t>Solar PV rooftop residential</t>
+  </si>
+  <si>
+    <t>ERSOLPRR-N</t>
+  </si>
+  <si>
+    <t>Solar PV rooftop Industry</t>
+  </si>
+  <si>
+    <t>ERSOLPRI-N</t>
+  </si>
+  <si>
+    <t>Transmission</t>
+  </si>
+  <si>
+    <t>ETRANS</t>
+  </si>
+  <si>
+    <t>dummy tech tracking investment costs</t>
+  </si>
+  <si>
+    <t>ETRANSDUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agriculatural Electricity                         </t>
+  </si>
+  <si>
+    <t>XAGRELC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commercial Electricity                            </t>
+  </si>
+  <si>
+    <t>XCOMELC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industrial CP-Electricity                         </t>
+  </si>
+  <si>
+    <t>XICPELC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industrial FA-Electricity                         </t>
+  </si>
+  <si>
+    <t>XIFAELC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industrial FB-Electricity                         </t>
+  </si>
+  <si>
+    <t>XIFBELC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industrial IS-Electricity                         </t>
+  </si>
+  <si>
+    <t>XIISELC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industrial MI-Electricity                         </t>
+  </si>
+  <si>
+    <t>XIMIELC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industrial NF-Electricity                         </t>
+  </si>
+  <si>
+    <t>XINFELC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industrial NM-Electricity                         </t>
+  </si>
+  <si>
+    <t>XINMELC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industrial OT-Electricity                         </t>
+  </si>
+  <si>
+    <t>XIOTELC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industrial PP-Electricity                         </t>
+  </si>
+  <si>
+    <t>XIPPELC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residential Electricity                           </t>
+  </si>
+  <si>
+    <t>XRESELC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transport Electricity                             </t>
+  </si>
+  <si>
+    <t>XTRAELC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supply Sector Electricity                         </t>
+  </si>
+  <si>
+    <t>XUPSELC</t>
+  </si>
+  <si>
+    <t>~TFM_FILL</t>
+  </si>
+  <si>
+    <t>Update values</t>
+  </si>
+  <si>
+    <t>Pull cost values from model.</t>
+  </si>
+  <si>
+    <t>Increase cost?</t>
+  </si>
+  <si>
+    <t>Increase localisation cost by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase costs of localised technologies. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a bit crude, as it increases the overall costs of everything and not just the components that we are localising. </t>
+  </si>
+  <si>
+    <t>V. High</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Med</t>
+  </si>
+  <si>
+    <t>Localisation levels</t>
+  </si>
+  <si>
+    <t>Machinary</t>
+  </si>
+  <si>
+    <t>Electrical Machinary</t>
+  </si>
+  <si>
+    <t>Construction Services</t>
+  </si>
+  <si>
+    <t>Metal Products</t>
+  </si>
+  <si>
+    <t>Switch board</t>
+  </si>
+  <si>
+    <t>cbsrv_e</t>
+  </si>
+  <si>
+    <t>IMPcmetp</t>
+  </si>
+  <si>
+    <t>IMPcbsrv</t>
+  </si>
+  <si>
+    <t>cmetp</t>
+  </si>
+  <si>
+    <t>Local content level:</t>
+  </si>
+  <si>
+    <t>Import levels</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>flat as today</t>
+  </si>
+  <si>
+    <t>cbsrv</t>
   </si>
 </sst>
 </file>
@@ -108,7 +435,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +469,41 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -151,7 +513,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -159,14 +521,95 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
@@ -177,13 +620,35 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Heading 4" xfId="2" builtinId="19"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 13" xfId="4" xr:uid="{8D155F1E-CE31-43C4-B63E-69EA0E23AFF4}"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{114B2D43-D8F0-4A77-911E-913BD0BF594C}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -198,6 +663,71 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Arrow: Right 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A247403-132B-398E-E96F-241036AD5818}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29860875" y="1743075"/>
+          <a:ext cx="1323975" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-ZA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -497,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C1C3BE-43A3-4F6E-B7BA-55F1C4F1EF02}">
-  <dimension ref="C3:P22"/>
+  <dimension ref="B2:BL66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,251 +1038,4402 @@
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="53" max="53" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C2" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
     <row r="3" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="E4" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="G5" s="12">
+        <v>2017</v>
+      </c>
+      <c r="H5" s="12">
+        <v>2021</v>
+      </c>
+      <c r="I5" s="12">
+        <v>2025</v>
+      </c>
+      <c r="J5" s="12">
+        <v>2030</v>
+      </c>
+      <c r="K5" s="12">
+        <v>2040</v>
+      </c>
+      <c r="L5" s="12">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" s="4">
+        <f>1-M32</f>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="H6" s="4">
+        <f>G6</f>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="I6" s="27">
+        <f>SUMIFS(I$41:I$63,$C$41:$C$63,$E16,$F$41:$F$63,$C$3)</f>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="J6" s="27">
+        <f t="shared" ref="J6:L6" si="0">SUMIFS(J$41:J$63,$C$41:$C$63,$E16,$F$41:$F$63,$C$3)</f>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="K6" s="27">
+        <f t="shared" si="0"/>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="L6" s="27">
+        <f t="shared" si="0"/>
+        <v>0.47058823529411764</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="4">
+        <f>1-L32</f>
+        <v>0.47538200339558578</v>
+      </c>
+      <c r="H7" s="4">
+        <f>G7</f>
+        <v>0.47538200339558578</v>
+      </c>
+      <c r="I7" s="27">
+        <f t="shared" ref="I7:L7" si="1">SUMIFS(I$41:I$63,$C$41:$C$63,$E17,$F$41:$F$63,$C$3)</f>
+        <v>0.47538200339558578</v>
+      </c>
+      <c r="J7" s="27">
+        <f t="shared" si="1"/>
+        <v>0.47538200339558578</v>
+      </c>
+      <c r="K7" s="27">
+        <f t="shared" si="1"/>
+        <v>0.47538200339558578</v>
+      </c>
+      <c r="L7" s="27">
+        <f t="shared" si="1"/>
+        <v>0.47538200339558578</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" s="4">
+        <f>1-N32</f>
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="H8" s="4">
+        <f>G8</f>
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="I8" s="27">
+        <f t="shared" ref="I8:L8" si="2">SUMIFS(I$41:I$63,$C$41:$C$63,$E18,$F$41:$F$63,$C$3)</f>
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="J8" s="27">
+        <f t="shared" si="2"/>
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="K8" s="27">
+        <f t="shared" si="2"/>
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="L8" s="27">
+        <f t="shared" si="2"/>
+        <v>0.76100000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="4">
+        <f>1-O32</f>
+        <v>0.92</v>
+      </c>
+      <c r="H9" s="4">
+        <f>G9</f>
+        <v>0.92</v>
+      </c>
+      <c r="I9" s="27">
+        <f t="shared" ref="I9:L9" si="3">SUMIFS(I$41:I$63,$C$41:$C$63,$E19,$F$41:$F$63,$C$3)</f>
+        <v>0.92</v>
+      </c>
+      <c r="J9" s="27">
+        <f t="shared" si="3"/>
+        <v>0.92</v>
+      </c>
+      <c r="K9" s="27">
+        <f t="shared" si="3"/>
+        <v>0.92</v>
+      </c>
+      <c r="L9" s="27">
+        <f t="shared" si="3"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C4" s="2" t="s">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E15" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F15" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G15" s="2">
         <v>2017</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H15" s="2">
         <v>2021</v>
       </c>
-      <c r="I4">
+      <c r="I15">
         <v>2025</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J15" s="2">
         <v>2030</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K15" s="2">
         <v>2040</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L15" s="2">
         <v>2050</v>
       </c>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C5" s="3" t="s">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D16" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F16" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="6">
-        <f>M21</f>
+      <c r="G16" s="5">
+        <f>M32</f>
         <v>0.52941176470588236</v>
       </c>
-      <c r="H5" s="6">
-        <f>G5</f>
+      <c r="H16" s="5">
+        <f>G16</f>
         <v>0.52941176470588236</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I16" s="5">
+        <f>1-I6</f>
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" ref="J16:L16" si="4">1-J6</f>
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="K16" s="5">
+        <f t="shared" si="4"/>
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="L16" s="5">
+        <f t="shared" si="4"/>
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="N16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="3:64" x14ac:dyDescent="0.25">
+      <c r="C17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="5">
+        <f>L32</f>
+        <v>0.52461799660441422</v>
+      </c>
+      <c r="H17" s="5">
+        <f>G17</f>
+        <v>0.52461799660441422</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" ref="I17:L17" si="5">1-I7</f>
+        <v>0.52461799660441422</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="5"/>
+        <v>0.52461799660441422</v>
+      </c>
+      <c r="K17" s="5">
+        <f t="shared" si="5"/>
+        <v>0.52461799660441422</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" si="5"/>
+        <v>0.52461799660441422</v>
+      </c>
+    </row>
+    <row r="18" spans="3:64" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="5">
+        <f>N32</f>
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="H18" s="5">
+        <f>G18</f>
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" ref="I18:L18" si="6">1-I8</f>
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="6"/>
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="K18" s="5">
+        <f t="shared" si="6"/>
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" si="6"/>
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="T18" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="13"/>
+      <c r="AH18" s="13"/>
+      <c r="AI18" s="13"/>
+      <c r="AJ18" s="13"/>
+      <c r="AK18" s="13"/>
+      <c r="AL18" s="13"/>
+      <c r="AM18" s="13"/>
+      <c r="AN18" s="13"/>
+      <c r="AO18" s="13"/>
+      <c r="AP18" s="13"/>
+      <c r="AQ18" s="13"/>
+      <c r="AR18" s="13"/>
+      <c r="AS18" s="13"/>
+      <c r="AT18" s="13"/>
+      <c r="AU18" s="13"/>
+      <c r="AV18" s="13"/>
+      <c r="AW18" s="13"/>
+      <c r="AX18" s="13"/>
+      <c r="AY18" s="13"/>
+      <c r="AZ18" s="13"/>
+      <c r="BA18" s="13"/>
+      <c r="BB18" s="13"/>
+      <c r="BC18" s="13"/>
+      <c r="BD18" s="13"/>
+      <c r="BE18" s="13"/>
+      <c r="BF18" s="13"/>
+      <c r="BG18" s="13"/>
+      <c r="BH18" s="13"/>
+      <c r="BI18" s="13"/>
+      <c r="BJ18" s="13"/>
+      <c r="BK18" s="13"/>
+      <c r="BL18" s="13"/>
+    </row>
+    <row r="19" spans="3:64" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="6">
+        <f>O32</f>
+        <v>0.08</v>
+      </c>
+      <c r="H19" s="5">
+        <f>G19</f>
+        <v>0.08</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" ref="I19:L19" si="7">1-I9</f>
+        <v>7.999999999999996E-2</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" si="7"/>
+        <v>7.999999999999996E-2</v>
+      </c>
+      <c r="K19" s="5">
+        <f t="shared" si="7"/>
+        <v>7.999999999999996E-2</v>
+      </c>
+      <c r="L19" s="5">
+        <f t="shared" si="7"/>
+        <v>7.999999999999996E-2</v>
+      </c>
+      <c r="T19" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="3:64" x14ac:dyDescent="0.25">
+      <c r="AZ21" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="3:64" x14ac:dyDescent="0.25">
+      <c r="T22" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB22" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="BC22" s="6">
+        <f>BB22</f>
+        <v>0.1</v>
+      </c>
+      <c r="BD22" s="6">
+        <f>BC22</f>
+        <v>0.1</v>
+      </c>
+      <c r="BE22" s="6">
+        <f>BD22</f>
+        <v>0.1</v>
+      </c>
+      <c r="BF22" s="6">
+        <f>BE22</f>
+        <v>0.1</v>
+      </c>
+      <c r="BG22" s="6">
+        <f>BF22</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:64" x14ac:dyDescent="0.25">
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="3:64" x14ac:dyDescent="0.25">
+      <c r="U24" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>105</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="3:64" x14ac:dyDescent="0.25">
+      <c r="T25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="U25" t="s">
+        <v>2</v>
+      </c>
+      <c r="V25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="W25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="X25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD25" s="7"/>
+      <c r="AE25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI25" s="7"/>
+      <c r="AJ25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN25" s="7"/>
+      <c r="AO25" s="7"/>
+      <c r="AP25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AW25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="BB25">
+        <v>2017</v>
+      </c>
+      <c r="BC25">
+        <v>2020</v>
+      </c>
+      <c r="BD25">
+        <v>2025</v>
+      </c>
+      <c r="BE25">
+        <v>2030</v>
+      </c>
+      <c r="BF25">
+        <v>2040</v>
+      </c>
+      <c r="BG25">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="26" spans="3:64" x14ac:dyDescent="0.25">
+      <c r="T26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="U26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="W26" s="7">
+        <v>2017</v>
+      </c>
+      <c r="X26">
+        <v>51359.8538564517</v>
+      </c>
+      <c r="Z26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA26" s="9" t="str">
+        <f>V26</f>
+        <v>ETCLEMEDU-N</v>
+      </c>
+      <c r="AB26" s="7">
+        <v>2020</v>
+      </c>
+      <c r="AE26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF26" s="9" t="str">
+        <f>AA26</f>
+        <v>ETCLEMEDU-N</v>
+      </c>
+      <c r="AG26" s="7">
+        <v>2025</v>
+      </c>
+      <c r="AJ26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK26" s="9" t="str">
+        <f>AF26</f>
+        <v>ETCLEMEDU-N</v>
+      </c>
+      <c r="AL26" s="7">
+        <v>2030</v>
+      </c>
+      <c r="AP26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ26" s="9" t="str">
+        <f t="shared" ref="AQ26:AQ49" si="8">V26</f>
+        <v>ETCLEMEDU-N</v>
+      </c>
+      <c r="AR26" s="7">
+        <v>2040</v>
+      </c>
+      <c r="AU26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV26" s="9" t="str">
+        <f>V26</f>
+        <v>ETCLEMEDU-N</v>
+      </c>
+      <c r="AW26" s="7">
+        <v>2050</v>
+      </c>
+      <c r="AZ26" t="str">
+        <f>U26</f>
+        <v>NCAP_COST</v>
+      </c>
+      <c r="BA26" t="str">
+        <f>V26</f>
+        <v>ETCLEMEDU-N</v>
+      </c>
+      <c r="BB26">
+        <f t="shared" ref="BB26:BB65" si="9">IF($BJ26,X26*(1+$BB$22),X26)</f>
+        <v>51359.8538564517</v>
+      </c>
+      <c r="BC26" t="str">
+        <f t="shared" ref="BC26:BC49" si="10">IF(IF($BJ26,AC26*(1+BC$22),AC26)=0,"",IF($BJ26,AC26*(1+BC$22),AC26))</f>
+        <v/>
+      </c>
+      <c r="BD26" t="str">
+        <f t="shared" ref="BD26:BD49" si="11">IF(IF($BJ26,AH26*(1+BD$22),AH26)=0,"",IF($BJ26,AH26*(1+BD$22),AH26))</f>
+        <v/>
+      </c>
+      <c r="BE26" t="str">
+        <f t="shared" ref="BE26:BE49" si="12">IF(IF($BJ26,AM26*(1+BE$22),AM26)=0,"",IF($BJ26,AM26*(1+BE$22),AM26))</f>
+        <v/>
+      </c>
+      <c r="BF26" t="str">
+        <f t="shared" ref="BF26:BF49" si="13">IF(IF($BJ26,AS26*(1+BF$22),AS26)=0,"",IF($BJ26,AS26*(1+BF$22),AS26))</f>
+        <v/>
+      </c>
+      <c r="BG26" t="str">
+        <f t="shared" ref="BG26:BG49" si="14">IF(IF($BJ26,AX26*(1+BG$22),AX26)=0,"",IF($BJ26,AX26*(1+BG$22),AX26))</f>
+        <v/>
+      </c>
+      <c r="BJ26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:64" x14ac:dyDescent="0.25">
+      <c r="T27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="U27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="W27" s="7">
+        <v>2017</v>
+      </c>
+      <c r="X27">
+        <v>51359.8538564517</v>
+      </c>
+      <c r="Z27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA27" s="9" t="str">
+        <f t="shared" ref="AA27:AA49" si="15">V27</f>
+        <v>ETCLEKUSI-N</v>
+      </c>
+      <c r="AB27" s="7">
+        <v>2020</v>
+      </c>
+      <c r="AE27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF27" s="9" t="str">
+        <f t="shared" ref="AF27:AF49" si="16">AA27</f>
+        <v>ETCLEKUSI-N</v>
+      </c>
+      <c r="AG27" s="7">
+        <v>2025</v>
+      </c>
+      <c r="AJ27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK27" s="9" t="str">
+        <f t="shared" ref="AK27:AK49" si="17">AF27</f>
+        <v>ETCLEKUSI-N</v>
+      </c>
+      <c r="AL27" s="7">
+        <v>2030</v>
+      </c>
+      <c r="AP27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ27" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>ETCLEKUSI-N</v>
+      </c>
+      <c r="AR27" s="7">
+        <v>2040</v>
+      </c>
+      <c r="AU27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV27" s="9" t="str">
+        <f t="shared" ref="AV27:AV49" si="18">V27</f>
+        <v>ETCLEKUSI-N</v>
+      </c>
+      <c r="AW27" s="7">
+        <v>2050</v>
+      </c>
+      <c r="AZ27" t="str">
+        <f t="shared" ref="AZ27:AZ65" si="19">U27</f>
+        <v>NCAP_COST</v>
+      </c>
+      <c r="BA27" t="str">
+        <f t="shared" ref="BA27:BA65" si="20">V27</f>
+        <v>ETCLEKUSI-N</v>
+      </c>
+      <c r="BB27">
+        <f t="shared" si="9"/>
+        <v>51359.8538564517</v>
+      </c>
+      <c r="BC27" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="BD27" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BE27" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="BF27" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="BG27" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="BJ27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:64" x14ac:dyDescent="0.25">
+      <c r="C28" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="T28" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="U28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V28" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="W28" s="7">
+        <v>2017</v>
+      </c>
+      <c r="X28">
+        <v>60837.512560000003</v>
+      </c>
+      <c r="Z28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA28" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>ETCLEWATE-N</v>
+      </c>
+      <c r="AB28" s="7">
+        <v>2020</v>
+      </c>
+      <c r="AE28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF28" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>ETCLEWATE-N</v>
+      </c>
+      <c r="AG28" s="7">
+        <v>2025</v>
+      </c>
+      <c r="AJ28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK28" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>ETCLEWATE-N</v>
+      </c>
+      <c r="AL28" s="7">
+        <v>2030</v>
+      </c>
+      <c r="AP28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ28" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>ETCLEWATE-N</v>
+      </c>
+      <c r="AR28" s="7">
+        <v>2040</v>
+      </c>
+      <c r="AU28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV28" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>ETCLEWATE-N</v>
+      </c>
+      <c r="AW28" s="7">
+        <v>2050</v>
+      </c>
+      <c r="AZ28" t="str">
+        <f t="shared" si="19"/>
+        <v>NCAP_COST</v>
+      </c>
+      <c r="BA28" t="str">
+        <f t="shared" si="20"/>
+        <v>ETCLEWATE-N</v>
+      </c>
+      <c r="BB28">
+        <f t="shared" si="9"/>
+        <v>66921.263816000006</v>
+      </c>
+      <c r="BC28" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="BD28" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BE28" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="BF28" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="BG28" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="BJ28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:64" x14ac:dyDescent="0.25">
+      <c r="C29" s="16"/>
+      <c r="D29" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="18"/>
+      <c r="T29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="U29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V29" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="W29" s="7">
+        <v>2017</v>
+      </c>
+      <c r="X29">
+        <v>117681.09583999999</v>
+      </c>
+      <c r="Z29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA29" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>ETCLE-CCS-N</v>
+      </c>
+      <c r="AB29" s="7">
+        <v>2020</v>
+      </c>
+      <c r="AE29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF29" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>ETCLE-CCS-N</v>
+      </c>
+      <c r="AG29" s="7">
+        <v>2025</v>
+      </c>
+      <c r="AJ29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK29" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>ETCLE-CCS-N</v>
+      </c>
+      <c r="AL29" s="7">
+        <v>2030</v>
+      </c>
+      <c r="AP29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ29" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>ETCLE-CCS-N</v>
+      </c>
+      <c r="AR29" s="7">
+        <v>2040</v>
+      </c>
+      <c r="AU29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV29" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>ETCLE-CCS-N</v>
+      </c>
+      <c r="AW29" s="7">
+        <v>2050</v>
+      </c>
+      <c r="AZ29" t="str">
+        <f t="shared" si="19"/>
+        <v>NCAP_COST</v>
+      </c>
+      <c r="BA29" t="str">
+        <f t="shared" si="20"/>
+        <v>ETCLE-CCS-N</v>
+      </c>
+      <c r="BB29">
+        <f t="shared" si="9"/>
+        <v>129449.205424</v>
+      </c>
+      <c r="BC29" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="BD29" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BE29" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="BF29" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="BG29" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="BJ29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:64" x14ac:dyDescent="0.25">
+      <c r="C30" s="19"/>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="4"/>
+      <c r="T30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="U30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V30" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W30" s="7">
+        <v>2017</v>
+      </c>
+      <c r="X30">
+        <v>34722.7166</v>
+      </c>
+      <c r="Z30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA30" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>EPTSTO-N</v>
+      </c>
+      <c r="AB30" s="7">
+        <v>2020</v>
+      </c>
+      <c r="AE30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF30" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>EPTSTO-N</v>
+      </c>
+      <c r="AG30" s="7">
+        <v>2025</v>
+      </c>
+      <c r="AJ30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK30" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>EPTSTO-N</v>
+      </c>
+      <c r="AL30" s="7">
+        <v>2030</v>
+      </c>
+      <c r="AP30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ30" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>EPTSTO-N</v>
+      </c>
+      <c r="AR30" s="7">
+        <v>2040</v>
+      </c>
+      <c r="AU30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV30" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>EPTSTO-N</v>
+      </c>
+      <c r="AW30" s="7">
+        <v>2050</v>
+      </c>
+      <c r="AZ30" t="str">
+        <f t="shared" si="19"/>
+        <v>NCAP_COST</v>
+      </c>
+      <c r="BA30" t="str">
+        <f t="shared" si="20"/>
+        <v>EPTSTO-N</v>
+      </c>
+      <c r="BB30">
+        <f t="shared" si="9"/>
+        <v>38194.988260000006</v>
+      </c>
+      <c r="BC30" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="BD30" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BE30" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="BF30" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="BG30" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="BJ30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:64" x14ac:dyDescent="0.25">
+      <c r="C31" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" t="str">
+        <f>D31</f>
+        <v>cemch_e</v>
+      </c>
+      <c r="J31" t="str">
+        <f>E31</f>
+        <v>cmach_e</v>
+      </c>
+      <c r="L31" t="str">
+        <f>I31</f>
+        <v>cemch_e</v>
+      </c>
+      <c r="M31" t="str">
+        <f>J31</f>
+        <v>cmach_e</v>
+      </c>
+      <c r="N31" t="s">
+        <v>124</v>
+      </c>
+      <c r="O31" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="T31" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="U31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V31" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="W31" s="7">
+        <v>2017</v>
+      </c>
+      <c r="X31">
+        <v>73433.283439999999</v>
+      </c>
+      <c r="Z31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA31" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>ETCLDFB-N</v>
+      </c>
+      <c r="AB31" s="7">
+        <v>2020</v>
+      </c>
+      <c r="AE31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF31" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>ETCLDFB-N</v>
+      </c>
+      <c r="AG31" s="7">
+        <v>2025</v>
+      </c>
+      <c r="AJ31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK31" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>ETCLDFB-N</v>
+      </c>
+      <c r="AL31" s="7">
+        <v>2030</v>
+      </c>
+      <c r="AP31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ31" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>ETCLDFB-N</v>
+      </c>
+      <c r="AR31" s="7">
+        <v>2040</v>
+      </c>
+      <c r="AU31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV31" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>ETCLDFB-N</v>
+      </c>
+      <c r="AW31" s="7">
+        <v>2050</v>
+      </c>
+      <c r="AZ31" t="str">
+        <f t="shared" si="19"/>
+        <v>NCAP_COST</v>
+      </c>
+      <c r="BA31" t="str">
+        <f t="shared" si="20"/>
+        <v>ETCLDFB-N</v>
+      </c>
+      <c r="BB31">
+        <f t="shared" si="9"/>
+        <v>80776.611784000008</v>
+      </c>
+      <c r="BC31" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="BD31" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BE31" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="BF31" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="BG31" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="BJ31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:64" x14ac:dyDescent="0.25">
+      <c r="C32" s="19">
+        <v>2019</v>
+      </c>
+      <c r="D32">
+        <v>6.18</v>
+      </c>
+      <c r="E32">
+        <v>3.33</v>
+      </c>
+      <c r="F32">
+        <v>5.6</v>
+      </c>
+      <c r="G32">
+        <v>2.96</v>
+      </c>
+      <c r="I32">
+        <f>D32+F32</f>
+        <v>11.78</v>
+      </c>
+      <c r="J32">
+        <f>E32+G32</f>
+        <v>6.29</v>
+      </c>
+      <c r="L32" s="23">
+        <f>D32/I32</f>
+        <v>0.52461799660441422</v>
+      </c>
+      <c r="M32" s="23">
+        <f>E32/J32</f>
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="N32" s="5">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="O32" s="24">
+        <v>0.08</v>
+      </c>
+      <c r="T32" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="U32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V32" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="W32" s="7">
+        <v>2017</v>
+      </c>
+      <c r="X32">
+        <v>106024.612628</v>
+      </c>
+      <c r="Z32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA32" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>ETNUC-N</v>
+      </c>
+      <c r="AB32" s="7">
+        <v>2020</v>
+      </c>
+      <c r="AE32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF32" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>ETNUC-N</v>
+      </c>
+      <c r="AG32" s="7">
+        <v>2025</v>
+      </c>
+      <c r="AJ32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK32" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>ETNUC-N</v>
+      </c>
+      <c r="AL32" s="7">
+        <v>2030</v>
+      </c>
+      <c r="AP32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ32" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>ETNUC-N</v>
+      </c>
+      <c r="AR32" s="7">
+        <v>2040</v>
+      </c>
+      <c r="AU32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV32" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>ETNUC-N</v>
+      </c>
+      <c r="AW32" s="7">
+        <v>2050</v>
+      </c>
+      <c r="AZ32" t="str">
+        <f t="shared" si="19"/>
+        <v>NCAP_COST</v>
+      </c>
+      <c r="BA32" t="str">
+        <f t="shared" si="20"/>
+        <v>ETNUC-N</v>
+      </c>
+      <c r="BB32">
+        <f t="shared" si="9"/>
+        <v>116627.07389080001</v>
+      </c>
+      <c r="BC32" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="BD32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BE32" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="BF32" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="BG32" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="BJ32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="C33" s="19">
+        <v>2020</v>
+      </c>
+      <c r="D33">
+        <v>7.48</v>
+      </c>
+      <c r="E33">
+        <v>8.48</v>
+      </c>
+      <c r="F33">
+        <v>6.5</v>
+      </c>
+      <c r="G33">
+        <v>7.2</v>
+      </c>
+      <c r="O33" s="22"/>
+      <c r="T33" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="U33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V33" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W33" s="7">
+        <v>2017</v>
+      </c>
+      <c r="X33">
+        <v>89407.982771283598</v>
+      </c>
+      <c r="Z33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA33" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>ERSOLTC09-N</v>
+      </c>
+      <c r="AB33" s="7">
+        <v>2020</v>
+      </c>
+      <c r="AC33">
+        <v>81398.386302773797</v>
+      </c>
+      <c r="AE33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF33" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>ERSOLTC09-N</v>
+      </c>
+      <c r="AG33" s="7">
+        <v>2025</v>
+      </c>
+      <c r="AH33">
+        <v>68049.058855257405</v>
+      </c>
+      <c r="AJ33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK33" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>ERSOLTC09-N</v>
+      </c>
+      <c r="AL33" s="7">
+        <v>2030</v>
+      </c>
+      <c r="AM33">
+        <v>54699.731407741099</v>
+      </c>
+      <c r="AP33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ33" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>ERSOLTC09-N</v>
+      </c>
+      <c r="AR33" s="7">
+        <v>2040</v>
+      </c>
+      <c r="AS33">
+        <v>54699.731407741099</v>
+      </c>
+      <c r="AU33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV33" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>ERSOLTC09-N</v>
+      </c>
+      <c r="AW33" s="7">
+        <v>2050</v>
+      </c>
+      <c r="AX33">
+        <v>54699.731407741099</v>
+      </c>
+      <c r="AZ33" t="str">
+        <f t="shared" si="19"/>
+        <v>NCAP_COST</v>
+      </c>
+      <c r="BA33" t="str">
+        <f t="shared" si="20"/>
+        <v>ERSOLTC09-N</v>
+      </c>
+      <c r="BB33">
+        <f t="shared" si="9"/>
+        <v>98348.781048411969</v>
+      </c>
+      <c r="BC33">
+        <f t="shared" si="10"/>
+        <v>89538.224933051184</v>
+      </c>
+      <c r="BD33">
+        <f t="shared" si="11"/>
+        <v>74853.964740783151</v>
+      </c>
+      <c r="BE33">
+        <f t="shared" si="12"/>
+        <v>60169.704548515212</v>
+      </c>
+      <c r="BF33">
+        <f t="shared" si="13"/>
+        <v>60169.704548515212</v>
+      </c>
+      <c r="BG33">
+        <f t="shared" si="14"/>
+        <v>60169.704548515212</v>
+      </c>
+      <c r="BJ33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="C34" s="25"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="26"/>
+      <c r="T34" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U34" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V34" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="W34" s="7">
+        <v>2017</v>
+      </c>
+      <c r="X34">
+        <v>21455.514407079601</v>
+      </c>
+      <c r="Z34" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA34" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>ERSOLPCF-N</v>
+      </c>
+      <c r="AB34" s="7">
+        <v>2020</v>
+      </c>
+      <c r="AC34">
+        <v>15191.2526690265</v>
+      </c>
+      <c r="AE34" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF34" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>ERSOLPCF-N</v>
+      </c>
+      <c r="AG34" s="7">
+        <v>2025</v>
+      </c>
+      <c r="AH34">
+        <v>14259.843614159299</v>
+      </c>
+      <c r="AJ34" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK34" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>ERSOLPCF-N</v>
+      </c>
+      <c r="AL34" s="7">
+        <v>2030</v>
+      </c>
+      <c r="AM34">
+        <v>13396.6218265486</v>
+      </c>
+      <c r="AP34" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ34" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>ERSOLPCF-N</v>
+      </c>
+      <c r="AR34" s="7">
+        <v>2040</v>
+      </c>
+      <c r="AS34">
+        <v>11900.8543256637</v>
+      </c>
+      <c r="AU34" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV34" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>ERSOLPCF-N</v>
+      </c>
+      <c r="AW34" s="7">
+        <v>2050</v>
+      </c>
+      <c r="AX34">
+        <v>10513.896293805299</v>
+      </c>
+      <c r="AZ34" t="str">
+        <f t="shared" si="19"/>
+        <v>NCAP_COST</v>
+      </c>
+      <c r="BA34" t="str">
+        <f t="shared" si="20"/>
+        <v>ERSOLPCF-N</v>
+      </c>
+      <c r="BB34">
+        <f t="shared" si="9"/>
+        <v>23601.065847787562</v>
+      </c>
+      <c r="BC34">
+        <f t="shared" si="10"/>
+        <v>16710.377935929151</v>
+      </c>
+      <c r="BD34">
+        <f t="shared" si="11"/>
+        <v>15685.82797557523</v>
+      </c>
+      <c r="BE34">
+        <f t="shared" si="12"/>
+        <v>14736.284009203462</v>
+      </c>
+      <c r="BF34">
+        <f t="shared" si="13"/>
+        <v>13090.939758230072</v>
+      </c>
+      <c r="BG34">
+        <f t="shared" si="14"/>
+        <v>11565.285923185829</v>
+      </c>
+      <c r="BJ34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="T35" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="U35" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V35" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W35" s="7">
+        <v>2017</v>
+      </c>
+      <c r="X35">
+        <v>22872.387999999999</v>
+      </c>
+      <c r="Z35" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA35" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>ERSOLPCT-N</v>
+      </c>
+      <c r="AB35" s="7">
+        <v>2020</v>
+      </c>
+      <c r="AC35">
+        <v>16194.4486</v>
+      </c>
+      <c r="AE35" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF35" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>ERSOLPCT-N</v>
+      </c>
+      <c r="AG35" s="7">
+        <v>2025</v>
+      </c>
+      <c r="AH35">
+        <v>15201.5314</v>
+      </c>
+      <c r="AJ35" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK35" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>ERSOLPCT-N</v>
+      </c>
+      <c r="AL35" s="7">
+        <v>2030</v>
+      </c>
+      <c r="AM35">
+        <v>14281.304400000001</v>
+      </c>
+      <c r="AP35" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ35" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>ERSOLPCT-N</v>
+      </c>
+      <c r="AR35" s="7">
+        <v>2040</v>
+      </c>
+      <c r="AS35">
+        <v>12686.7598</v>
+      </c>
+      <c r="AU35" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV35" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>ERSOLPCT-N</v>
+      </c>
+      <c r="AW35" s="7">
+        <v>2050</v>
+      </c>
+      <c r="AX35">
+        <v>11208.2102</v>
+      </c>
+      <c r="AZ35" t="str">
+        <f t="shared" si="19"/>
+        <v>NCAP_COST</v>
+      </c>
+      <c r="BA35" t="str">
+        <f t="shared" si="20"/>
+        <v>ERSOLPCT-N</v>
+      </c>
+      <c r="BB35">
+        <f t="shared" si="9"/>
+        <v>25159.626800000002</v>
+      </c>
+      <c r="BC35">
+        <f t="shared" si="10"/>
+        <v>17813.893459999999</v>
+      </c>
+      <c r="BD35">
+        <f t="shared" si="11"/>
+        <v>16721.684540000002</v>
+      </c>
+      <c r="BE35">
+        <f t="shared" si="12"/>
+        <v>15709.434840000002</v>
+      </c>
+      <c r="BF35">
+        <f t="shared" si="13"/>
+        <v>13955.435780000002</v>
+      </c>
+      <c r="BG35">
+        <f t="shared" si="14"/>
+        <v>12329.031220000001</v>
+      </c>
+      <c r="BJ35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="T36" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="U36" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V36" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="W36" s="7">
+        <v>2017</v>
+      </c>
+      <c r="X36">
+        <v>23683.387200000001</v>
+      </c>
+      <c r="Z36" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA36" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>ERWNDH-N</v>
+      </c>
+      <c r="AB36" s="7">
+        <v>2020</v>
+      </c>
+      <c r="AC36">
+        <v>19332.5</v>
+      </c>
+      <c r="AE36" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF36" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>ERWNDH-N</v>
+      </c>
+      <c r="AG36" s="7">
+        <v>2025</v>
+      </c>
+      <c r="AH36">
+        <v>19163.920600000001</v>
+      </c>
+      <c r="AJ36" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK36" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>ERWNDH-N</v>
+      </c>
+      <c r="AL36" s="7">
+        <v>2030</v>
+      </c>
+      <c r="AM36">
+        <v>18996.8878</v>
+      </c>
+      <c r="AP36" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ36" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>ERWNDH-N</v>
+      </c>
+      <c r="AR36" s="7">
+        <v>2040</v>
+      </c>
+      <c r="AS36">
+        <v>18665.915400000002</v>
+      </c>
+      <c r="AU36" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV36" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>ERWNDH-N</v>
+      </c>
+      <c r="AW36" s="7">
+        <v>2050</v>
+      </c>
+      <c r="AX36">
+        <v>18341.129400000002</v>
+      </c>
+      <c r="AZ36" t="str">
+        <f t="shared" si="19"/>
+        <v>NCAP_COST</v>
+      </c>
+      <c r="BA36" t="str">
+        <f t="shared" si="20"/>
+        <v>ERWNDH-N</v>
+      </c>
+      <c r="BB36">
+        <f t="shared" si="9"/>
+        <v>26051.725920000004</v>
+      </c>
+      <c r="BC36">
+        <f t="shared" si="10"/>
+        <v>21265.75</v>
+      </c>
+      <c r="BD36">
+        <f t="shared" si="11"/>
+        <v>21080.312660000003</v>
+      </c>
+      <c r="BE36">
+        <f t="shared" si="12"/>
+        <v>20896.576580000001</v>
+      </c>
+      <c r="BF36">
+        <f t="shared" si="13"/>
+        <v>20532.506940000003</v>
+      </c>
+      <c r="BG36">
+        <f t="shared" si="14"/>
+        <v>20175.242340000004</v>
+      </c>
+      <c r="BJ36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="T37" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="U37" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V37" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W37" s="7">
+        <v>2017</v>
+      </c>
+      <c r="X37">
+        <v>14021.305759999999</v>
+      </c>
+      <c r="Z37" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA37" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>ETGICGT-N</v>
+      </c>
+      <c r="AB37" s="7">
+        <v>2020</v>
+      </c>
+      <c r="AE37" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF37" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>ETGICGT-N</v>
+      </c>
+      <c r="AG37" s="7">
+        <v>2025</v>
+      </c>
+      <c r="AJ37" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK37" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>ETGICGT-N</v>
+      </c>
+      <c r="AL37" s="7">
+        <v>2030</v>
+      </c>
+      <c r="AP37" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ37" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>ETGICGT-N</v>
+      </c>
+      <c r="AR37" s="7">
+        <v>2040</v>
+      </c>
+      <c r="AU37" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV37" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>ETGICGT-N</v>
+      </c>
+      <c r="AW37" s="7">
+        <v>2050</v>
+      </c>
+      <c r="AZ37" t="str">
+        <f t="shared" si="19"/>
+        <v>NCAP_COST</v>
+      </c>
+      <c r="BA37" t="str">
+        <f t="shared" si="20"/>
+        <v>ETGICGT-N</v>
+      </c>
+      <c r="BB37">
+        <f t="shared" si="9"/>
+        <v>15423.436336000001</v>
+      </c>
+      <c r="BC37" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="BD37" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BE37" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="BF37" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="BG37" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="BJ37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="B38" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="T38" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="U38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V38" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="W38" s="7">
+        <v>2017</v>
+      </c>
+      <c r="X38">
+        <v>38234.504000000001</v>
+      </c>
+      <c r="Z38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA38" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>ETHGNGT-N</v>
+      </c>
+      <c r="AB38" s="7">
+        <v>2020</v>
+      </c>
+      <c r="AE38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF38" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>ETHGNGT-N</v>
+      </c>
+      <c r="AG38" s="7">
+        <v>2025</v>
+      </c>
+      <c r="AJ38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK38" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>ETHGNGT-N</v>
+      </c>
+      <c r="AL38" s="7">
+        <v>2030</v>
+      </c>
+      <c r="AP38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ38" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>ETHGNGT-N</v>
+      </c>
+      <c r="AR38" s="7">
+        <v>2040</v>
+      </c>
+      <c r="AU38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV38" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>ETHGNGT-N</v>
+      </c>
+      <c r="AW38" s="7">
+        <v>2050</v>
+      </c>
+      <c r="AZ38" t="str">
+        <f t="shared" si="19"/>
+        <v>NCAP_COST</v>
+      </c>
+      <c r="BA38" t="str">
+        <f t="shared" si="20"/>
+        <v>ETHGNGT-N</v>
+      </c>
+      <c r="BB38">
+        <f t="shared" si="9"/>
+        <v>42057.954400000002</v>
+      </c>
+      <c r="BC38" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="BD38" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BE38" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="BF38" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="BG38" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="BJ38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="T39" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="U39" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V39" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="W39" s="7">
+        <v>2017</v>
+      </c>
+      <c r="X39">
+        <v>15396.688560000001</v>
+      </c>
+      <c r="Z39" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA39" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>ETGICCC-N</v>
+      </c>
+      <c r="AB39" s="7">
+        <v>2020</v>
+      </c>
+      <c r="AE39" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF39" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>ETGICCC-N</v>
+      </c>
+      <c r="AG39" s="7">
+        <v>2025</v>
+      </c>
+      <c r="AJ39" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK39" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>ETGICCC-N</v>
+      </c>
+      <c r="AL39" s="7">
+        <v>2030</v>
+      </c>
+      <c r="AP39" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ39" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>ETGICCC-N</v>
+      </c>
+      <c r="AR39" s="7">
+        <v>2040</v>
+      </c>
+      <c r="AU39" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV39" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>ETGICCC-N</v>
+      </c>
+      <c r="AW39" s="7">
+        <v>2050</v>
+      </c>
+      <c r="AZ39" t="str">
+        <f t="shared" si="19"/>
+        <v>NCAP_COST</v>
+      </c>
+      <c r="BA39" t="str">
+        <f t="shared" si="20"/>
+        <v>ETGICCC-N</v>
+      </c>
+      <c r="BB39">
+        <f t="shared" si="9"/>
+        <v>16936.357416000003</v>
+      </c>
+      <c r="BC39" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="BD39" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BE39" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="BF39" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="BG39" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="BJ39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="C40" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="T40" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="U40" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V40" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W40" s="7">
+        <v>2017</v>
+      </c>
+      <c r="X40">
+        <v>33832.897120000001</v>
+      </c>
+      <c r="Z40" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA40" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>ETGICCC-CCS-N</v>
+      </c>
+      <c r="AB40" s="7">
+        <v>2020</v>
+      </c>
+      <c r="AE40" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF40" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>ETGICCC-CCS-N</v>
+      </c>
+      <c r="AG40" s="7">
+        <v>2025</v>
+      </c>
+      <c r="AJ40" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK40" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>ETGICCC-CCS-N</v>
+      </c>
+      <c r="AL40" s="7">
+        <v>2030</v>
+      </c>
+      <c r="AP40" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ40" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>ETGICCC-CCS-N</v>
+      </c>
+      <c r="AR40" s="7">
+        <v>2040</v>
+      </c>
+      <c r="AU40" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV40" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>ETGICCC-CCS-N</v>
+      </c>
+      <c r="AW40" s="7">
+        <v>2050</v>
+      </c>
+      <c r="AZ40" t="str">
+        <f t="shared" si="19"/>
+        <v>NCAP_COST</v>
+      </c>
+      <c r="BA40" t="str">
+        <f t="shared" si="20"/>
+        <v>ETGICCC-CCS-N</v>
+      </c>
+      <c r="BB40">
+        <f t="shared" si="9"/>
+        <v>37216.186832000007</v>
+      </c>
+      <c r="BC40" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="BD40" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BE40" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="BF40" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="BG40" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="BJ40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="C41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" t="s">
+        <v>112</v>
+      </c>
+      <c r="G41" s="5">
+        <f>1-M32</f>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="H41" s="5">
+        <f>G41</f>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="I41" s="15">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J41" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="K41" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="L41" s="15">
+        <v>0.85</v>
+      </c>
+      <c r="T41" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="U41" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V41" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="W41" s="7">
+        <v>2017</v>
+      </c>
+      <c r="X41">
+        <v>21875.425439999999</v>
+      </c>
+      <c r="Z41" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA41" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>ETGICEN-N</v>
+      </c>
+      <c r="AB41" s="7">
+        <v>2020</v>
+      </c>
+      <c r="AE41" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF41" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>ETGICEN-N</v>
+      </c>
+      <c r="AG41" s="7">
+        <v>2025</v>
+      </c>
+      <c r="AJ41" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK41" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>ETGICEN-N</v>
+      </c>
+      <c r="AL41" s="7">
+        <v>2030</v>
+      </c>
+      <c r="AP41" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ41" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>ETGICEN-N</v>
+      </c>
+      <c r="AR41" s="7">
+        <v>2040</v>
+      </c>
+      <c r="AU41" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV41" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>ETGICEN-N</v>
+      </c>
+      <c r="AW41" s="7">
+        <v>2050</v>
+      </c>
+      <c r="AZ41" t="str">
+        <f t="shared" si="19"/>
+        <v>NCAP_COST</v>
+      </c>
+      <c r="BA41" t="str">
+        <f t="shared" si="20"/>
+        <v>ETGICEN-N</v>
+      </c>
+      <c r="BB41">
+        <f t="shared" si="9"/>
+        <v>24062.967984000003</v>
+      </c>
+      <c r="BC41" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="BD41" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BE41" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="BF41" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="BG41" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="BJ41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="C42" t="str">
+        <f>C41</f>
+        <v>cmach_e</v>
+      </c>
+      <c r="F42" t="s">
+        <v>113</v>
+      </c>
+      <c r="G42" s="5">
+        <f>G41</f>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="H42" s="5">
+        <f>G42</f>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="I42" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J42" s="15">
+        <v>0.65</v>
+      </c>
+      <c r="K42" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="L42" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="T42" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="U42" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V42" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W42" s="7">
+        <v>2017</v>
+      </c>
+      <c r="X42">
+        <v>29248.437984222699</v>
+      </c>
+      <c r="Z42" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA42" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>ERBIO-N</v>
+      </c>
+      <c r="AB42" s="7">
+        <v>2020</v>
+      </c>
+      <c r="AE42" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF42" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>ERBIO-N</v>
+      </c>
+      <c r="AG42" s="7">
+        <v>2025</v>
+      </c>
+      <c r="AJ42" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK42" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>ERBIO-N</v>
+      </c>
+      <c r="AL42" s="7">
+        <v>2030</v>
+      </c>
+      <c r="AP42" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ42" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>ERBIO-N</v>
+      </c>
+      <c r="AR42" s="7">
+        <v>2040</v>
+      </c>
+      <c r="AU42" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV42" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>ERBIO-N</v>
+      </c>
+      <c r="AW42" s="7">
+        <v>2050</v>
+      </c>
+      <c r="AZ42" t="str">
+        <f t="shared" si="19"/>
+        <v>NCAP_COST</v>
+      </c>
+      <c r="BA42" t="str">
+        <f t="shared" si="20"/>
+        <v>ERBIO-N</v>
+      </c>
+      <c r="BB42">
+        <f t="shared" si="9"/>
+        <v>32173.281782644972</v>
+      </c>
+      <c r="BC42" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="BD42" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BE42" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="BF42" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="BG42" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="BJ42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="C43" t="str">
+        <f>C42</f>
+        <v>cmach_e</v>
+      </c>
+      <c r="F43" t="s">
+        <v>114</v>
+      </c>
+      <c r="G43" s="5">
+        <f>G42</f>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="H43" s="5">
+        <f>G43</f>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="I43" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J43" s="15">
         <v>0.6</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K43" s="15">
+        <v>0.65</v>
+      </c>
+      <c r="L43" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T43" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="U43" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V43" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="W43" s="7">
+        <v>2017</v>
+      </c>
+      <c r="X43">
+        <v>29248.437984222699</v>
+      </c>
+      <c r="Z43" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA43" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>ERBIG-N</v>
+      </c>
+      <c r="AB43" s="7">
+        <v>2020</v>
+      </c>
+      <c r="AE43" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF43" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>ERBIG-N</v>
+      </c>
+      <c r="AG43" s="7">
+        <v>2025</v>
+      </c>
+      <c r="AJ43" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK43" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>ERBIG-N</v>
+      </c>
+      <c r="AL43" s="7">
+        <v>2030</v>
+      </c>
+      <c r="AP43" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ43" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>ERBIG-N</v>
+      </c>
+      <c r="AR43" s="7">
+        <v>2040</v>
+      </c>
+      <c r="AU43" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV43" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>ERBIG-N</v>
+      </c>
+      <c r="AW43" s="7">
+        <v>2050</v>
+      </c>
+      <c r="AZ43" t="str">
+        <f t="shared" si="19"/>
+        <v>NCAP_COST</v>
+      </c>
+      <c r="BA43" t="str">
+        <f t="shared" si="20"/>
+        <v>ERBIG-N</v>
+      </c>
+      <c r="BB43">
+        <f t="shared" si="9"/>
+        <v>32173.281782644972</v>
+      </c>
+      <c r="BC43" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="BD43" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BE43" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="BF43" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="BG43" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="BJ43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="C44" t="str">
+        <f>C43</f>
+        <v>cmach_e</v>
+      </c>
+      <c r="F44" t="s">
+        <v>127</v>
+      </c>
+      <c r="G44" s="5">
+        <f>G43</f>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="H44" s="5">
+        <f>G44</f>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="I44" s="5">
+        <f t="shared" ref="I44:L44" si="21">H44</f>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="J44" s="5">
+        <f t="shared" si="21"/>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="K44" s="5">
+        <f t="shared" si="21"/>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="L44" s="5">
+        <f t="shared" si="21"/>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="N44" t="s">
+        <v>128</v>
+      </c>
+      <c r="T44" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="U44" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V44" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="W44" s="7">
+        <v>2017</v>
+      </c>
+      <c r="X44">
+        <v>42015.284959999997</v>
+      </c>
+      <c r="Z44" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA44" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>ESTSUTL</v>
+      </c>
+      <c r="AB44" s="7">
+        <v>2020</v>
+      </c>
+      <c r="AC44">
+        <v>26933.083740014099</v>
+      </c>
+      <c r="AE44" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF44" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>ESTSUTL</v>
+      </c>
+      <c r="AG44" s="7">
+        <v>2025</v>
+      </c>
+      <c r="AH44">
+        <v>26591.811125704</v>
+      </c>
+      <c r="AJ44" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK44" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>ESTSUTL</v>
+      </c>
+      <c r="AL44" s="7">
+        <v>2030</v>
+      </c>
+      <c r="AM44">
+        <v>22290.023759944099</v>
+      </c>
+      <c r="AP44" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ44" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>ESTSUTL</v>
+      </c>
+      <c r="AR44" s="7">
+        <v>2040</v>
+      </c>
+      <c r="AS44">
+        <v>18852.7362232987</v>
+      </c>
+      <c r="AU44" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV44" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>ESTSUTL</v>
+      </c>
+      <c r="AW44" s="7">
+        <v>2050</v>
+      </c>
+      <c r="AX44">
+        <v>15417.019777003599</v>
+      </c>
+      <c r="AZ44" t="str">
+        <f t="shared" si="19"/>
+        <v>NCAP_COST</v>
+      </c>
+      <c r="BA44" t="str">
+        <f t="shared" si="20"/>
+        <v>ESTSUTL</v>
+      </c>
+      <c r="BB44">
+        <f t="shared" si="9"/>
+        <v>46216.813456000003</v>
+      </c>
+      <c r="BC44">
+        <f t="shared" si="10"/>
+        <v>29626.392114015511</v>
+      </c>
+      <c r="BD44">
+        <f t="shared" si="11"/>
+        <v>29250.992238274401</v>
+      </c>
+      <c r="BE44">
+        <f t="shared" si="12"/>
+        <v>24519.026135938511</v>
+      </c>
+      <c r="BF44">
+        <f t="shared" si="13"/>
+        <v>20738.00984562857</v>
+      </c>
+      <c r="BG44">
+        <f t="shared" si="14"/>
+        <v>16958.721754703962</v>
+      </c>
+      <c r="BJ44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="T45" t="s">
+        <v>63</v>
+      </c>
+      <c r="U45" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V45" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W45" s="7">
+        <v>2017</v>
+      </c>
+      <c r="X45">
+        <v>24888.396712212401</v>
+      </c>
+      <c r="Z45" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA45" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>ERSOLPRA-N</v>
+      </c>
+      <c r="AB45" s="7">
+        <v>2020</v>
+      </c>
+      <c r="AC45">
+        <v>17621.853096070899</v>
+      </c>
+      <c r="AE45" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF45" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>ERSOLPRA-N</v>
+      </c>
+      <c r="AG45" s="7">
+        <v>2025</v>
+      </c>
+      <c r="AH45">
+        <v>16541.418592424801</v>
+      </c>
+      <c r="AJ45" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK45" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>ERSOLPRA-N</v>
+      </c>
+      <c r="AL45" s="7">
+        <v>2030</v>
+      </c>
+      <c r="AM45">
+        <v>15540.0813187964</v>
+      </c>
+      <c r="AP45" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ45" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>ERSOLPRA-N</v>
+      </c>
+      <c r="AR45" s="7">
+        <v>2040</v>
+      </c>
+      <c r="AS45">
+        <v>13804.9910177699</v>
+      </c>
+      <c r="AU45" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV45" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>ERSOLPRA-N</v>
+      </c>
+      <c r="AW45" s="7">
+        <v>2050</v>
+      </c>
+      <c r="AX45">
+        <v>12196.119700814201</v>
+      </c>
+      <c r="AZ45" t="str">
+        <f t="shared" si="19"/>
+        <v>NCAP_COST</v>
+      </c>
+      <c r="BA45" t="str">
+        <f t="shared" si="20"/>
+        <v>ERSOLPRA-N</v>
+      </c>
+      <c r="BB45">
+        <f t="shared" si="9"/>
+        <v>27377.236383433643</v>
+      </c>
+      <c r="BC45">
+        <f t="shared" si="10"/>
+        <v>19384.038405677991</v>
+      </c>
+      <c r="BD45">
+        <f t="shared" si="11"/>
+        <v>18195.560451667283</v>
+      </c>
+      <c r="BE45">
+        <f t="shared" si="12"/>
+        <v>17094.089450676041</v>
+      </c>
+      <c r="BF45">
+        <f t="shared" si="13"/>
+        <v>15185.490119546892</v>
+      </c>
+      <c r="BG45">
+        <f t="shared" si="14"/>
+        <v>13415.731670895622</v>
+      </c>
+      <c r="BJ45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="T46" t="s">
+        <v>65</v>
+      </c>
+      <c r="U46" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V46" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W46" s="7">
+        <v>2017</v>
+      </c>
+      <c r="X46">
+        <v>24888.396712212401</v>
+      </c>
+      <c r="Z46" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA46" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>ERSOLPRM-N</v>
+      </c>
+      <c r="AB46" s="7">
+        <v>2020</v>
+      </c>
+      <c r="AC46">
+        <v>17621.853096070899</v>
+      </c>
+      <c r="AE46" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF46" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>ERSOLPRM-N</v>
+      </c>
+      <c r="AG46" s="7">
+        <v>2025</v>
+      </c>
+      <c r="AH46">
+        <v>16541.418592424801</v>
+      </c>
+      <c r="AJ46" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK46" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>ERSOLPRM-N</v>
+      </c>
+      <c r="AL46" s="7">
+        <v>2030</v>
+      </c>
+      <c r="AM46">
+        <v>15540.0813187964</v>
+      </c>
+      <c r="AP46" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ46" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>ERSOLPRM-N</v>
+      </c>
+      <c r="AR46" s="7">
+        <v>2040</v>
+      </c>
+      <c r="AS46">
+        <v>13804.9910177699</v>
+      </c>
+      <c r="AU46" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV46" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>ERSOLPRM-N</v>
+      </c>
+      <c r="AW46" s="7">
+        <v>2050</v>
+      </c>
+      <c r="AX46">
+        <v>12196.119700814201</v>
+      </c>
+      <c r="AZ46" t="str">
+        <f t="shared" si="19"/>
+        <v>NCAP_COST</v>
+      </c>
+      <c r="BA46" t="str">
+        <f t="shared" si="20"/>
+        <v>ERSOLPRM-N</v>
+      </c>
+      <c r="BB46">
+        <f t="shared" si="9"/>
+        <v>27377.236383433643</v>
+      </c>
+      <c r="BC46">
+        <f t="shared" si="10"/>
+        <v>19384.038405677991</v>
+      </c>
+      <c r="BD46">
+        <f t="shared" si="11"/>
+        <v>18195.560451667283</v>
+      </c>
+      <c r="BE46">
+        <f t="shared" si="12"/>
+        <v>17094.089450676041</v>
+      </c>
+      <c r="BF46">
+        <f t="shared" si="13"/>
+        <v>15185.490119546892</v>
+      </c>
+      <c r="BG46">
+        <f t="shared" si="14"/>
+        <v>13415.731670895622</v>
+      </c>
+      <c r="BJ46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="C47" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="T47" t="s">
+        <v>67</v>
+      </c>
+      <c r="U47" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V47" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="W47" s="7">
+        <v>2017</v>
+      </c>
+      <c r="X47">
+        <v>24888.396712212401</v>
+      </c>
+      <c r="Z47" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA47" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>ERSOLPRC-N</v>
+      </c>
+      <c r="AB47" s="7">
+        <v>2020</v>
+      </c>
+      <c r="AC47">
+        <v>17621.853096070899</v>
+      </c>
+      <c r="AE47" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF47" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>ERSOLPRC-N</v>
+      </c>
+      <c r="AG47" s="7">
+        <v>2025</v>
+      </c>
+      <c r="AH47">
+        <v>16541.418592424801</v>
+      </c>
+      <c r="AJ47" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK47" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>ERSOLPRC-N</v>
+      </c>
+      <c r="AL47" s="7">
+        <v>2030</v>
+      </c>
+      <c r="AM47">
+        <v>15540.0813187964</v>
+      </c>
+      <c r="AP47" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ47" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>ERSOLPRC-N</v>
+      </c>
+      <c r="AR47" s="7">
+        <v>2040</v>
+      </c>
+      <c r="AS47">
+        <v>13804.9910177699</v>
+      </c>
+      <c r="AU47" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV47" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>ERSOLPRC-N</v>
+      </c>
+      <c r="AW47" s="7">
+        <v>2050</v>
+      </c>
+      <c r="AX47">
+        <v>12196.119700814201</v>
+      </c>
+      <c r="AZ47" t="str">
+        <f t="shared" si="19"/>
+        <v>NCAP_COST</v>
+      </c>
+      <c r="BA47" t="str">
+        <f t="shared" si="20"/>
+        <v>ERSOLPRC-N</v>
+      </c>
+      <c r="BB47">
+        <f t="shared" si="9"/>
+        <v>27377.236383433643</v>
+      </c>
+      <c r="BC47">
+        <f t="shared" si="10"/>
+        <v>19384.038405677991</v>
+      </c>
+      <c r="BD47">
+        <f t="shared" si="11"/>
+        <v>18195.560451667283</v>
+      </c>
+      <c r="BE47">
+        <f t="shared" si="12"/>
+        <v>17094.089450676041</v>
+      </c>
+      <c r="BF47">
+        <f t="shared" si="13"/>
+        <v>15185.490119546892</v>
+      </c>
+      <c r="BG47">
+        <f t="shared" si="14"/>
+        <v>13415.731670895622</v>
+      </c>
+      <c r="BJ47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="C48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" t="s">
+        <v>112</v>
+      </c>
+      <c r="G48" s="5">
+        <f>1-L32</f>
+        <v>0.47538200339558578</v>
+      </c>
+      <c r="H48" s="5">
+        <f>G48</f>
+        <v>0.47538200339558578</v>
+      </c>
+      <c r="I48" s="15">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J48" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="K48" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="L48" s="15">
+        <v>0.85</v>
+      </c>
+      <c r="T48" t="s">
+        <v>69</v>
+      </c>
+      <c r="U48" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V48" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="W48" s="7">
+        <v>2017</v>
+      </c>
+      <c r="X48">
+        <v>37547.150212389402</v>
+      </c>
+      <c r="Z48" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA48" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>ERSOLPRR-N</v>
+      </c>
+      <c r="AB48" s="7">
+        <v>2020</v>
+      </c>
+      <c r="AC48">
+        <v>26584.692170796399</v>
+      </c>
+      <c r="AE48" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF48" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>ERSOLPRR-N</v>
+      </c>
+      <c r="AG48" s="7">
+        <v>2025</v>
+      </c>
+      <c r="AH48">
+        <v>24954.7263247788</v>
+      </c>
+      <c r="AJ48" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK48" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>ERSOLPRR-N</v>
+      </c>
+      <c r="AL48" s="7">
+        <v>2030</v>
+      </c>
+      <c r="AM48">
+        <v>23444.088196460099</v>
+      </c>
+      <c r="AP48" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ48" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>ERSOLPRR-N</v>
+      </c>
+      <c r="AR48" s="7">
+        <v>2040</v>
+      </c>
+      <c r="AS48">
+        <v>20826.4950699115</v>
+      </c>
+      <c r="AU48" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV48" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>ERSOLPRR-N</v>
+      </c>
+      <c r="AW48" s="7">
+        <v>2050</v>
+      </c>
+      <c r="AX48">
+        <v>18399.318514159299</v>
+      </c>
+      <c r="AZ48" t="str">
+        <f t="shared" si="19"/>
+        <v>NCAP_COST</v>
+      </c>
+      <c r="BA48" t="str">
+        <f t="shared" si="20"/>
+        <v>ERSOLPRR-N</v>
+      </c>
+      <c r="BB48">
+        <f t="shared" si="9"/>
+        <v>41301.865233628349</v>
+      </c>
+      <c r="BC48">
+        <f t="shared" si="10"/>
+        <v>29243.16138787604</v>
+      </c>
+      <c r="BD48">
+        <f t="shared" si="11"/>
+        <v>27450.198957256682</v>
+      </c>
+      <c r="BE48">
+        <f t="shared" si="12"/>
+        <v>25788.49701610611</v>
+      </c>
+      <c r="BF48">
+        <f t="shared" si="13"/>
+        <v>22909.14457690265</v>
+      </c>
+      <c r="BG48">
+        <f t="shared" si="14"/>
+        <v>20239.25036557523</v>
+      </c>
+      <c r="BJ48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="C49" t="str">
+        <f>C48</f>
+        <v>cemch_e</v>
+      </c>
+      <c r="F49" t="s">
+        <v>113</v>
+      </c>
+      <c r="G49" s="5">
+        <f>G48</f>
+        <v>0.47538200339558578</v>
+      </c>
+      <c r="H49" s="5">
+        <f>G49</f>
+        <v>0.47538200339558578</v>
+      </c>
+      <c r="I49" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J49" s="15">
+        <v>0.65</v>
+      </c>
+      <c r="K49" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="L49" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="T49" t="s">
+        <v>71</v>
+      </c>
+      <c r="U49" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V49" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="W49" s="7">
+        <v>2017</v>
+      </c>
+      <c r="X49">
+        <v>24888.396712212401</v>
+      </c>
+      <c r="Z49" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA49" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>ERSOLPRI-N</v>
+      </c>
+      <c r="AB49" s="7">
+        <v>2020</v>
+      </c>
+      <c r="AC49">
+        <v>17621.853096070899</v>
+      </c>
+      <c r="AE49" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF49" s="9" t="str">
+        <f t="shared" si="16"/>
+        <v>ERSOLPRI-N</v>
+      </c>
+      <c r="AG49" s="7">
+        <v>2025</v>
+      </c>
+      <c r="AH49">
+        <v>16541.418592424801</v>
+      </c>
+      <c r="AJ49" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK49" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>ERSOLPRI-N</v>
+      </c>
+      <c r="AL49" s="7">
+        <v>2030</v>
+      </c>
+      <c r="AM49">
+        <v>15540.0813187964</v>
+      </c>
+      <c r="AP49" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ49" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>ERSOLPRI-N</v>
+      </c>
+      <c r="AR49" s="7">
+        <v>2040</v>
+      </c>
+      <c r="AS49">
+        <v>13804.9910177699</v>
+      </c>
+      <c r="AU49" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV49" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>ERSOLPRI-N</v>
+      </c>
+      <c r="AW49" s="7">
+        <v>2050</v>
+      </c>
+      <c r="AX49">
+        <v>12196.119700814201</v>
+      </c>
+      <c r="AZ49" t="str">
+        <f t="shared" si="19"/>
+        <v>NCAP_COST</v>
+      </c>
+      <c r="BA49" t="str">
+        <f t="shared" si="20"/>
+        <v>ERSOLPRI-N</v>
+      </c>
+      <c r="BB49">
+        <f t="shared" si="9"/>
+        <v>27377.236383433643</v>
+      </c>
+      <c r="BC49">
+        <f t="shared" si="10"/>
+        <v>19384.038405677991</v>
+      </c>
+      <c r="BD49">
+        <f t="shared" si="11"/>
+        <v>18195.560451667283</v>
+      </c>
+      <c r="BE49">
+        <f t="shared" si="12"/>
+        <v>17094.089450676041</v>
+      </c>
+      <c r="BF49">
+        <f t="shared" si="13"/>
+        <v>15185.490119546892</v>
+      </c>
+      <c r="BG49">
+        <f t="shared" si="14"/>
+        <v>13415.731670895622</v>
+      </c>
+      <c r="BJ49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="C50" t="str">
+        <f>C49</f>
+        <v>cemch_e</v>
+      </c>
+      <c r="F50" t="s">
+        <v>114</v>
+      </c>
+      <c r="G50" s="5">
+        <f>G49</f>
+        <v>0.47538200339558578</v>
+      </c>
+      <c r="H50" s="5">
+        <f>G50</f>
+        <v>0.47538200339558578</v>
+      </c>
+      <c r="I50" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J50" s="15">
         <v>0.6</v>
       </c>
-      <c r="L5" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="N5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="6">
-        <f>L21</f>
-        <v>0.52461799660441422</v>
-      </c>
-      <c r="H6" s="6">
-        <f>G6</f>
-        <v>0.52461799660441422</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="K6" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="L6" s="7">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="I19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" t="s">
-        <v>16</v>
-      </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" t="str">
-        <f>D20</f>
+      <c r="K50" s="15">
+        <v>0.65</v>
+      </c>
+      <c r="L50" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T50" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="U50" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V50" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="W50" s="7">
+        <v>2017</v>
+      </c>
+      <c r="X50">
+        <v>6962.23719948902</v>
+      </c>
+      <c r="Z50" s="7"/>
+      <c r="AA50" s="9"/>
+      <c r="AB50" s="7"/>
+      <c r="AE50" s="7"/>
+      <c r="AF50" s="9"/>
+      <c r="AG50" s="7"/>
+      <c r="AP50" s="7"/>
+      <c r="AQ50" s="9"/>
+      <c r="AR50" s="7"/>
+      <c r="AU50" s="7"/>
+      <c r="AV50" s="9"/>
+      <c r="AW50" s="7"/>
+      <c r="AZ50" t="str">
+        <f t="shared" si="19"/>
+        <v>NCAP_COST</v>
+      </c>
+      <c r="BA50" t="str">
+        <f t="shared" si="20"/>
+        <v>ETRANS</v>
+      </c>
+      <c r="BB50">
+        <f t="shared" si="9"/>
+        <v>7658.4609194379227</v>
+      </c>
+      <c r="BJ50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="C51" t="str">
+        <f>C50</f>
         <v>cemch_e</v>
       </c>
-      <c r="J20" t="str">
-        <f>E20</f>
-        <v>cmach_e</v>
-      </c>
-      <c r="L20" t="str">
-        <f>I20</f>
-        <v>cemch_e</v>
-      </c>
-      <c r="M20" t="str">
-        <f>J20</f>
-        <v>cmach_e</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <v>2019</v>
-      </c>
-      <c r="D21">
-        <v>6.18</v>
-      </c>
-      <c r="E21">
-        <v>3.33</v>
-      </c>
-      <c r="F21">
-        <v>5.6</v>
-      </c>
-      <c r="G21">
-        <v>2.96</v>
-      </c>
-      <c r="I21">
-        <f>D21+F21</f>
-        <v>11.78</v>
-      </c>
-      <c r="J21">
-        <f>E21+G21</f>
-        <v>6.29</v>
-      </c>
-      <c r="L21" s="5">
-        <f>D21/I21</f>
-        <v>0.52461799660441422</v>
-      </c>
-      <c r="M21" s="5">
-        <f>E21/J21</f>
-        <v>0.52941176470588236</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C22">
-        <v>2020</v>
-      </c>
-      <c r="D22">
-        <v>7.48</v>
-      </c>
-      <c r="E22">
-        <v>8.48</v>
-      </c>
-      <c r="F22">
-        <v>6.5</v>
-      </c>
-      <c r="G22">
-        <v>7.2</v>
-      </c>
+      <c r="F51" t="s">
+        <v>127</v>
+      </c>
+      <c r="G51" s="5">
+        <f>G50</f>
+        <v>0.47538200339558578</v>
+      </c>
+      <c r="H51" s="5">
+        <f>G51</f>
+        <v>0.47538200339558578</v>
+      </c>
+      <c r="I51" s="5">
+        <f t="shared" ref="I51:L51" si="22">H51</f>
+        <v>0.47538200339558578</v>
+      </c>
+      <c r="J51" s="5">
+        <f t="shared" si="22"/>
+        <v>0.47538200339558578</v>
+      </c>
+      <c r="K51" s="5">
+        <f t="shared" si="22"/>
+        <v>0.47538200339558578</v>
+      </c>
+      <c r="L51" s="5">
+        <f t="shared" si="22"/>
+        <v>0.47538200339558578</v>
+      </c>
+      <c r="N51" t="s">
+        <v>128</v>
+      </c>
+      <c r="T51" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="U51" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V51" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="W51" s="7">
+        <v>2017</v>
+      </c>
+      <c r="X51">
+        <v>3093.2</v>
+      </c>
+      <c r="Z51" s="7"/>
+      <c r="AA51" s="9"/>
+      <c r="AB51" s="7"/>
+      <c r="AU51" s="7"/>
+      <c r="AV51" s="9"/>
+      <c r="AW51" s="7"/>
+      <c r="AZ51" t="str">
+        <f t="shared" si="19"/>
+        <v>NCAP_COST</v>
+      </c>
+      <c r="BA51" t="str">
+        <f t="shared" si="20"/>
+        <v>ETRANSDUM</v>
+      </c>
+      <c r="BB51">
+        <f t="shared" si="9"/>
+        <v>3402.52</v>
+      </c>
+      <c r="BJ51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="T52" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="U52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V52" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="W52" s="7">
+        <v>2017</v>
+      </c>
+      <c r="X52">
+        <v>40688.264738559599</v>
+      </c>
+      <c r="Z52" s="7"/>
+      <c r="AA52" s="9"/>
+      <c r="AB52" s="7"/>
+      <c r="AU52" s="7"/>
+      <c r="AV52" s="9"/>
+      <c r="AW52" s="7"/>
+      <c r="AZ52" t="str">
+        <f t="shared" si="19"/>
+        <v>NCAP_COST</v>
+      </c>
+      <c r="BA52" t="str">
+        <f t="shared" si="20"/>
+        <v>XAGRELC</v>
+      </c>
+      <c r="BB52">
+        <f t="shared" si="9"/>
+        <v>44757.091212415566</v>
+      </c>
+      <c r="BJ52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="C53" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="T53" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="U53" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V53" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="W53" s="7">
+        <v>2017</v>
+      </c>
+      <c r="X53">
+        <v>20344.132435184001</v>
+      </c>
+      <c r="Z53" s="7"/>
+      <c r="AA53" s="9"/>
+      <c r="AB53" s="7"/>
+      <c r="AU53" s="7"/>
+      <c r="AV53" s="9"/>
+      <c r="AW53" s="7"/>
+      <c r="AZ53" t="str">
+        <f t="shared" si="19"/>
+        <v>NCAP_COST</v>
+      </c>
+      <c r="BA53" t="str">
+        <f t="shared" si="20"/>
+        <v>XCOMELC</v>
+      </c>
+      <c r="BB53">
+        <f t="shared" si="9"/>
+        <v>22378.545678702401</v>
+      </c>
+      <c r="BJ53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>129</v>
+      </c>
+      <c r="F54" t="s">
+        <v>112</v>
+      </c>
+      <c r="G54" s="6">
+        <f>1-O32</f>
+        <v>0.92</v>
+      </c>
+      <c r="H54" s="6">
+        <f t="shared" ref="H54:I56" si="23">G54</f>
+        <v>0.92</v>
+      </c>
+      <c r="I54" s="15">
+        <f t="shared" si="23"/>
+        <v>0.92</v>
+      </c>
+      <c r="J54" s="15">
+        <v>0.95</v>
+      </c>
+      <c r="K54" s="15">
+        <v>0.98</v>
+      </c>
+      <c r="L54" s="15">
+        <v>0.98</v>
+      </c>
+      <c r="T54" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="U54" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V54" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="W54" s="7">
+        <v>2017</v>
+      </c>
+      <c r="X54">
+        <v>9670.4719226068701</v>
+      </c>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="9"/>
+      <c r="AB54" s="7"/>
+      <c r="AU54" s="7"/>
+      <c r="AV54" s="9"/>
+      <c r="AW54" s="7"/>
+      <c r="AZ54" t="str">
+        <f t="shared" si="19"/>
+        <v>NCAP_COST</v>
+      </c>
+      <c r="BA54" t="str">
+        <f t="shared" si="20"/>
+        <v>XICPELC</v>
+      </c>
+      <c r="BB54">
+        <f t="shared" si="9"/>
+        <v>10637.519114867559</v>
+      </c>
+      <c r="BJ54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>129</v>
+      </c>
+      <c r="F55" t="s">
+        <v>113</v>
+      </c>
+      <c r="G55" s="6">
+        <f>G54</f>
+        <v>0.92</v>
+      </c>
+      <c r="H55" s="6">
+        <f t="shared" si="23"/>
+        <v>0.92</v>
+      </c>
+      <c r="I55" s="15">
+        <f t="shared" si="23"/>
+        <v>0.92</v>
+      </c>
+      <c r="J55" s="15">
+        <f>J54</f>
+        <v>0.95</v>
+      </c>
+      <c r="K55" s="15">
+        <f>J55</f>
+        <v>0.95</v>
+      </c>
+      <c r="L55" s="15">
+        <v>0.98</v>
+      </c>
+      <c r="T55" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="U55" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V55" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="W55" s="7">
+        <v>2017</v>
+      </c>
+      <c r="X55">
+        <v>9670.4719226068701</v>
+      </c>
+      <c r="Z55" s="7"/>
+      <c r="AA55" s="9"/>
+      <c r="AB55" s="7"/>
+      <c r="AU55" s="7"/>
+      <c r="AV55" s="9"/>
+      <c r="AW55" s="7"/>
+      <c r="AZ55" t="str">
+        <f t="shared" si="19"/>
+        <v>NCAP_COST</v>
+      </c>
+      <c r="BA55" t="str">
+        <f t="shared" si="20"/>
+        <v>XIFAELC</v>
+      </c>
+      <c r="BB55">
+        <f t="shared" si="9"/>
+        <v>10637.519114867559</v>
+      </c>
+      <c r="BJ55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>129</v>
+      </c>
+      <c r="F56" t="s">
+        <v>114</v>
+      </c>
+      <c r="G56" s="6">
+        <f>G55</f>
+        <v>0.92</v>
+      </c>
+      <c r="H56" s="6">
+        <f t="shared" si="23"/>
+        <v>0.92</v>
+      </c>
+      <c r="I56" s="15">
+        <f t="shared" si="23"/>
+        <v>0.92</v>
+      </c>
+      <c r="J56" s="15">
+        <f>J55</f>
+        <v>0.95</v>
+      </c>
+      <c r="K56" s="15">
+        <f>K55</f>
+        <v>0.95</v>
+      </c>
+      <c r="L56" s="15">
+        <v>0.95</v>
+      </c>
+      <c r="T56" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="U56" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V56" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="W56" s="7">
+        <v>2017</v>
+      </c>
+      <c r="X56">
+        <v>15536.865868655899</v>
+      </c>
+      <c r="Z56" s="7"/>
+      <c r="AA56" s="9"/>
+      <c r="AB56" s="7"/>
+      <c r="AU56" s="7"/>
+      <c r="AV56" s="9"/>
+      <c r="AW56" s="7"/>
+      <c r="AZ56" t="str">
+        <f t="shared" si="19"/>
+        <v>NCAP_COST</v>
+      </c>
+      <c r="BA56" t="str">
+        <f t="shared" si="20"/>
+        <v>XIFBELC</v>
+      </c>
+      <c r="BB56">
+        <f t="shared" si="9"/>
+        <v>17090.552455521491</v>
+      </c>
+      <c r="BJ56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>129</v>
+      </c>
+      <c r="F57" t="s">
+        <v>127</v>
+      </c>
+      <c r="G57" s="6">
+        <f>G56</f>
+        <v>0.92</v>
+      </c>
+      <c r="H57" s="6">
+        <f>H56</f>
+        <v>0.92</v>
+      </c>
+      <c r="I57" s="6">
+        <f>H57</f>
+        <v>0.92</v>
+      </c>
+      <c r="J57" s="6">
+        <f>I57</f>
+        <v>0.92</v>
+      </c>
+      <c r="K57" s="6">
+        <f t="shared" ref="K57:L57" si="24">J57</f>
+        <v>0.92</v>
+      </c>
+      <c r="L57" s="6">
+        <f t="shared" si="24"/>
+        <v>0.92</v>
+      </c>
+      <c r="N57" t="s">
+        <v>128</v>
+      </c>
+      <c r="T57" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="U57" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V57" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="W57" s="7">
+        <v>2017</v>
+      </c>
+      <c r="X57">
+        <v>9670.4719226068701</v>
+      </c>
+      <c r="AZ57" t="str">
+        <f t="shared" si="19"/>
+        <v>NCAP_COST</v>
+      </c>
+      <c r="BA57" t="str">
+        <f t="shared" si="20"/>
+        <v>XIISELC</v>
+      </c>
+      <c r="BB57">
+        <f t="shared" si="9"/>
+        <v>10637.519114867559</v>
+      </c>
+      <c r="BJ57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="T58" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="U58" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V58" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="W58" s="7">
+        <v>2017</v>
+      </c>
+      <c r="X58">
+        <v>9670.4719226068701</v>
+      </c>
+      <c r="AZ58" t="str">
+        <f t="shared" si="19"/>
+        <v>NCAP_COST</v>
+      </c>
+      <c r="BA58" t="str">
+        <f t="shared" si="20"/>
+        <v>XIMIELC</v>
+      </c>
+      <c r="BB58">
+        <f t="shared" si="9"/>
+        <v>10637.519114867559</v>
+      </c>
+      <c r="BJ58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="C59" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="T59" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="U59" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V59" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="W59" s="7">
+        <v>2017</v>
+      </c>
+      <c r="X59">
+        <v>9670.4719226068701</v>
+      </c>
+      <c r="AZ59" t="str">
+        <f t="shared" si="19"/>
+        <v>NCAP_COST</v>
+      </c>
+      <c r="BA59" t="str">
+        <f t="shared" si="20"/>
+        <v>XINFELC</v>
+      </c>
+      <c r="BB59">
+        <f t="shared" si="9"/>
+        <v>10637.519114867559</v>
+      </c>
+      <c r="BJ59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="C60" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F60" t="s">
+        <v>112</v>
+      </c>
+      <c r="G60" s="6">
+        <f>1-N32</f>
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="H60" s="6">
+        <f t="shared" ref="H60:I62" si="25">G60</f>
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="I60" s="15">
+        <f t="shared" si="25"/>
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="J60" s="15">
+        <f>I60+$O$60</f>
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="K60" s="15">
+        <f t="shared" ref="K60:L63" si="26">J60</f>
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="L60" s="15">
+        <f t="shared" si="26"/>
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="O60" s="28">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="T60" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="U60" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V60" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="W60" s="7">
+        <v>2017</v>
+      </c>
+      <c r="X60">
+        <v>9670.4719226068701</v>
+      </c>
+      <c r="AZ60" t="str">
+        <f t="shared" si="19"/>
+        <v>NCAP_COST</v>
+      </c>
+      <c r="BA60" t="str">
+        <f t="shared" si="20"/>
+        <v>XINMELC</v>
+      </c>
+      <c r="BB60">
+        <f t="shared" si="9"/>
+        <v>10637.519114867559</v>
+      </c>
+      <c r="BJ60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="C61" t="str">
+        <f>C60</f>
+        <v>cmetp</v>
+      </c>
+      <c r="F61" t="s">
+        <v>113</v>
+      </c>
+      <c r="G61" s="6">
+        <f>G60</f>
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="H61" s="6">
+        <f t="shared" si="25"/>
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="I61" s="15">
+        <f t="shared" si="25"/>
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="J61" s="15">
+        <f>J60</f>
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="K61" s="15">
+        <f t="shared" si="26"/>
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="L61" s="15">
+        <f t="shared" si="26"/>
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="T61" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="U61" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V61" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="W61" s="7">
+        <v>2017</v>
+      </c>
+      <c r="X61">
+        <v>15536.865868655899</v>
+      </c>
+      <c r="AZ61" t="str">
+        <f t="shared" si="19"/>
+        <v>NCAP_COST</v>
+      </c>
+      <c r="BA61" t="str">
+        <f t="shared" si="20"/>
+        <v>XIOTELC</v>
+      </c>
+      <c r="BB61">
+        <f t="shared" si="9"/>
+        <v>17090.552455521491</v>
+      </c>
+      <c r="BJ61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="C62" t="str">
+        <f>C61</f>
+        <v>cmetp</v>
+      </c>
+      <c r="F62" t="s">
+        <v>114</v>
+      </c>
+      <c r="G62" s="6">
+        <f>G61</f>
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="H62" s="6">
+        <f t="shared" si="25"/>
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="I62" s="15">
+        <f t="shared" si="25"/>
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="J62" s="15">
+        <f>J61</f>
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="K62" s="15">
+        <f t="shared" si="26"/>
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="L62" s="15">
+        <f t="shared" si="26"/>
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="T62" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="U62" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V62" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="W62" s="7">
+        <v>2017</v>
+      </c>
+      <c r="X62">
+        <v>15536.865868655899</v>
+      </c>
+      <c r="AZ62" t="str">
+        <f t="shared" si="19"/>
+        <v>NCAP_COST</v>
+      </c>
+      <c r="BA62" t="str">
+        <f t="shared" si="20"/>
+        <v>XIPPELC</v>
+      </c>
+      <c r="BB62">
+        <f t="shared" si="9"/>
+        <v>17090.552455521491</v>
+      </c>
+      <c r="BJ62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="C63" t="str">
+        <f>C62</f>
+        <v>cmetp</v>
+      </c>
+      <c r="F63" t="s">
+        <v>127</v>
+      </c>
+      <c r="G63" s="6">
+        <f>G62</f>
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="H63" s="6">
+        <f>H62</f>
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="I63" s="6">
+        <f>H63</f>
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="J63" s="6">
+        <f t="shared" ref="J63" si="27">I63</f>
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="K63" s="6">
+        <f t="shared" si="26"/>
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="L63" s="6">
+        <f t="shared" si="26"/>
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="N63" t="s">
+        <v>128</v>
+      </c>
+      <c r="T63" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="U63" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V63" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="W63" s="7">
+        <v>2017</v>
+      </c>
+      <c r="X63">
+        <v>40688.264738559599</v>
+      </c>
+      <c r="AZ63" t="str">
+        <f t="shared" si="19"/>
+        <v>NCAP_COST</v>
+      </c>
+      <c r="BA63" t="str">
+        <f t="shared" si="20"/>
+        <v>XRESELC</v>
+      </c>
+      <c r="BB63">
+        <f t="shared" si="9"/>
+        <v>44757.091212415566</v>
+      </c>
+      <c r="BJ63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="T64" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="U64" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V64" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="W64" s="7">
+        <v>2017</v>
+      </c>
+      <c r="X64">
+        <v>20344.132435184001</v>
+      </c>
+      <c r="AZ64" t="str">
+        <f t="shared" si="19"/>
+        <v>NCAP_COST</v>
+      </c>
+      <c r="BA64" t="str">
+        <f t="shared" si="20"/>
+        <v>XTRAELC</v>
+      </c>
+      <c r="BB64">
+        <f t="shared" si="9"/>
+        <v>22378.545678702401</v>
+      </c>
+      <c r="BJ64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="20:62" x14ac:dyDescent="0.25">
+      <c r="T65" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="U65" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="V65" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="W65" s="7">
+        <v>2017</v>
+      </c>
+      <c r="X65">
+        <v>10172.066217592001</v>
+      </c>
+      <c r="AZ65" t="str">
+        <f t="shared" si="19"/>
+        <v>NCAP_COST</v>
+      </c>
+      <c r="BA65" t="str">
+        <f t="shared" si="20"/>
+        <v>XUPSELC</v>
+      </c>
+      <c r="BB65">
+        <f t="shared" si="9"/>
+        <v>11189.272839351201</v>
+      </c>
+      <c r="BJ65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="20:62" x14ac:dyDescent="0.25">
+      <c r="V66" s="9"/>
+      <c r="W66" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/suppxls/Scen_Localisation-Lo.xlsx
+++ b/suppxls/Scen_Localisation-Lo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE0AFBC-38BB-4832-815A-77A0FAF85E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AE1569-2897-4891-9C6B-674EC343909C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="1560" windowWidth="24705" windowHeight="14040" xr2:uid="{232E471A-D1BC-46EA-822F-4A9C8F9BFC34}"/>
+    <workbookView xWindow="60" yWindow="15" windowWidth="28770" windowHeight="15570" xr2:uid="{232E471A-D1BC-46EA-822F-4A9C8F9BFC34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="136">
   <si>
     <t>~TFM_INS-TS</t>
   </si>
@@ -426,6 +426,24 @@
   </si>
   <si>
     <t>cbsrv</t>
+  </si>
+  <si>
+    <t>QM</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>QINV(s-e)</t>
+  </si>
+  <si>
+    <t>Max full local</t>
+  </si>
+  <si>
+    <t>metp</t>
+  </si>
+  <si>
+    <t>Cost Increase</t>
   </si>
 </sst>
 </file>
@@ -435,7 +453,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,16 +522,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -601,15 +631,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
@@ -644,9 +690,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Heading 4" xfId="2" builtinId="19"/>
+    <cellStyle name="Input" xfId="5" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 13" xfId="4" xr:uid="{8D155F1E-CE31-43C4-B63E-69EA0E23AFF4}"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{114B2D43-D8F0-4A77-911E-913BD0BF594C}"/>
@@ -1027,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C1C3BE-43A3-4F6E-B7BA-55F1C4F1EF02}">
-  <dimension ref="B2:BL66"/>
+  <dimension ref="B2:BL83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,7 +1097,7 @@
       </c>
     </row>
     <row r="3" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+      <c r="C3" s="30" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1150,27 +1199,27 @@
       </c>
       <c r="G8" s="4">
         <f>1-N32</f>
-        <v>0.76100000000000001</v>
+        <v>0.76065573770491801</v>
       </c>
       <c r="H8" s="4">
         <f>G8</f>
-        <v>0.76100000000000001</v>
+        <v>0.76065573770491801</v>
       </c>
       <c r="I8" s="27">
         <f t="shared" ref="I8:L8" si="2">SUMIFS(I$41:I$63,$C$41:$C$63,$E18,$F$41:$F$63,$C$3)</f>
-        <v>0.76100000000000001</v>
+        <v>0.76065573770491801</v>
       </c>
       <c r="J8" s="27">
         <f t="shared" si="2"/>
-        <v>0.76100000000000001</v>
+        <v>0.76065573770491801</v>
       </c>
       <c r="K8" s="27">
         <f t="shared" si="2"/>
-        <v>0.76100000000000001</v>
+        <v>0.76065573770491801</v>
       </c>
       <c r="L8" s="27">
         <f t="shared" si="2"/>
-        <v>0.76100000000000001</v>
+        <v>0.76065573770491801</v>
       </c>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.25">
@@ -1182,27 +1231,27 @@
       </c>
       <c r="G9" s="4">
         <f>1-O32</f>
-        <v>0.92</v>
+        <v>0.93842364532019706</v>
       </c>
       <c r="H9" s="4">
         <f>G9</f>
-        <v>0.92</v>
+        <v>0.93842364532019706</v>
       </c>
       <c r="I9" s="27">
         <f t="shared" ref="I9:L9" si="3">SUMIFS(I$41:I$63,$C$41:$C$63,$E19,$F$41:$F$63,$C$3)</f>
-        <v>0.92</v>
+        <v>0.93842364532019706</v>
       </c>
       <c r="J9" s="27">
         <f t="shared" si="3"/>
-        <v>0.92</v>
+        <v>0.93842364532019706</v>
       </c>
       <c r="K9" s="27">
         <f t="shared" si="3"/>
-        <v>0.92</v>
+        <v>0.93842364532019706</v>
       </c>
       <c r="L9" s="27">
         <f t="shared" si="3"/>
-        <v>0.92</v>
+        <v>0.93842364532019706</v>
       </c>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.25">
@@ -1346,27 +1395,27 @@
       </c>
       <c r="G18" s="5">
         <f>N32</f>
-        <v>0.23899999999999999</v>
+        <v>0.23934426229508196</v>
       </c>
       <c r="H18" s="5">
         <f>G18</f>
-        <v>0.23899999999999999</v>
+        <v>0.23934426229508196</v>
       </c>
       <c r="I18" s="5">
         <f t="shared" ref="I18:L18" si="6">1-I8</f>
-        <v>0.23899999999999999</v>
+        <v>0.23934426229508199</v>
       </c>
       <c r="J18" s="5">
         <f t="shared" si="6"/>
-        <v>0.23899999999999999</v>
+        <v>0.23934426229508199</v>
       </c>
       <c r="K18" s="5">
         <f t="shared" si="6"/>
-        <v>0.23899999999999999</v>
+        <v>0.23934426229508199</v>
       </c>
       <c r="L18" s="5">
         <f t="shared" si="6"/>
-        <v>0.23899999999999999</v>
+        <v>0.23934426229508199</v>
       </c>
       <c r="T18" s="12" t="s">
         <v>110</v>
@@ -1431,27 +1480,27 @@
       </c>
       <c r="G19" s="6">
         <f>O32</f>
-        <v>0.08</v>
+        <v>6.1576354679802957E-2</v>
       </c>
       <c r="H19" s="5">
         <f>G19</f>
-        <v>0.08</v>
+        <v>6.1576354679802957E-2</v>
       </c>
       <c r="I19" s="5">
         <f t="shared" ref="I19:L19" si="7">1-I9</f>
-        <v>7.999999999999996E-2</v>
+        <v>6.1576354679802936E-2</v>
       </c>
       <c r="J19" s="5">
         <f t="shared" si="7"/>
-        <v>7.999999999999996E-2</v>
+        <v>6.1576354679802936E-2</v>
       </c>
       <c r="K19" s="5">
         <f t="shared" si="7"/>
-        <v>7.999999999999996E-2</v>
+        <v>6.1576354679802936E-2</v>
       </c>
       <c r="L19" s="5">
         <f t="shared" si="7"/>
-        <v>7.999999999999996E-2</v>
+        <v>6.1576354679802936E-2</v>
       </c>
       <c r="T19" s="11" t="s">
         <v>111</v>
@@ -1470,27 +1519,28 @@
         <v>109</v>
       </c>
       <c r="BB22" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="BC22" s="6">
-        <f>BB22</f>
-        <v>0.1</v>
-      </c>
-      <c r="BD22" s="6">
-        <f>BC22</f>
-        <v>0.1</v>
-      </c>
-      <c r="BE22" s="6">
-        <f>BD22</f>
-        <v>0.1</v>
-      </c>
-      <c r="BF22" s="6">
-        <f>BE22</f>
-        <v>0.1</v>
-      </c>
-      <c r="BG22" s="6">
-        <f>BF22</f>
-        <v>0.1</v>
+        <f>SUMIF($F$66:$F$69,$C$3,G66:G69)</f>
+        <v>0</v>
+      </c>
+      <c r="BC22" s="4">
+        <f t="shared" ref="BC22:BG22" si="8">SUMIF($F$66:$F$69,$C$3,H66:H69)</f>
+        <v>0</v>
+      </c>
+      <c r="BD22" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BE22" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BF22" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BG22" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="3:64" x14ac:dyDescent="0.25">
@@ -1677,7 +1727,7 @@
         <v>21</v>
       </c>
       <c r="AQ26" s="9" t="str">
-        <f t="shared" ref="AQ26:AQ49" si="8">V26</f>
+        <f t="shared" ref="AQ26:AQ49" si="9">V26</f>
         <v>ETCLEMEDU-N</v>
       </c>
       <c r="AR26" s="7">
@@ -1702,27 +1752,27 @@
         <v>ETCLEMEDU-N</v>
       </c>
       <c r="BB26">
-        <f t="shared" ref="BB26:BB65" si="9">IF($BJ26,X26*(1+$BB$22),X26)</f>
+        <f t="shared" ref="BB26:BB65" si="10">IF($BJ26,X26*(1+$BB$22),X26)</f>
         <v>51359.8538564517</v>
       </c>
       <c r="BC26" t="str">
-        <f t="shared" ref="BC26:BC49" si="10">IF(IF($BJ26,AC26*(1+BC$22),AC26)=0,"",IF($BJ26,AC26*(1+BC$22),AC26))</f>
+        <f t="shared" ref="BC26:BC49" si="11">IF(IF($BJ26,AC26*(1+BC$22),AC26)=0,"",IF($BJ26,AC26*(1+BC$22),AC26))</f>
         <v/>
       </c>
       <c r="BD26" t="str">
-        <f t="shared" ref="BD26:BD49" si="11">IF(IF($BJ26,AH26*(1+BD$22),AH26)=0,"",IF($BJ26,AH26*(1+BD$22),AH26))</f>
+        <f t="shared" ref="BD26:BD49" si="12">IF(IF($BJ26,AH26*(1+BD$22),AH26)=0,"",IF($BJ26,AH26*(1+BD$22),AH26))</f>
         <v/>
       </c>
       <c r="BE26" t="str">
-        <f t="shared" ref="BE26:BE49" si="12">IF(IF($BJ26,AM26*(1+BE$22),AM26)=0,"",IF($BJ26,AM26*(1+BE$22),AM26))</f>
+        <f t="shared" ref="BE26:BE49" si="13">IF(IF($BJ26,AM26*(1+BE$22),AM26)=0,"",IF($BJ26,AM26*(1+BE$22),AM26))</f>
         <v/>
       </c>
       <c r="BF26" t="str">
-        <f t="shared" ref="BF26:BF49" si="13">IF(IF($BJ26,AS26*(1+BF$22),AS26)=0,"",IF($BJ26,AS26*(1+BF$22),AS26))</f>
+        <f t="shared" ref="BF26:BF49" si="14">IF(IF($BJ26,AS26*(1+BF$22),AS26)=0,"",IF($BJ26,AS26*(1+BF$22),AS26))</f>
         <v/>
       </c>
       <c r="BG26" t="str">
-        <f t="shared" ref="BG26:BG49" si="14">IF(IF($BJ26,AX26*(1+BG$22),AX26)=0,"",IF($BJ26,AX26*(1+BG$22),AX26))</f>
+        <f t="shared" ref="BG26:BG49" si="15">IF(IF($BJ26,AX26*(1+BG$22),AX26)=0,"",IF($BJ26,AX26*(1+BG$22),AX26))</f>
         <v/>
       </c>
       <c r="BJ26">
@@ -1749,7 +1799,7 @@
         <v>21</v>
       </c>
       <c r="AA27" s="9" t="str">
-        <f t="shared" ref="AA27:AA49" si="15">V27</f>
+        <f t="shared" ref="AA27:AA49" si="16">V27</f>
         <v>ETCLEKUSI-N</v>
       </c>
       <c r="AB27" s="7">
@@ -1759,7 +1809,7 @@
         <v>21</v>
       </c>
       <c r="AF27" s="9" t="str">
-        <f t="shared" ref="AF27:AF49" si="16">AA27</f>
+        <f t="shared" ref="AF27:AF49" si="17">AA27</f>
         <v>ETCLEKUSI-N</v>
       </c>
       <c r="AG27" s="7">
@@ -1769,7 +1819,7 @@
         <v>21</v>
       </c>
       <c r="AK27" s="9" t="str">
-        <f t="shared" ref="AK27:AK49" si="17">AF27</f>
+        <f t="shared" ref="AK27:AK49" si="18">AF27</f>
         <v>ETCLEKUSI-N</v>
       </c>
       <c r="AL27" s="7">
@@ -1779,7 +1829,7 @@
         <v>21</v>
       </c>
       <c r="AQ27" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ETCLEKUSI-N</v>
       </c>
       <c r="AR27" s="7">
@@ -1789,42 +1839,42 @@
         <v>21</v>
       </c>
       <c r="AV27" s="9" t="str">
-        <f t="shared" ref="AV27:AV49" si="18">V27</f>
+        <f t="shared" ref="AV27:AV49" si="19">V27</f>
         <v>ETCLEKUSI-N</v>
       </c>
       <c r="AW27" s="7">
         <v>2050</v>
       </c>
       <c r="AZ27" t="str">
-        <f t="shared" ref="AZ27:AZ65" si="19">U27</f>
+        <f t="shared" ref="AZ27:AZ65" si="20">U27</f>
         <v>NCAP_COST</v>
       </c>
       <c r="BA27" t="str">
-        <f t="shared" ref="BA27:BA65" si="20">V27</f>
+        <f t="shared" ref="BA27:BA65" si="21">V27</f>
         <v>ETCLEKUSI-N</v>
       </c>
       <c r="BB27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>51359.8538564517</v>
       </c>
       <c r="BC27" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BD27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BE27" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BF27" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BG27" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="BJ27">
@@ -1854,7 +1904,7 @@
         <v>21</v>
       </c>
       <c r="AA28" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>ETCLEWATE-N</v>
       </c>
       <c r="AB28" s="7">
@@ -1864,7 +1914,7 @@
         <v>21</v>
       </c>
       <c r="AF28" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>ETCLEWATE-N</v>
       </c>
       <c r="AG28" s="7">
@@ -1874,7 +1924,7 @@
         <v>21</v>
       </c>
       <c r="AK28" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ETCLEWATE-N</v>
       </c>
       <c r="AL28" s="7">
@@ -1884,7 +1934,7 @@
         <v>21</v>
       </c>
       <c r="AQ28" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ETCLEWATE-N</v>
       </c>
       <c r="AR28" s="7">
@@ -1894,42 +1944,42 @@
         <v>21</v>
       </c>
       <c r="AV28" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>ETCLEWATE-N</v>
       </c>
       <c r="AW28" s="7">
         <v>2050</v>
       </c>
       <c r="AZ28" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>NCAP_COST</v>
       </c>
       <c r="BA28" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>ETCLEWATE-N</v>
       </c>
       <c r="BB28">
-        <f t="shared" si="9"/>
-        <v>66921.263816000006</v>
+        <f t="shared" si="10"/>
+        <v>60837.512560000003</v>
       </c>
       <c r="BC28" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BD28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BE28" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BF28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BG28" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="BJ28">
@@ -1977,7 +2027,7 @@
         <v>21</v>
       </c>
       <c r="AA29" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>ETCLE-CCS-N</v>
       </c>
       <c r="AB29" s="7">
@@ -1987,7 +2037,7 @@
         <v>21</v>
       </c>
       <c r="AF29" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>ETCLE-CCS-N</v>
       </c>
       <c r="AG29" s="7">
@@ -1997,7 +2047,7 @@
         <v>21</v>
       </c>
       <c r="AK29" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ETCLE-CCS-N</v>
       </c>
       <c r="AL29" s="7">
@@ -2007,7 +2057,7 @@
         <v>21</v>
       </c>
       <c r="AQ29" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ETCLE-CCS-N</v>
       </c>
       <c r="AR29" s="7">
@@ -2017,42 +2067,42 @@
         <v>21</v>
       </c>
       <c r="AV29" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>ETCLE-CCS-N</v>
       </c>
       <c r="AW29" s="7">
         <v>2050</v>
       </c>
       <c r="AZ29" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>NCAP_COST</v>
       </c>
       <c r="BA29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>ETCLE-CCS-N</v>
       </c>
       <c r="BB29">
-        <f t="shared" si="9"/>
-        <v>129449.205424</v>
+        <f t="shared" si="10"/>
+        <v>117681.09583999999</v>
       </c>
       <c r="BC29" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BD29" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BE29" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BF29" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BG29" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="BJ29">
@@ -2105,7 +2155,7 @@
         <v>21</v>
       </c>
       <c r="AA30" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>EPTSTO-N</v>
       </c>
       <c r="AB30" s="7">
@@ -2115,7 +2165,7 @@
         <v>21</v>
       </c>
       <c r="AF30" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>EPTSTO-N</v>
       </c>
       <c r="AG30" s="7">
@@ -2125,7 +2175,7 @@
         <v>21</v>
       </c>
       <c r="AK30" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>EPTSTO-N</v>
       </c>
       <c r="AL30" s="7">
@@ -2135,7 +2185,7 @@
         <v>21</v>
       </c>
       <c r="AQ30" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>EPTSTO-N</v>
       </c>
       <c r="AR30" s="7">
@@ -2145,42 +2195,42 @@
         <v>21</v>
       </c>
       <c r="AV30" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>EPTSTO-N</v>
       </c>
       <c r="AW30" s="7">
         <v>2050</v>
       </c>
       <c r="AZ30" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>NCAP_COST</v>
       </c>
       <c r="BA30" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>EPTSTO-N</v>
       </c>
       <c r="BB30">
-        <f t="shared" si="9"/>
-        <v>38194.988260000006</v>
+        <f t="shared" si="10"/>
+        <v>34722.7166</v>
       </c>
       <c r="BC30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BD30" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BE30" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BF30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BG30" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="BJ30">
@@ -2244,7 +2294,7 @@
         <v>21</v>
       </c>
       <c r="AA31" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>ETCLDFB-N</v>
       </c>
       <c r="AB31" s="7">
@@ -2254,7 +2304,7 @@
         <v>21</v>
       </c>
       <c r="AF31" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>ETCLDFB-N</v>
       </c>
       <c r="AG31" s="7">
@@ -2264,7 +2314,7 @@
         <v>21</v>
       </c>
       <c r="AK31" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ETCLDFB-N</v>
       </c>
       <c r="AL31" s="7">
@@ -2274,7 +2324,7 @@
         <v>21</v>
       </c>
       <c r="AQ31" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ETCLDFB-N</v>
       </c>
       <c r="AR31" s="7">
@@ -2284,42 +2334,42 @@
         <v>21</v>
       </c>
       <c r="AV31" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>ETCLDFB-N</v>
       </c>
       <c r="AW31" s="7">
         <v>2050</v>
       </c>
       <c r="AZ31" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>NCAP_COST</v>
       </c>
       <c r="BA31" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>ETCLDFB-N</v>
       </c>
       <c r="BB31">
-        <f t="shared" si="9"/>
-        <v>80776.611784000008</v>
+        <f t="shared" si="10"/>
+        <v>73433.283439999999</v>
       </c>
       <c r="BC31" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BD31" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BE31" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BF31" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BG31" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="BJ31">
@@ -2359,10 +2409,12 @@
         <v>0.52941176470588236</v>
       </c>
       <c r="N32" s="5">
-        <v>0.23899999999999999</v>
+        <f>G83</f>
+        <v>0.23934426229508196</v>
       </c>
       <c r="O32" s="24">
-        <v>0.08</v>
+        <f>G81</f>
+        <v>6.1576354679802957E-2</v>
       </c>
       <c r="T32" s="9" t="s">
         <v>37</v>
@@ -2383,7 +2435,7 @@
         <v>21</v>
       </c>
       <c r="AA32" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>ETNUC-N</v>
       </c>
       <c r="AB32" s="7">
@@ -2393,7 +2445,7 @@
         <v>21</v>
       </c>
       <c r="AF32" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>ETNUC-N</v>
       </c>
       <c r="AG32" s="7">
@@ -2403,7 +2455,7 @@
         <v>21</v>
       </c>
       <c r="AK32" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ETNUC-N</v>
       </c>
       <c r="AL32" s="7">
@@ -2413,7 +2465,7 @@
         <v>21</v>
       </c>
       <c r="AQ32" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ETNUC-N</v>
       </c>
       <c r="AR32" s="7">
@@ -2423,42 +2475,42 @@
         <v>21</v>
       </c>
       <c r="AV32" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>ETNUC-N</v>
       </c>
       <c r="AW32" s="7">
         <v>2050</v>
       </c>
       <c r="AZ32" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>NCAP_COST</v>
       </c>
       <c r="BA32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>ETNUC-N</v>
       </c>
       <c r="BB32">
-        <f t="shared" si="9"/>
-        <v>116627.07389080001</v>
+        <f t="shared" si="10"/>
+        <v>106024.612628</v>
       </c>
       <c r="BC32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BD32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BE32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BF32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BG32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="BJ32">
@@ -2501,7 +2553,7 @@
         <v>21</v>
       </c>
       <c r="AA33" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>ERSOLTC09-N</v>
       </c>
       <c r="AB33" s="7">
@@ -2514,7 +2566,7 @@
         <v>21</v>
       </c>
       <c r="AF33" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>ERSOLTC09-N</v>
       </c>
       <c r="AG33" s="7">
@@ -2527,7 +2579,7 @@
         <v>21</v>
       </c>
       <c r="AK33" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ERSOLTC09-N</v>
       </c>
       <c r="AL33" s="7">
@@ -2540,7 +2592,7 @@
         <v>21</v>
       </c>
       <c r="AQ33" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ERSOLTC09-N</v>
       </c>
       <c r="AR33" s="7">
@@ -2553,7 +2605,7 @@
         <v>21</v>
       </c>
       <c r="AV33" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>ERSOLTC09-N</v>
       </c>
       <c r="AW33" s="7">
@@ -2563,36 +2615,36 @@
         <v>54699.731407741099</v>
       </c>
       <c r="AZ33" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>NCAP_COST</v>
       </c>
       <c r="BA33" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>ERSOLTC09-N</v>
       </c>
       <c r="BB33">
-        <f t="shared" si="9"/>
-        <v>98348.781048411969</v>
+        <f t="shared" si="10"/>
+        <v>89407.982771283598</v>
       </c>
       <c r="BC33">
-        <f t="shared" si="10"/>
-        <v>89538.224933051184</v>
+        <f t="shared" si="11"/>
+        <v>81398.386302773797</v>
       </c>
       <c r="BD33">
-        <f t="shared" si="11"/>
-        <v>74853.964740783151</v>
+        <f t="shared" si="12"/>
+        <v>68049.058855257405</v>
       </c>
       <c r="BE33">
-        <f t="shared" si="12"/>
-        <v>60169.704548515212</v>
+        <f t="shared" si="13"/>
+        <v>54699.731407741099</v>
       </c>
       <c r="BF33">
-        <f t="shared" si="13"/>
-        <v>60169.704548515212</v>
+        <f t="shared" si="14"/>
+        <v>54699.731407741099</v>
       </c>
       <c r="BG33">
-        <f t="shared" si="14"/>
-        <v>60169.704548515212</v>
+        <f t="shared" si="15"/>
+        <v>54699.731407741099</v>
       </c>
       <c r="BJ33">
         <v>1</v>
@@ -2631,7 +2683,7 @@
         <v>21</v>
       </c>
       <c r="AA34" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>ERSOLPCF-N</v>
       </c>
       <c r="AB34" s="7">
@@ -2644,7 +2696,7 @@
         <v>21</v>
       </c>
       <c r="AF34" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>ERSOLPCF-N</v>
       </c>
       <c r="AG34" s="7">
@@ -2657,7 +2709,7 @@
         <v>21</v>
       </c>
       <c r="AK34" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ERSOLPCF-N</v>
       </c>
       <c r="AL34" s="7">
@@ -2670,7 +2722,7 @@
         <v>21</v>
       </c>
       <c r="AQ34" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ERSOLPCF-N</v>
       </c>
       <c r="AR34" s="7">
@@ -2683,7 +2735,7 @@
         <v>21</v>
       </c>
       <c r="AV34" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>ERSOLPCF-N</v>
       </c>
       <c r="AW34" s="7">
@@ -2693,36 +2745,36 @@
         <v>10513.896293805299</v>
       </c>
       <c r="AZ34" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>NCAP_COST</v>
       </c>
       <c r="BA34" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>ERSOLPCF-N</v>
       </c>
       <c r="BB34">
-        <f t="shared" si="9"/>
-        <v>23601.065847787562</v>
+        <f t="shared" si="10"/>
+        <v>21455.514407079601</v>
       </c>
       <c r="BC34">
-        <f t="shared" si="10"/>
-        <v>16710.377935929151</v>
+        <f t="shared" si="11"/>
+        <v>15191.2526690265</v>
       </c>
       <c r="BD34">
-        <f t="shared" si="11"/>
-        <v>15685.82797557523</v>
+        <f t="shared" si="12"/>
+        <v>14259.843614159299</v>
       </c>
       <c r="BE34">
-        <f t="shared" si="12"/>
-        <v>14736.284009203462</v>
+        <f t="shared" si="13"/>
+        <v>13396.6218265486</v>
       </c>
       <c r="BF34">
-        <f t="shared" si="13"/>
-        <v>13090.939758230072</v>
+        <f t="shared" si="14"/>
+        <v>11900.8543256637</v>
       </c>
       <c r="BG34">
-        <f t="shared" si="14"/>
-        <v>11565.285923185829</v>
+        <f t="shared" si="15"/>
+        <v>10513.896293805299</v>
       </c>
       <c r="BJ34">
         <v>1</v>
@@ -2748,7 +2800,7 @@
         <v>21</v>
       </c>
       <c r="AA35" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>ERSOLPCT-N</v>
       </c>
       <c r="AB35" s="7">
@@ -2761,7 +2813,7 @@
         <v>21</v>
       </c>
       <c r="AF35" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>ERSOLPCT-N</v>
       </c>
       <c r="AG35" s="7">
@@ -2774,7 +2826,7 @@
         <v>21</v>
       </c>
       <c r="AK35" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ERSOLPCT-N</v>
       </c>
       <c r="AL35" s="7">
@@ -2787,7 +2839,7 @@
         <v>21</v>
       </c>
       <c r="AQ35" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ERSOLPCT-N</v>
       </c>
       <c r="AR35" s="7">
@@ -2800,7 +2852,7 @@
         <v>21</v>
       </c>
       <c r="AV35" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>ERSOLPCT-N</v>
       </c>
       <c r="AW35" s="7">
@@ -2810,36 +2862,36 @@
         <v>11208.2102</v>
       </c>
       <c r="AZ35" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>NCAP_COST</v>
       </c>
       <c r="BA35" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>ERSOLPCT-N</v>
       </c>
       <c r="BB35">
-        <f t="shared" si="9"/>
-        <v>25159.626800000002</v>
+        <f t="shared" si="10"/>
+        <v>22872.387999999999</v>
       </c>
       <c r="BC35">
-        <f t="shared" si="10"/>
-        <v>17813.893459999999</v>
+        <f t="shared" si="11"/>
+        <v>16194.4486</v>
       </c>
       <c r="BD35">
-        <f t="shared" si="11"/>
-        <v>16721.684540000002</v>
+        <f t="shared" si="12"/>
+        <v>15201.5314</v>
       </c>
       <c r="BE35">
-        <f t="shared" si="12"/>
-        <v>15709.434840000002</v>
+        <f t="shared" si="13"/>
+        <v>14281.304400000001</v>
       </c>
       <c r="BF35">
-        <f t="shared" si="13"/>
-        <v>13955.435780000002</v>
+        <f t="shared" si="14"/>
+        <v>12686.7598</v>
       </c>
       <c r="BG35">
-        <f t="shared" si="14"/>
-        <v>12329.031220000001</v>
+        <f t="shared" si="15"/>
+        <v>11208.2102</v>
       </c>
       <c r="BJ35">
         <v>1</v>
@@ -2865,7 +2917,7 @@
         <v>21</v>
       </c>
       <c r="AA36" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>ERWNDH-N</v>
       </c>
       <c r="AB36" s="7">
@@ -2878,7 +2930,7 @@
         <v>21</v>
       </c>
       <c r="AF36" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>ERWNDH-N</v>
       </c>
       <c r="AG36" s="7">
@@ -2891,7 +2943,7 @@
         <v>21</v>
       </c>
       <c r="AK36" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ERWNDH-N</v>
       </c>
       <c r="AL36" s="7">
@@ -2904,7 +2956,7 @@
         <v>21</v>
       </c>
       <c r="AQ36" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ERWNDH-N</v>
       </c>
       <c r="AR36" s="7">
@@ -2917,7 +2969,7 @@
         <v>21</v>
       </c>
       <c r="AV36" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>ERWNDH-N</v>
       </c>
       <c r="AW36" s="7">
@@ -2927,36 +2979,36 @@
         <v>18341.129400000002</v>
       </c>
       <c r="AZ36" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>NCAP_COST</v>
       </c>
       <c r="BA36" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>ERWNDH-N</v>
       </c>
       <c r="BB36">
-        <f t="shared" si="9"/>
-        <v>26051.725920000004</v>
+        <f t="shared" si="10"/>
+        <v>23683.387200000001</v>
       </c>
       <c r="BC36">
-        <f t="shared" si="10"/>
-        <v>21265.75</v>
+        <f t="shared" si="11"/>
+        <v>19332.5</v>
       </c>
       <c r="BD36">
-        <f t="shared" si="11"/>
-        <v>21080.312660000003</v>
+        <f t="shared" si="12"/>
+        <v>19163.920600000001</v>
       </c>
       <c r="BE36">
-        <f t="shared" si="12"/>
-        <v>20896.576580000001</v>
+        <f t="shared" si="13"/>
+        <v>18996.8878</v>
       </c>
       <c r="BF36">
-        <f t="shared" si="13"/>
-        <v>20532.506940000003</v>
+        <f t="shared" si="14"/>
+        <v>18665.915400000002</v>
       </c>
       <c r="BG36">
-        <f t="shared" si="14"/>
-        <v>20175.242340000004</v>
+        <f t="shared" si="15"/>
+        <v>18341.129400000002</v>
       </c>
       <c r="BJ36">
         <v>1</v>
@@ -2982,7 +3034,7 @@
         <v>21</v>
       </c>
       <c r="AA37" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>ETGICGT-N</v>
       </c>
       <c r="AB37" s="7">
@@ -2992,7 +3044,7 @@
         <v>21</v>
       </c>
       <c r="AF37" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>ETGICGT-N</v>
       </c>
       <c r="AG37" s="7">
@@ -3002,7 +3054,7 @@
         <v>21</v>
       </c>
       <c r="AK37" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ETGICGT-N</v>
       </c>
       <c r="AL37" s="7">
@@ -3012,7 +3064,7 @@
         <v>21</v>
       </c>
       <c r="AQ37" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ETGICGT-N</v>
       </c>
       <c r="AR37" s="7">
@@ -3022,42 +3074,42 @@
         <v>21</v>
       </c>
       <c r="AV37" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>ETGICGT-N</v>
       </c>
       <c r="AW37" s="7">
         <v>2050</v>
       </c>
       <c r="AZ37" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>NCAP_COST</v>
       </c>
       <c r="BA37" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>ETGICGT-N</v>
       </c>
       <c r="BB37">
-        <f t="shared" si="9"/>
-        <v>15423.436336000001</v>
+        <f t="shared" si="10"/>
+        <v>14021.305759999999</v>
       </c>
       <c r="BC37" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BD37" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BE37" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BF37" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BG37" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="BJ37">
@@ -3087,7 +3139,7 @@
         <v>21</v>
       </c>
       <c r="AA38" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>ETHGNGT-N</v>
       </c>
       <c r="AB38" s="7">
@@ -3097,7 +3149,7 @@
         <v>21</v>
       </c>
       <c r="AF38" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>ETHGNGT-N</v>
       </c>
       <c r="AG38" s="7">
@@ -3107,7 +3159,7 @@
         <v>21</v>
       </c>
       <c r="AK38" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ETHGNGT-N</v>
       </c>
       <c r="AL38" s="7">
@@ -3117,7 +3169,7 @@
         <v>21</v>
       </c>
       <c r="AQ38" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ETHGNGT-N</v>
       </c>
       <c r="AR38" s="7">
@@ -3127,42 +3179,42 @@
         <v>21</v>
       </c>
       <c r="AV38" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>ETHGNGT-N</v>
       </c>
       <c r="AW38" s="7">
         <v>2050</v>
       </c>
       <c r="AZ38" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>NCAP_COST</v>
       </c>
       <c r="BA38" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>ETHGNGT-N</v>
       </c>
       <c r="BB38">
-        <f t="shared" si="9"/>
-        <v>42057.954400000002</v>
+        <f t="shared" si="10"/>
+        <v>38234.504000000001</v>
       </c>
       <c r="BC38" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BD38" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BE38" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BF38" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BG38" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="BJ38">
@@ -3189,7 +3241,7 @@
         <v>21</v>
       </c>
       <c r="AA39" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>ETGICCC-N</v>
       </c>
       <c r="AB39" s="7">
@@ -3199,7 +3251,7 @@
         <v>21</v>
       </c>
       <c r="AF39" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>ETGICCC-N</v>
       </c>
       <c r="AG39" s="7">
@@ -3209,7 +3261,7 @@
         <v>21</v>
       </c>
       <c r="AK39" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ETGICCC-N</v>
       </c>
       <c r="AL39" s="7">
@@ -3219,7 +3271,7 @@
         <v>21</v>
       </c>
       <c r="AQ39" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ETGICCC-N</v>
       </c>
       <c r="AR39" s="7">
@@ -3229,42 +3281,42 @@
         <v>21</v>
       </c>
       <c r="AV39" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>ETGICCC-N</v>
       </c>
       <c r="AW39" s="7">
         <v>2050</v>
       </c>
       <c r="AZ39" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>NCAP_COST</v>
       </c>
       <c r="BA39" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>ETGICCC-N</v>
       </c>
       <c r="BB39">
-        <f t="shared" si="9"/>
-        <v>16936.357416000003</v>
+        <f t="shared" si="10"/>
+        <v>15396.688560000001</v>
       </c>
       <c r="BC39" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BD39" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BE39" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BF39" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BG39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="BJ39">
@@ -3275,6 +3327,24 @@
       <c r="C40" s="10" t="s">
         <v>116</v>
       </c>
+      <c r="G40" s="2">
+        <v>2017</v>
+      </c>
+      <c r="H40" s="2">
+        <v>2021</v>
+      </c>
+      <c r="I40">
+        <v>2025</v>
+      </c>
+      <c r="J40" s="2">
+        <v>2030</v>
+      </c>
+      <c r="K40" s="2">
+        <v>2040</v>
+      </c>
+      <c r="L40" s="2">
+        <v>2050</v>
+      </c>
       <c r="T40" s="9" t="s">
         <v>53</v>
       </c>
@@ -3294,7 +3364,7 @@
         <v>21</v>
       </c>
       <c r="AA40" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>ETGICCC-CCS-N</v>
       </c>
       <c r="AB40" s="7">
@@ -3304,7 +3374,7 @@
         <v>21</v>
       </c>
       <c r="AF40" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>ETGICCC-CCS-N</v>
       </c>
       <c r="AG40" s="7">
@@ -3314,7 +3384,7 @@
         <v>21</v>
       </c>
       <c r="AK40" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ETGICCC-CCS-N</v>
       </c>
       <c r="AL40" s="7">
@@ -3324,7 +3394,7 @@
         <v>21</v>
       </c>
       <c r="AQ40" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ETGICCC-CCS-N</v>
       </c>
       <c r="AR40" s="7">
@@ -3334,42 +3404,42 @@
         <v>21</v>
       </c>
       <c r="AV40" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>ETGICCC-CCS-N</v>
       </c>
       <c r="AW40" s="7">
         <v>2050</v>
       </c>
       <c r="AZ40" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>NCAP_COST</v>
       </c>
       <c r="BA40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>ETGICCC-CCS-N</v>
       </c>
       <c r="BB40">
-        <f t="shared" si="9"/>
-        <v>37216.186832000007</v>
+        <f t="shared" si="10"/>
+        <v>33832.897120000001</v>
       </c>
       <c r="BC40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BD40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BE40" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BF40" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BG40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="BJ40">
@@ -3422,7 +3492,7 @@
         <v>21</v>
       </c>
       <c r="AA41" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>ETGICEN-N</v>
       </c>
       <c r="AB41" s="7">
@@ -3432,7 +3502,7 @@
         <v>21</v>
       </c>
       <c r="AF41" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>ETGICEN-N</v>
       </c>
       <c r="AG41" s="7">
@@ -3442,7 +3512,7 @@
         <v>21</v>
       </c>
       <c r="AK41" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ETGICEN-N</v>
       </c>
       <c r="AL41" s="7">
@@ -3452,7 +3522,7 @@
         <v>21</v>
       </c>
       <c r="AQ41" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ETGICEN-N</v>
       </c>
       <c r="AR41" s="7">
@@ -3462,42 +3532,42 @@
         <v>21</v>
       </c>
       <c r="AV41" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>ETGICEN-N</v>
       </c>
       <c r="AW41" s="7">
         <v>2050</v>
       </c>
       <c r="AZ41" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>NCAP_COST</v>
       </c>
       <c r="BA41" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>ETGICEN-N</v>
       </c>
       <c r="BB41">
-        <f t="shared" si="9"/>
-        <v>24062.967984000003</v>
+        <f t="shared" si="10"/>
+        <v>21875.425439999999</v>
       </c>
       <c r="BC41" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BD41" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BE41" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BF41" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BG41" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="BJ41">
@@ -3551,7 +3621,7 @@
         <v>21</v>
       </c>
       <c r="AA42" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>ERBIO-N</v>
       </c>
       <c r="AB42" s="7">
@@ -3561,7 +3631,7 @@
         <v>21</v>
       </c>
       <c r="AF42" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>ERBIO-N</v>
       </c>
       <c r="AG42" s="7">
@@ -3571,7 +3641,7 @@
         <v>21</v>
       </c>
       <c r="AK42" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ERBIO-N</v>
       </c>
       <c r="AL42" s="7">
@@ -3581,7 +3651,7 @@
         <v>21</v>
       </c>
       <c r="AQ42" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ERBIO-N</v>
       </c>
       <c r="AR42" s="7">
@@ -3591,42 +3661,42 @@
         <v>21</v>
       </c>
       <c r="AV42" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>ERBIO-N</v>
       </c>
       <c r="AW42" s="7">
         <v>2050</v>
       </c>
       <c r="AZ42" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>NCAP_COST</v>
       </c>
       <c r="BA42" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>ERBIO-N</v>
       </c>
       <c r="BB42">
-        <f t="shared" si="9"/>
-        <v>32173.281782644972</v>
+        <f t="shared" si="10"/>
+        <v>29248.437984222699</v>
       </c>
       <c r="BC42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BD42" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BE42" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BF42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BG42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="BJ42">
@@ -3680,7 +3750,7 @@
         <v>21</v>
       </c>
       <c r="AA43" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>ERBIG-N</v>
       </c>
       <c r="AB43" s="7">
@@ -3690,7 +3760,7 @@
         <v>21</v>
       </c>
       <c r="AF43" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>ERBIG-N</v>
       </c>
       <c r="AG43" s="7">
@@ -3700,7 +3770,7 @@
         <v>21</v>
       </c>
       <c r="AK43" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ERBIG-N</v>
       </c>
       <c r="AL43" s="7">
@@ -3710,7 +3780,7 @@
         <v>21</v>
       </c>
       <c r="AQ43" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ERBIG-N</v>
       </c>
       <c r="AR43" s="7">
@@ -3720,42 +3790,42 @@
         <v>21</v>
       </c>
       <c r="AV43" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>ERBIG-N</v>
       </c>
       <c r="AW43" s="7">
         <v>2050</v>
       </c>
       <c r="AZ43" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>NCAP_COST</v>
       </c>
       <c r="BA43" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>ERBIG-N</v>
       </c>
       <c r="BB43">
-        <f t="shared" si="9"/>
-        <v>32173.281782644972</v>
+        <f t="shared" si="10"/>
+        <v>29248.437984222699</v>
       </c>
       <c r="BC43" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BD43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BE43" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BF43" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BG43" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="BJ43">
@@ -3779,19 +3849,19 @@
         <v>0.47058823529411764</v>
       </c>
       <c r="I44" s="5">
-        <f t="shared" ref="I44:L44" si="21">H44</f>
+        <f t="shared" ref="I44:L44" si="22">H44</f>
         <v>0.47058823529411764</v>
       </c>
       <c r="J44" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="K44" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="L44" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="N44" t="s">
@@ -3816,7 +3886,7 @@
         <v>21</v>
       </c>
       <c r="AA44" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>ESTSUTL</v>
       </c>
       <c r="AB44" s="7">
@@ -3829,7 +3899,7 @@
         <v>21</v>
       </c>
       <c r="AF44" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>ESTSUTL</v>
       </c>
       <c r="AG44" s="7">
@@ -3842,7 +3912,7 @@
         <v>21</v>
       </c>
       <c r="AK44" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ESTSUTL</v>
       </c>
       <c r="AL44" s="7">
@@ -3855,7 +3925,7 @@
         <v>21</v>
       </c>
       <c r="AQ44" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ESTSUTL</v>
       </c>
       <c r="AR44" s="7">
@@ -3868,7 +3938,7 @@
         <v>21</v>
       </c>
       <c r="AV44" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>ESTSUTL</v>
       </c>
       <c r="AW44" s="7">
@@ -3878,36 +3948,36 @@
         <v>15417.019777003599</v>
       </c>
       <c r="AZ44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>NCAP_COST</v>
       </c>
       <c r="BA44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>ESTSUTL</v>
       </c>
       <c r="BB44">
-        <f t="shared" si="9"/>
-        <v>46216.813456000003</v>
+        <f t="shared" si="10"/>
+        <v>42015.284959999997</v>
       </c>
       <c r="BC44">
-        <f t="shared" si="10"/>
-        <v>29626.392114015511</v>
+        <f t="shared" si="11"/>
+        <v>26933.083740014099</v>
       </c>
       <c r="BD44">
-        <f t="shared" si="11"/>
-        <v>29250.992238274401</v>
+        <f t="shared" si="12"/>
+        <v>26591.811125704</v>
       </c>
       <c r="BE44">
-        <f t="shared" si="12"/>
-        <v>24519.026135938511</v>
+        <f t="shared" si="13"/>
+        <v>22290.023759944099</v>
       </c>
       <c r="BF44">
-        <f t="shared" si="13"/>
-        <v>20738.00984562857</v>
+        <f t="shared" si="14"/>
+        <v>18852.7362232987</v>
       </c>
       <c r="BG44">
-        <f t="shared" si="14"/>
-        <v>16958.721754703962</v>
+        <f t="shared" si="15"/>
+        <v>15417.019777003599</v>
       </c>
       <c r="BJ44">
         <v>1</v>
@@ -3933,7 +4003,7 @@
         <v>21</v>
       </c>
       <c r="AA45" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>ERSOLPRA-N</v>
       </c>
       <c r="AB45" s="7">
@@ -3946,7 +4016,7 @@
         <v>21</v>
       </c>
       <c r="AF45" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>ERSOLPRA-N</v>
       </c>
       <c r="AG45" s="7">
@@ -3959,7 +4029,7 @@
         <v>21</v>
       </c>
       <c r="AK45" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ERSOLPRA-N</v>
       </c>
       <c r="AL45" s="7">
@@ -3972,7 +4042,7 @@
         <v>21</v>
       </c>
       <c r="AQ45" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ERSOLPRA-N</v>
       </c>
       <c r="AR45" s="7">
@@ -3985,7 +4055,7 @@
         <v>21</v>
       </c>
       <c r="AV45" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>ERSOLPRA-N</v>
       </c>
       <c r="AW45" s="7">
@@ -3995,36 +4065,36 @@
         <v>12196.119700814201</v>
       </c>
       <c r="AZ45" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>NCAP_COST</v>
       </c>
       <c r="BA45" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>ERSOLPRA-N</v>
       </c>
       <c r="BB45">
-        <f t="shared" si="9"/>
-        <v>27377.236383433643</v>
+        <f t="shared" si="10"/>
+        <v>24888.396712212401</v>
       </c>
       <c r="BC45">
-        <f t="shared" si="10"/>
-        <v>19384.038405677991</v>
+        <f t="shared" si="11"/>
+        <v>17621.853096070899</v>
       </c>
       <c r="BD45">
-        <f t="shared" si="11"/>
-        <v>18195.560451667283</v>
+        <f t="shared" si="12"/>
+        <v>16541.418592424801</v>
       </c>
       <c r="BE45">
-        <f t="shared" si="12"/>
-        <v>17094.089450676041</v>
+        <f t="shared" si="13"/>
+        <v>15540.0813187964</v>
       </c>
       <c r="BF45">
-        <f t="shared" si="13"/>
-        <v>15185.490119546892</v>
+        <f t="shared" si="14"/>
+        <v>13804.9910177699</v>
       </c>
       <c r="BG45">
-        <f t="shared" si="14"/>
-        <v>13415.731670895622</v>
+        <f t="shared" si="15"/>
+        <v>12196.119700814201</v>
       </c>
       <c r="BJ45">
         <v>1</v>
@@ -4050,7 +4120,7 @@
         <v>21</v>
       </c>
       <c r="AA46" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>ERSOLPRM-N</v>
       </c>
       <c r="AB46" s="7">
@@ -4063,7 +4133,7 @@
         <v>21</v>
       </c>
       <c r="AF46" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>ERSOLPRM-N</v>
       </c>
       <c r="AG46" s="7">
@@ -4076,7 +4146,7 @@
         <v>21</v>
       </c>
       <c r="AK46" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ERSOLPRM-N</v>
       </c>
       <c r="AL46" s="7">
@@ -4089,7 +4159,7 @@
         <v>21</v>
       </c>
       <c r="AQ46" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ERSOLPRM-N</v>
       </c>
       <c r="AR46" s="7">
@@ -4102,7 +4172,7 @@
         <v>21</v>
       </c>
       <c r="AV46" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>ERSOLPRM-N</v>
       </c>
       <c r="AW46" s="7">
@@ -4112,36 +4182,36 @@
         <v>12196.119700814201</v>
       </c>
       <c r="AZ46" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>NCAP_COST</v>
       </c>
       <c r="BA46" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>ERSOLPRM-N</v>
       </c>
       <c r="BB46">
-        <f t="shared" si="9"/>
-        <v>27377.236383433643</v>
+        <f t="shared" si="10"/>
+        <v>24888.396712212401</v>
       </c>
       <c r="BC46">
-        <f t="shared" si="10"/>
-        <v>19384.038405677991</v>
+        <f t="shared" si="11"/>
+        <v>17621.853096070899</v>
       </c>
       <c r="BD46">
-        <f t="shared" si="11"/>
-        <v>18195.560451667283</v>
+        <f t="shared" si="12"/>
+        <v>16541.418592424801</v>
       </c>
       <c r="BE46">
-        <f t="shared" si="12"/>
-        <v>17094.089450676041</v>
+        <f t="shared" si="13"/>
+        <v>15540.0813187964</v>
       </c>
       <c r="BF46">
-        <f t="shared" si="13"/>
-        <v>15185.490119546892</v>
+        <f t="shared" si="14"/>
+        <v>13804.9910177699</v>
       </c>
       <c r="BG46">
-        <f t="shared" si="14"/>
-        <v>13415.731670895622</v>
+        <f t="shared" si="15"/>
+        <v>12196.119700814201</v>
       </c>
       <c r="BJ46">
         <v>1</v>
@@ -4170,7 +4240,7 @@
         <v>21</v>
       </c>
       <c r="AA47" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>ERSOLPRC-N</v>
       </c>
       <c r="AB47" s="7">
@@ -4183,7 +4253,7 @@
         <v>21</v>
       </c>
       <c r="AF47" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>ERSOLPRC-N</v>
       </c>
       <c r="AG47" s="7">
@@ -4196,7 +4266,7 @@
         <v>21</v>
       </c>
       <c r="AK47" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ERSOLPRC-N</v>
       </c>
       <c r="AL47" s="7">
@@ -4209,7 +4279,7 @@
         <v>21</v>
       </c>
       <c r="AQ47" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ERSOLPRC-N</v>
       </c>
       <c r="AR47" s="7">
@@ -4222,7 +4292,7 @@
         <v>21</v>
       </c>
       <c r="AV47" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>ERSOLPRC-N</v>
       </c>
       <c r="AW47" s="7">
@@ -4232,36 +4302,36 @@
         <v>12196.119700814201</v>
       </c>
       <c r="AZ47" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>NCAP_COST</v>
       </c>
       <c r="BA47" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>ERSOLPRC-N</v>
       </c>
       <c r="BB47">
-        <f t="shared" si="9"/>
-        <v>27377.236383433643</v>
+        <f t="shared" si="10"/>
+        <v>24888.396712212401</v>
       </c>
       <c r="BC47">
-        <f t="shared" si="10"/>
-        <v>19384.038405677991</v>
+        <f t="shared" si="11"/>
+        <v>17621.853096070899</v>
       </c>
       <c r="BD47">
-        <f t="shared" si="11"/>
-        <v>18195.560451667283</v>
+        <f t="shared" si="12"/>
+        <v>16541.418592424801</v>
       </c>
       <c r="BE47">
-        <f t="shared" si="12"/>
-        <v>17094.089450676041</v>
+        <f t="shared" si="13"/>
+        <v>15540.0813187964</v>
       </c>
       <c r="BF47">
-        <f t="shared" si="13"/>
-        <v>15185.490119546892</v>
+        <f t="shared" si="14"/>
+        <v>13804.9910177699</v>
       </c>
       <c r="BG47">
-        <f t="shared" si="14"/>
-        <v>13415.731670895622</v>
+        <f t="shared" si="15"/>
+        <v>12196.119700814201</v>
       </c>
       <c r="BJ47">
         <v>1</v>
@@ -4313,7 +4383,7 @@
         <v>21</v>
       </c>
       <c r="AA48" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>ERSOLPRR-N</v>
       </c>
       <c r="AB48" s="7">
@@ -4326,7 +4396,7 @@
         <v>21</v>
       </c>
       <c r="AF48" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>ERSOLPRR-N</v>
       </c>
       <c r="AG48" s="7">
@@ -4339,7 +4409,7 @@
         <v>21</v>
       </c>
       <c r="AK48" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ERSOLPRR-N</v>
       </c>
       <c r="AL48" s="7">
@@ -4352,7 +4422,7 @@
         <v>21</v>
       </c>
       <c r="AQ48" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ERSOLPRR-N</v>
       </c>
       <c r="AR48" s="7">
@@ -4365,7 +4435,7 @@
         <v>21</v>
       </c>
       <c r="AV48" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>ERSOLPRR-N</v>
       </c>
       <c r="AW48" s="7">
@@ -4375,36 +4445,36 @@
         <v>18399.318514159299</v>
       </c>
       <c r="AZ48" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>NCAP_COST</v>
       </c>
       <c r="BA48" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>ERSOLPRR-N</v>
       </c>
       <c r="BB48">
-        <f t="shared" si="9"/>
-        <v>41301.865233628349</v>
+        <f t="shared" si="10"/>
+        <v>37547.150212389402</v>
       </c>
       <c r="BC48">
-        <f t="shared" si="10"/>
-        <v>29243.16138787604</v>
+        <f t="shared" si="11"/>
+        <v>26584.692170796399</v>
       </c>
       <c r="BD48">
-        <f t="shared" si="11"/>
-        <v>27450.198957256682</v>
+        <f t="shared" si="12"/>
+        <v>24954.7263247788</v>
       </c>
       <c r="BE48">
-        <f t="shared" si="12"/>
-        <v>25788.49701610611</v>
+        <f t="shared" si="13"/>
+        <v>23444.088196460099</v>
       </c>
       <c r="BF48">
-        <f t="shared" si="13"/>
-        <v>22909.14457690265</v>
+        <f t="shared" si="14"/>
+        <v>20826.4950699115</v>
       </c>
       <c r="BG48">
-        <f t="shared" si="14"/>
-        <v>20239.25036557523</v>
+        <f t="shared" si="15"/>
+        <v>18399.318514159299</v>
       </c>
       <c r="BJ48">
         <v>1</v>
@@ -4457,7 +4527,7 @@
         <v>21</v>
       </c>
       <c r="AA49" s="9" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>ERSOLPRI-N</v>
       </c>
       <c r="AB49" s="7">
@@ -4470,7 +4540,7 @@
         <v>21</v>
       </c>
       <c r="AF49" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>ERSOLPRI-N</v>
       </c>
       <c r="AG49" s="7">
@@ -4483,7 +4553,7 @@
         <v>21</v>
       </c>
       <c r="AK49" s="9" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ERSOLPRI-N</v>
       </c>
       <c r="AL49" s="7">
@@ -4496,7 +4566,7 @@
         <v>21</v>
       </c>
       <c r="AQ49" s="9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ERSOLPRI-N</v>
       </c>
       <c r="AR49" s="7">
@@ -4509,7 +4579,7 @@
         <v>21</v>
       </c>
       <c r="AV49" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>ERSOLPRI-N</v>
       </c>
       <c r="AW49" s="7">
@@ -4519,36 +4589,36 @@
         <v>12196.119700814201</v>
       </c>
       <c r="AZ49" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>NCAP_COST</v>
       </c>
       <c r="BA49" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>ERSOLPRI-N</v>
       </c>
       <c r="BB49">
-        <f t="shared" si="9"/>
-        <v>27377.236383433643</v>
+        <f t="shared" si="10"/>
+        <v>24888.396712212401</v>
       </c>
       <c r="BC49">
-        <f t="shared" si="10"/>
-        <v>19384.038405677991</v>
+        <f t="shared" si="11"/>
+        <v>17621.853096070899</v>
       </c>
       <c r="BD49">
-        <f t="shared" si="11"/>
-        <v>18195.560451667283</v>
+        <f t="shared" si="12"/>
+        <v>16541.418592424801</v>
       </c>
       <c r="BE49">
-        <f t="shared" si="12"/>
-        <v>17094.089450676041</v>
+        <f t="shared" si="13"/>
+        <v>15540.0813187964</v>
       </c>
       <c r="BF49">
-        <f t="shared" si="13"/>
-        <v>15185.490119546892</v>
+        <f t="shared" si="14"/>
+        <v>13804.9910177699</v>
       </c>
       <c r="BG49">
-        <f t="shared" si="14"/>
-        <v>13415.731670895622</v>
+        <f t="shared" si="15"/>
+        <v>12196.119700814201</v>
       </c>
       <c r="BJ49">
         <v>1</v>
@@ -4610,16 +4680,16 @@
       <c r="AV50" s="9"/>
       <c r="AW50" s="7"/>
       <c r="AZ50" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>NCAP_COST</v>
       </c>
       <c r="BA50" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>ETRANS</v>
       </c>
       <c r="BB50">
-        <f t="shared" si="9"/>
-        <v>7658.4609194379227</v>
+        <f t="shared" si="10"/>
+        <v>6962.23719948902</v>
       </c>
       <c r="BJ50">
         <v>1</v>
@@ -4642,19 +4712,19 @@
         <v>0.47538200339558578</v>
       </c>
       <c r="I51" s="5">
-        <f t="shared" ref="I51:L51" si="22">H51</f>
+        <f t="shared" ref="I51:L51" si="23">H51</f>
         <v>0.47538200339558578</v>
       </c>
       <c r="J51" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.47538200339558578</v>
       </c>
       <c r="K51" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.47538200339558578</v>
       </c>
       <c r="L51" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.47538200339558578</v>
       </c>
       <c r="N51" t="s">
@@ -4682,16 +4752,16 @@
       <c r="AV51" s="9"/>
       <c r="AW51" s="7"/>
       <c r="AZ51" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>NCAP_COST</v>
       </c>
       <c r="BA51" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>ETRANSDUM</v>
       </c>
       <c r="BB51">
-        <f t="shared" si="9"/>
-        <v>3402.52</v>
+        <f t="shared" si="10"/>
+        <v>3093.2</v>
       </c>
       <c r="BJ51">
         <v>1</v>
@@ -4720,16 +4790,16 @@
       <c r="AV52" s="9"/>
       <c r="AW52" s="7"/>
       <c r="AZ52" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>NCAP_COST</v>
       </c>
       <c r="BA52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>XAGRELC</v>
       </c>
       <c r="BB52">
-        <f t="shared" si="9"/>
-        <v>44757.091212415566</v>
+        <f t="shared" si="10"/>
+        <v>40688.264738559599</v>
       </c>
       <c r="BJ52">
         <v>1</v>
@@ -4761,16 +4831,16 @@
       <c r="AV53" s="9"/>
       <c r="AW53" s="7"/>
       <c r="AZ53" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>NCAP_COST</v>
       </c>
       <c r="BA53" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>XCOMELC</v>
       </c>
       <c r="BB53">
-        <f t="shared" si="9"/>
-        <v>22378.545678702401</v>
+        <f t="shared" si="10"/>
+        <v>20344.132435184001</v>
       </c>
       <c r="BJ53">
         <v>1</v>
@@ -4785,24 +4855,31 @@
       </c>
       <c r="G54" s="6">
         <f>1-O32</f>
-        <v>0.92</v>
+        <v>0.93842364532019706</v>
       </c>
       <c r="H54" s="6">
-        <f t="shared" ref="H54:I56" si="23">G54</f>
-        <v>0.92</v>
+        <f t="shared" ref="H54:I56" si="24">G54</f>
+        <v>0.93842364532019706</v>
       </c>
       <c r="I54" s="15">
-        <f t="shared" si="23"/>
-        <v>0.92</v>
+        <f t="shared" si="24"/>
+        <v>0.93842364532019706</v>
       </c>
       <c r="J54" s="15">
-        <v>0.95</v>
+        <f>I54+$O$54</f>
+        <v>0.94827586206896552</v>
       </c>
       <c r="K54" s="15">
-        <v>0.98</v>
+        <f t="shared" ref="K54:K55" si="25">J54</f>
+        <v>0.94827586206896552</v>
       </c>
       <c r="L54" s="15">
-        <v>0.98</v>
+        <f t="shared" ref="L54:L55" si="26">K54</f>
+        <v>0.94827586206896552</v>
+      </c>
+      <c r="O54" s="5">
+        <f>J81</f>
+        <v>9.852216748768473E-3</v>
       </c>
       <c r="T54" s="9" t="s">
         <v>81</v>
@@ -4826,16 +4903,16 @@
       <c r="AV54" s="9"/>
       <c r="AW54" s="7"/>
       <c r="AZ54" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>NCAP_COST</v>
       </c>
       <c r="BA54" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>XICPELC</v>
       </c>
       <c r="BB54">
-        <f t="shared" si="9"/>
-        <v>10637.519114867559</v>
+        <f t="shared" si="10"/>
+        <v>9670.4719226068701</v>
       </c>
       <c r="BJ54">
         <v>1</v>
@@ -4850,26 +4927,27 @@
       </c>
       <c r="G55" s="6">
         <f>G54</f>
-        <v>0.92</v>
+        <v>0.93842364532019706</v>
       </c>
       <c r="H55" s="6">
-        <f t="shared" si="23"/>
-        <v>0.92</v>
+        <f t="shared" si="24"/>
+        <v>0.93842364532019706</v>
       </c>
       <c r="I55" s="15">
-        <f t="shared" si="23"/>
-        <v>0.92</v>
+        <f t="shared" si="24"/>
+        <v>0.93842364532019706</v>
       </c>
       <c r="J55" s="15">
-        <f>J54</f>
-        <v>0.95</v>
+        <f>I55+$O$54</f>
+        <v>0.94827586206896552</v>
       </c>
       <c r="K55" s="15">
-        <f>J55</f>
-        <v>0.95</v>
+        <f t="shared" si="25"/>
+        <v>0.94827586206896552</v>
       </c>
       <c r="L55" s="15">
-        <v>0.98</v>
+        <f t="shared" si="26"/>
+        <v>0.94827586206896552</v>
       </c>
       <c r="T55" s="9" t="s">
         <v>83</v>
@@ -4893,16 +4971,16 @@
       <c r="AV55" s="9"/>
       <c r="AW55" s="7"/>
       <c r="AZ55" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>NCAP_COST</v>
       </c>
       <c r="BA55" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>XIFAELC</v>
       </c>
       <c r="BB55">
-        <f t="shared" si="9"/>
-        <v>10637.519114867559</v>
+        <f t="shared" si="10"/>
+        <v>9670.4719226068701</v>
       </c>
       <c r="BJ55">
         <v>1</v>
@@ -4917,23 +4995,23 @@
       </c>
       <c r="G56" s="6">
         <f>G55</f>
-        <v>0.92</v>
+        <v>0.93842364532019706</v>
       </c>
       <c r="H56" s="6">
-        <f t="shared" si="23"/>
-        <v>0.92</v>
+        <f t="shared" si="24"/>
+        <v>0.93842364532019706</v>
       </c>
       <c r="I56" s="15">
-        <f t="shared" si="23"/>
-        <v>0.92</v>
+        <f t="shared" si="24"/>
+        <v>0.93842364532019706</v>
       </c>
       <c r="J56" s="15">
         <f>J55</f>
-        <v>0.95</v>
+        <v>0.94827586206896552</v>
       </c>
       <c r="K56" s="15">
         <f>K55</f>
-        <v>0.95</v>
+        <v>0.94827586206896552</v>
       </c>
       <c r="L56" s="15">
         <v>0.95</v>
@@ -4960,16 +5038,16 @@
       <c r="AV56" s="9"/>
       <c r="AW56" s="7"/>
       <c r="AZ56" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>NCAP_COST</v>
       </c>
       <c r="BA56" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>XIFBELC</v>
       </c>
       <c r="BB56">
-        <f t="shared" si="9"/>
-        <v>17090.552455521491</v>
+        <f t="shared" si="10"/>
+        <v>15536.865868655899</v>
       </c>
       <c r="BJ56">
         <v>1</v>
@@ -4984,27 +5062,27 @@
       </c>
       <c r="G57" s="6">
         <f>G56</f>
-        <v>0.92</v>
+        <v>0.93842364532019706</v>
       </c>
       <c r="H57" s="6">
         <f>H56</f>
-        <v>0.92</v>
+        <v>0.93842364532019706</v>
       </c>
       <c r="I57" s="6">
         <f>H57</f>
-        <v>0.92</v>
+        <v>0.93842364532019706</v>
       </c>
       <c r="J57" s="6">
         <f>I57</f>
-        <v>0.92</v>
+        <v>0.93842364532019706</v>
       </c>
       <c r="K57" s="6">
-        <f t="shared" ref="K57:L57" si="24">J57</f>
-        <v>0.92</v>
+        <f t="shared" ref="K57:L57" si="27">J57</f>
+        <v>0.93842364532019706</v>
       </c>
       <c r="L57" s="6">
-        <f t="shared" si="24"/>
-        <v>0.92</v>
+        <f t="shared" si="27"/>
+        <v>0.93842364532019706</v>
       </c>
       <c r="N57" t="s">
         <v>128</v>
@@ -5025,16 +5103,16 @@
         <v>9670.4719226068701</v>
       </c>
       <c r="AZ57" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>NCAP_COST</v>
       </c>
       <c r="BA57" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>XIISELC</v>
       </c>
       <c r="BB57">
-        <f t="shared" si="9"/>
-        <v>10637.519114867559</v>
+        <f t="shared" si="10"/>
+        <v>9670.4719226068701</v>
       </c>
       <c r="BJ57">
         <v>1</v>
@@ -5057,16 +5135,16 @@
         <v>9670.4719226068701</v>
       </c>
       <c r="AZ58" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>NCAP_COST</v>
       </c>
       <c r="BA58" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>XIMIELC</v>
       </c>
       <c r="BB58">
-        <f t="shared" si="9"/>
-        <v>10637.519114867559</v>
+        <f t="shared" si="10"/>
+        <v>9670.4719226068701</v>
       </c>
       <c r="BJ58">
         <v>1</v>
@@ -5092,16 +5170,16 @@
         <v>9670.4719226068701</v>
       </c>
       <c r="AZ59" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>NCAP_COST</v>
       </c>
       <c r="BA59" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>XINFELC</v>
       </c>
       <c r="BB59">
-        <f t="shared" si="9"/>
-        <v>10637.519114867559</v>
+        <f t="shared" si="10"/>
+        <v>9670.4719226068701</v>
       </c>
       <c r="BJ59">
         <v>1</v>
@@ -5116,30 +5194,31 @@
       </c>
       <c r="G60" s="6">
         <f>1-N32</f>
-        <v>0.76100000000000001</v>
+        <v>0.76065573770491801</v>
       </c>
       <c r="H60" s="6">
-        <f t="shared" ref="H60:I62" si="25">G60</f>
-        <v>0.76100000000000001</v>
+        <f t="shared" ref="H60:I62" si="28">G60</f>
+        <v>0.76065573770491801</v>
       </c>
       <c r="I60" s="15">
-        <f t="shared" si="25"/>
-        <v>0.76100000000000001</v>
+        <f t="shared" si="28"/>
+        <v>0.76065573770491801</v>
       </c>
       <c r="J60" s="15">
         <f>I60+$O$60</f>
-        <v>0.78700000000000003</v>
+        <v>0.78098360655737697</v>
       </c>
       <c r="K60" s="15">
-        <f t="shared" ref="K60:L63" si="26">J60</f>
-        <v>0.78700000000000003</v>
+        <f t="shared" ref="K60:L63" si="29">J60</f>
+        <v>0.78098360655737697</v>
       </c>
       <c r="L60" s="15">
-        <f t="shared" si="26"/>
-        <v>0.78700000000000003</v>
+        <f t="shared" si="29"/>
+        <v>0.78098360655737697</v>
       </c>
       <c r="O60" s="28">
-        <v>2.5999999999999999E-2</v>
+        <f>J83</f>
+        <v>2.0327868852459016E-2</v>
       </c>
       <c r="T60" s="9" t="s">
         <v>93</v>
@@ -5157,16 +5236,16 @@
         <v>9670.4719226068701</v>
       </c>
       <c r="AZ60" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>NCAP_COST</v>
       </c>
       <c r="BA60" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>XINMELC</v>
       </c>
       <c r="BB60">
-        <f t="shared" si="9"/>
-        <v>10637.519114867559</v>
+        <f t="shared" si="10"/>
+        <v>9670.4719226068701</v>
       </c>
       <c r="BJ60">
         <v>1</v>
@@ -5182,27 +5261,27 @@
       </c>
       <c r="G61" s="6">
         <f>G60</f>
-        <v>0.76100000000000001</v>
+        <v>0.76065573770491801</v>
       </c>
       <c r="H61" s="6">
-        <f t="shared" si="25"/>
-        <v>0.76100000000000001</v>
+        <f t="shared" si="28"/>
+        <v>0.76065573770491801</v>
       </c>
       <c r="I61" s="15">
-        <f t="shared" si="25"/>
-        <v>0.76100000000000001</v>
+        <f t="shared" si="28"/>
+        <v>0.76065573770491801</v>
       </c>
       <c r="J61" s="15">
         <f>J60</f>
-        <v>0.78700000000000003</v>
+        <v>0.78098360655737697</v>
       </c>
       <c r="K61" s="15">
-        <f t="shared" si="26"/>
-        <v>0.78700000000000003</v>
+        <f t="shared" si="29"/>
+        <v>0.78098360655737697</v>
       </c>
       <c r="L61" s="15">
-        <f t="shared" si="26"/>
-        <v>0.78700000000000003</v>
+        <f t="shared" si="29"/>
+        <v>0.78098360655737697</v>
       </c>
       <c r="T61" s="9" t="s">
         <v>95</v>
@@ -5220,16 +5299,16 @@
         <v>15536.865868655899</v>
       </c>
       <c r="AZ61" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>NCAP_COST</v>
       </c>
       <c r="BA61" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>XIOTELC</v>
       </c>
       <c r="BB61">
-        <f t="shared" si="9"/>
-        <v>17090.552455521491</v>
+        <f t="shared" si="10"/>
+        <v>15536.865868655899</v>
       </c>
       <c r="BJ61">
         <v>1</v>
@@ -5245,27 +5324,27 @@
       </c>
       <c r="G62" s="6">
         <f>G61</f>
-        <v>0.76100000000000001</v>
+        <v>0.76065573770491801</v>
       </c>
       <c r="H62" s="6">
-        <f t="shared" si="25"/>
-        <v>0.76100000000000001</v>
+        <f t="shared" si="28"/>
+        <v>0.76065573770491801</v>
       </c>
       <c r="I62" s="15">
-        <f t="shared" si="25"/>
-        <v>0.76100000000000001</v>
+        <f t="shared" si="28"/>
+        <v>0.76065573770491801</v>
       </c>
       <c r="J62" s="15">
         <f>J61</f>
-        <v>0.78700000000000003</v>
+        <v>0.78098360655737697</v>
       </c>
       <c r="K62" s="15">
-        <f t="shared" si="26"/>
-        <v>0.78700000000000003</v>
+        <f t="shared" si="29"/>
+        <v>0.78098360655737697</v>
       </c>
       <c r="L62" s="15">
-        <f t="shared" si="26"/>
-        <v>0.78700000000000003</v>
+        <f t="shared" si="29"/>
+        <v>0.78098360655737697</v>
       </c>
       <c r="T62" s="9" t="s">
         <v>97</v>
@@ -5283,16 +5362,16 @@
         <v>15536.865868655899</v>
       </c>
       <c r="AZ62" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>NCAP_COST</v>
       </c>
       <c r="BA62" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>XIPPELC</v>
       </c>
       <c r="BB62">
-        <f t="shared" si="9"/>
-        <v>17090.552455521491</v>
+        <f t="shared" si="10"/>
+        <v>15536.865868655899</v>
       </c>
       <c r="BJ62">
         <v>1</v>
@@ -5308,27 +5387,27 @@
       </c>
       <c r="G63" s="6">
         <f>G62</f>
-        <v>0.76100000000000001</v>
+        <v>0.76065573770491801</v>
       </c>
       <c r="H63" s="6">
         <f>H62</f>
-        <v>0.76100000000000001</v>
+        <v>0.76065573770491801</v>
       </c>
       <c r="I63" s="6">
         <f>H63</f>
-        <v>0.76100000000000001</v>
+        <v>0.76065573770491801</v>
       </c>
       <c r="J63" s="6">
-        <f t="shared" ref="J63" si="27">I63</f>
-        <v>0.76100000000000001</v>
+        <f t="shared" ref="J63" si="30">I63</f>
+        <v>0.76065573770491801</v>
       </c>
       <c r="K63" s="6">
-        <f t="shared" si="26"/>
-        <v>0.76100000000000001</v>
+        <f t="shared" si="29"/>
+        <v>0.76065573770491801</v>
       </c>
       <c r="L63" s="6">
-        <f t="shared" si="26"/>
-        <v>0.76100000000000001</v>
+        <f t="shared" si="29"/>
+        <v>0.76065573770491801</v>
       </c>
       <c r="N63" t="s">
         <v>128</v>
@@ -5349,16 +5428,16 @@
         <v>40688.264738559599</v>
       </c>
       <c r="AZ63" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>NCAP_COST</v>
       </c>
       <c r="BA63" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>XRESELC</v>
       </c>
       <c r="BB63">
-        <f t="shared" si="9"/>
-        <v>44757.091212415566</v>
+        <f t="shared" si="10"/>
+        <v>40688.264738559599</v>
       </c>
       <c r="BJ63">
         <v>1</v>
@@ -5381,22 +5460,25 @@
         <v>20344.132435184001</v>
       </c>
       <c r="AZ64" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>NCAP_COST</v>
       </c>
       <c r="BA64" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>XTRAELC</v>
       </c>
       <c r="BB64">
-        <f t="shared" si="9"/>
-        <v>22378.545678702401</v>
+        <f t="shared" si="10"/>
+        <v>20344.132435184001</v>
       </c>
       <c r="BJ64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="20:62" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="C65" s="10" t="s">
+        <v>135</v>
+      </c>
       <c r="T65" s="9" t="s">
         <v>103</v>
       </c>
@@ -5413,26 +5495,194 @@
         <v>10172.066217592001</v>
       </c>
       <c r="AZ65" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>NCAP_COST</v>
       </c>
       <c r="BA65" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>XUPSELC</v>
       </c>
       <c r="BB65">
-        <f t="shared" si="9"/>
-        <v>11189.272839351201</v>
+        <f t="shared" si="10"/>
+        <v>10172.066217592001</v>
       </c>
       <c r="BJ65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="20:62" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
+        <v>112</v>
+      </c>
+      <c r="G66" s="6">
+        <v>0</v>
+      </c>
+      <c r="H66" s="6">
+        <v>0</v>
+      </c>
+      <c r="I66" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="J66" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="K66" s="6">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="L66" s="6">
+        <v>0.1</v>
+      </c>
       <c r="V66" s="9"/>
       <c r="W66" s="9"/>
     </row>
+    <row r="67" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>113</v>
+      </c>
+      <c r="G67" s="6">
+        <v>0</v>
+      </c>
+      <c r="H67" s="6">
+        <v>0</v>
+      </c>
+      <c r="I67" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="J67" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="K67" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="L67" s="6">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="68" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="F68" t="s">
+        <v>114</v>
+      </c>
+      <c r="G68" s="6">
+        <v>0</v>
+      </c>
+      <c r="H68" s="6">
+        <v>0</v>
+      </c>
+      <c r="I68" s="28">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J68" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="K68" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="L68" s="6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="69" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
+        <v>127</v>
+      </c>
+      <c r="G69" s="6">
+        <v>0</v>
+      </c>
+      <c r="H69" s="6">
+        <v>0</v>
+      </c>
+      <c r="I69" s="6">
+        <v>0</v>
+      </c>
+      <c r="J69" s="6">
+        <v>0</v>
+      </c>
+      <c r="K69" s="6">
+        <v>0</v>
+      </c>
+      <c r="L69" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="G79" t="s">
+        <v>130</v>
+      </c>
+      <c r="H79" t="s">
+        <v>131</v>
+      </c>
+      <c r="I79" t="s">
+        <v>9</v>
+      </c>
+      <c r="J79" t="s">
+        <v>132</v>
+      </c>
+      <c r="K79" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="F80" t="s">
+        <v>129</v>
+      </c>
+      <c r="G80">
+        <v>100</v>
+      </c>
+      <c r="H80">
+        <v>1524</v>
+      </c>
+      <c r="I80">
+        <f>H80+G80</f>
+        <v>1624</v>
+      </c>
+      <c r="J80">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="G81" s="4">
+        <f>G80/I80</f>
+        <v>6.1576354679802957E-2</v>
+      </c>
+      <c r="J81" s="29">
+        <f>J80/I80</f>
+        <v>9.852216748768473E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F82" t="s">
+        <v>134</v>
+      </c>
+      <c r="G82">
+        <v>36.5</v>
+      </c>
+      <c r="H82">
+        <v>116</v>
+      </c>
+      <c r="I82">
+        <f>H82+G82</f>
+        <v>152.5</v>
+      </c>
+      <c r="J82">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="83" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="G83" s="29">
+        <f>G82/I82</f>
+        <v>0.23934426229508196</v>
+      </c>
+      <c r="J83" s="29">
+        <f>J82/I82</f>
+        <v>2.0327868852459016E-2</v>
+      </c>
+    </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{28F83205-2B6D-4B86-9C9B-CC3DB94DE282}">
+      <formula1>$F$41:$F$44</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/suppxls/Scen_Localisation-Lo.xlsx
+++ b/suppxls/Scen_Localisation-Lo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AE1569-2897-4891-9C6B-674EC343909C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FBE982-D05A-4EAB-967C-2AA6AB46D87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="15" windowWidth="28770" windowHeight="15570" xr2:uid="{232E471A-D1BC-46EA-822F-4A9C8F9BFC34}"/>
+    <workbookView xWindow="30" yWindow="630" windowWidth="28770" windowHeight="15570" xr2:uid="{232E471A-D1BC-46EA-822F-4A9C8F9BFC34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={BFF637BF-F295-4BD2-8A3C-4C0D24997E80}</author>
+  </authors>
+  <commentList>
+    <comment ref="U24" authorId="0" shapeId="0" xr:uid="{BFF637BF-F295-4BD2-8A3C-4C0D24997E80}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This must be re-activated when Reference costs are changed. One must leave it de-activated for High Localisation scenarios</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="136">
   <si>
     <t>~TFM_INS-TS</t>
   </si>
@@ -353,9 +371,6 @@
     <t>XUPSELC</t>
   </si>
   <si>
-    <t>~TFM_FILL</t>
-  </si>
-  <si>
     <t>Update values</t>
   </si>
   <si>
@@ -444,6 +459,9 @@
   </si>
   <si>
     <t>Cost Increase</t>
+  </si>
+  <si>
+    <t>TFM_FILL</t>
   </si>
 </sst>
 </file>
@@ -779,6 +797,12 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Bruno Merven" id="{B5E69722-C63D-4CBF-877A-AF5854BD44E9}" userId="S::01405439@wf.uct.ac.za::c7f06137-2c3b-4c5c-8f38-fe1abbc96860" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1074,12 +1098,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="U24" dT="2023-12-19T09:22:03.61" personId="{B5E69722-C63D-4CBF-877A-AF5854BD44E9}" id="{BFF637BF-F295-4BD2-8A3C-4C0D24997E80}">
+    <text>This must be re-activated when Reference costs are changed. One must leave it de-activated for High Localisation scenarios</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C1C3BE-43A3-4F6E-B7BA-55F1C4F1EF02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C1C3BE-43A3-4F6E-B7BA-55F1C4F1EF02}">
   <dimension ref="B2:BL83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,17 +1125,17 @@
   <sheetData>
     <row r="2" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C2" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C3" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E4" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.25">
@@ -1131,7 +1163,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G6" s="4">
         <f>1-M32</f>
@@ -1163,7 +1195,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G7" s="4">
         <f>1-L32</f>
@@ -1192,10 +1224,10 @@
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G8" s="4">
         <f>1-N32</f>
@@ -1224,10 +1256,10 @@
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G9" s="4">
         <f>1-O32</f>
@@ -1256,7 +1288,7 @@
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C12" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.25">
@@ -1382,13 +1414,13 @@
     </row>
     <row r="18" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F18" t="s">
         <v>19</v>
@@ -1418,7 +1450,7 @@
         <v>0.23934426229508199</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U18" s="13"/>
       <c r="V18" s="13"/>
@@ -1467,13 +1499,13 @@
     </row>
     <row r="19" spans="3:64" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -1503,20 +1535,20 @@
         <v>6.1576354679802936E-2</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="3:64" x14ac:dyDescent="0.25">
       <c r="AZ21" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="3:64" x14ac:dyDescent="0.25">
       <c r="T22" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AZ22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BB22" s="4">
         <f>SUMIF($F$66:$F$69,$C$3,G66:G69)</f>
@@ -1547,29 +1579,34 @@
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="3:64" x14ac:dyDescent="0.25">
-      <c r="U24" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>105</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>105</v>
-      </c>
-      <c r="AP24" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU24" t="s">
-        <v>105</v>
+      <c r="U24" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z24" t="str">
+        <f>U24</f>
+        <v>TFM_FILL</v>
+      </c>
+      <c r="AE24" t="str">
+        <f>Z24</f>
+        <v>TFM_FILL</v>
+      </c>
+      <c r="AJ24" t="str">
+        <f>AE24</f>
+        <v>TFM_FILL</v>
+      </c>
+      <c r="AP24" t="str">
+        <f>AJ24</f>
+        <v>TFM_FILL</v>
+      </c>
+      <c r="AU24" t="str">
+        <f>AP24</f>
+        <v>TFM_FILL</v>
       </c>
       <c r="AZ24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BJ24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="3:64" x14ac:dyDescent="0.25">
@@ -1898,7 +1935,7 @@
         <v>2017</v>
       </c>
       <c r="X28">
-        <v>60837.512560000003</v>
+        <v>55306.829599999997</v>
       </c>
       <c r="Z28" s="7" t="s">
         <v>21</v>
@@ -1960,7 +1997,7 @@
       </c>
       <c r="BB28">
         <f t="shared" si="10"/>
-        <v>60837.512560000003</v>
+        <v>55306.829599999997</v>
       </c>
       <c r="BC28" t="str">
         <f t="shared" si="11"/>
@@ -2021,7 +2058,7 @@
         <v>2017</v>
       </c>
       <c r="X29">
-        <v>117681.09583999999</v>
+        <v>106982.8144</v>
       </c>
       <c r="Z29" s="7" t="s">
         <v>21</v>
@@ -2083,7 +2120,7 @@
       </c>
       <c r="BB29">
         <f t="shared" si="10"/>
-        <v>117681.09583999999</v>
+        <v>106982.8144</v>
       </c>
       <c r="BC29" t="str">
         <f t="shared" si="11"/>
@@ -2149,7 +2186,7 @@
         <v>2017</v>
       </c>
       <c r="X30">
-        <v>34722.7166</v>
+        <v>31566.106</v>
       </c>
       <c r="Z30" s="7" t="s">
         <v>21</v>
@@ -2211,7 +2248,7 @@
       </c>
       <c r="BB30">
         <f t="shared" si="10"/>
-        <v>34722.7166</v>
+        <v>31566.106</v>
       </c>
       <c r="BC30" t="str">
         <f t="shared" si="11"/>
@@ -2270,10 +2307,10 @@
         <v>cmach_e</v>
       </c>
       <c r="N31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O31" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T31" s="9" t="s">
         <v>35</v>
@@ -2288,7 +2325,7 @@
         <v>2017</v>
       </c>
       <c r="X31">
-        <v>73433.283439999999</v>
+        <v>66757.530400000003</v>
       </c>
       <c r="Z31" s="7" t="s">
         <v>21</v>
@@ -2350,7 +2387,7 @@
       </c>
       <c r="BB31">
         <f t="shared" si="10"/>
-        <v>73433.283439999999</v>
+        <v>66757.530400000003</v>
       </c>
       <c r="BC31" t="str">
         <f t="shared" si="11"/>
@@ -2429,7 +2466,7 @@
         <v>2017</v>
       </c>
       <c r="X32">
-        <v>106024.612628</v>
+        <v>96386.011480000001</v>
       </c>
       <c r="Z32" s="7" t="s">
         <v>21</v>
@@ -2491,7 +2528,7 @@
       </c>
       <c r="BB32">
         <f t="shared" si="10"/>
-        <v>106024.612628</v>
+        <v>96386.011480000001</v>
       </c>
       <c r="BC32" t="str">
         <f t="shared" si="11"/>
@@ -2547,7 +2584,7 @@
         <v>2017</v>
       </c>
       <c r="X33">
-        <v>89407.982771283598</v>
+        <v>81279.984337530506</v>
       </c>
       <c r="Z33" s="7" t="s">
         <v>21</v>
@@ -2560,7 +2597,7 @@
         <v>2020</v>
       </c>
       <c r="AC33">
-        <v>81398.386302773797</v>
+        <v>73998.533002521595</v>
       </c>
       <c r="AE33" s="7" t="s">
         <v>21</v>
@@ -2573,7 +2610,7 @@
         <v>2025</v>
       </c>
       <c r="AH33">
-        <v>68049.058855257405</v>
+        <v>61862.780777506698</v>
       </c>
       <c r="AJ33" s="7" t="s">
         <v>21</v>
@@ -2586,7 +2623,7 @@
         <v>2030</v>
       </c>
       <c r="AM33">
-        <v>54699.731407741099</v>
+        <v>49727.028552491902</v>
       </c>
       <c r="AP33" s="7" t="s">
         <v>21</v>
@@ -2599,7 +2636,7 @@
         <v>2040</v>
       </c>
       <c r="AS33">
-        <v>54699.731407741099</v>
+        <v>49727.028552491902</v>
       </c>
       <c r="AU33" s="7" t="s">
         <v>21</v>
@@ -2612,7 +2649,7 @@
         <v>2050</v>
       </c>
       <c r="AX33">
-        <v>54699.731407741099</v>
+        <v>49727.028552491902</v>
       </c>
       <c r="AZ33" t="str">
         <f t="shared" si="20"/>
@@ -2624,27 +2661,27 @@
       </c>
       <c r="BB33">
         <f t="shared" si="10"/>
-        <v>89407.982771283598</v>
+        <v>81279.984337530506</v>
       </c>
       <c r="BC33">
         <f t="shared" si="11"/>
-        <v>81398.386302773797</v>
+        <v>73998.533002521595</v>
       </c>
       <c r="BD33">
         <f t="shared" si="12"/>
-        <v>68049.058855257405</v>
+        <v>61862.780777506698</v>
       </c>
       <c r="BE33">
         <f t="shared" si="13"/>
-        <v>54699.731407741099</v>
+        <v>49727.028552491902</v>
       </c>
       <c r="BF33">
         <f t="shared" si="14"/>
-        <v>54699.731407741099</v>
+        <v>49727.028552491902</v>
       </c>
       <c r="BG33">
         <f t="shared" si="15"/>
-        <v>54699.731407741099</v>
+        <v>49727.028552491902</v>
       </c>
       <c r="BJ33">
         <v>1</v>
@@ -2677,7 +2714,7 @@
         <v>2017</v>
       </c>
       <c r="X34">
-        <v>21455.514407079601</v>
+        <v>19505.013097345101</v>
       </c>
       <c r="Z34" s="7" t="s">
         <v>21</v>
@@ -2690,7 +2727,7 @@
         <v>2020</v>
       </c>
       <c r="AC34">
-        <v>15191.2526690265</v>
+        <v>13810.229699115</v>
       </c>
       <c r="AE34" s="7" t="s">
         <v>21</v>
@@ -2703,7 +2740,7 @@
         <v>2025</v>
       </c>
       <c r="AH34">
-        <v>14259.843614159299</v>
+        <v>12963.4941946903</v>
       </c>
       <c r="AJ34" s="7" t="s">
         <v>21</v>
@@ -2716,7 +2753,7 @@
         <v>2030</v>
       </c>
       <c r="AM34">
-        <v>13396.6218265486</v>
+        <v>12178.7471150442</v>
       </c>
       <c r="AP34" s="7" t="s">
         <v>21</v>
@@ -2729,7 +2766,7 @@
         <v>2040</v>
       </c>
       <c r="AS34">
-        <v>11900.8543256637</v>
+        <v>10818.9584778761</v>
       </c>
       <c r="AU34" s="7" t="s">
         <v>21</v>
@@ -2742,7 +2779,7 @@
         <v>2050</v>
       </c>
       <c r="AX34">
-        <v>10513.896293805299</v>
+        <v>9558.0875398230091</v>
       </c>
       <c r="AZ34" t="str">
         <f t="shared" si="20"/>
@@ -2754,27 +2791,27 @@
       </c>
       <c r="BB34">
         <f t="shared" si="10"/>
-        <v>21455.514407079601</v>
+        <v>19505.013097345101</v>
       </c>
       <c r="BC34">
         <f t="shared" si="11"/>
-        <v>15191.2526690265</v>
+        <v>13810.229699115</v>
       </c>
       <c r="BD34">
         <f t="shared" si="12"/>
-        <v>14259.843614159299</v>
+        <v>12963.4941946903</v>
       </c>
       <c r="BE34">
         <f t="shared" si="13"/>
-        <v>13396.6218265486</v>
+        <v>12178.7471150442</v>
       </c>
       <c r="BF34">
         <f t="shared" si="14"/>
-        <v>11900.8543256637</v>
+        <v>10818.9584778761</v>
       </c>
       <c r="BG34">
         <f t="shared" si="15"/>
-        <v>10513.896293805299</v>
+        <v>9558.0875398230091</v>
       </c>
       <c r="BJ34">
         <v>1</v>
@@ -2794,7 +2831,7 @@
         <v>2017</v>
       </c>
       <c r="X35">
-        <v>22872.387999999999</v>
+        <v>20793.080000000002</v>
       </c>
       <c r="Z35" s="7" t="s">
         <v>21</v>
@@ -2807,7 +2844,7 @@
         <v>2020</v>
       </c>
       <c r="AC35">
-        <v>16194.4486</v>
+        <v>14722.226000000001</v>
       </c>
       <c r="AE35" s="7" t="s">
         <v>21</v>
@@ -2820,7 +2857,7 @@
         <v>2025</v>
       </c>
       <c r="AH35">
-        <v>15201.5314</v>
+        <v>13819.574000000001</v>
       </c>
       <c r="AJ35" s="7" t="s">
         <v>21</v>
@@ -2833,7 +2870,7 @@
         <v>2030</v>
       </c>
       <c r="AM35">
-        <v>14281.304400000001</v>
+        <v>12983.004000000001</v>
       </c>
       <c r="AP35" s="7" t="s">
         <v>21</v>
@@ -2846,7 +2883,7 @@
         <v>2040</v>
       </c>
       <c r="AS35">
-        <v>12686.7598</v>
+        <v>11533.418</v>
       </c>
       <c r="AU35" s="7" t="s">
         <v>21</v>
@@ -2859,7 +2896,7 @@
         <v>2050</v>
       </c>
       <c r="AX35">
-        <v>11208.2102</v>
+        <v>10189.281999999999</v>
       </c>
       <c r="AZ35" t="str">
         <f t="shared" si="20"/>
@@ -2871,27 +2908,27 @@
       </c>
       <c r="BB35">
         <f t="shared" si="10"/>
-        <v>22872.387999999999</v>
+        <v>20793.080000000002</v>
       </c>
       <c r="BC35">
         <f t="shared" si="11"/>
-        <v>16194.4486</v>
+        <v>14722.226000000001</v>
       </c>
       <c r="BD35">
         <f t="shared" si="12"/>
-        <v>15201.5314</v>
+        <v>13819.574000000001</v>
       </c>
       <c r="BE35">
         <f t="shared" si="13"/>
-        <v>14281.304400000001</v>
+        <v>12983.004000000001</v>
       </c>
       <c r="BF35">
         <f t="shared" si="14"/>
-        <v>12686.7598</v>
+        <v>11533.418</v>
       </c>
       <c r="BG35">
         <f t="shared" si="15"/>
-        <v>11208.2102</v>
+        <v>10189.281999999999</v>
       </c>
       <c r="BJ35">
         <v>1</v>
@@ -2911,7 +2948,7 @@
         <v>2017</v>
       </c>
       <c r="X36">
-        <v>23683.387200000001</v>
+        <v>21530.351999999999</v>
       </c>
       <c r="Z36" s="7" t="s">
         <v>21</v>
@@ -2924,7 +2961,7 @@
         <v>2020</v>
       </c>
       <c r="AC36">
-        <v>19332.5</v>
+        <v>17575</v>
       </c>
       <c r="AE36" s="7" t="s">
         <v>21</v>
@@ -2937,7 +2974,7 @@
         <v>2025</v>
       </c>
       <c r="AH36">
-        <v>19163.920600000001</v>
+        <v>17421.745999999999</v>
       </c>
       <c r="AJ36" s="7" t="s">
         <v>21</v>
@@ -2950,7 +2987,7 @@
         <v>2030</v>
       </c>
       <c r="AM36">
-        <v>18996.8878</v>
+        <v>17269.898000000001</v>
       </c>
       <c r="AP36" s="7" t="s">
         <v>21</v>
@@ -2963,7 +3000,7 @@
         <v>2040</v>
       </c>
       <c r="AS36">
-        <v>18665.915400000002</v>
+        <v>16969.013999999999</v>
       </c>
       <c r="AU36" s="7" t="s">
         <v>21</v>
@@ -2976,7 +3013,7 @@
         <v>2050</v>
       </c>
       <c r="AX36">
-        <v>18341.129400000002</v>
+        <v>16673.754000000001</v>
       </c>
       <c r="AZ36" t="str">
         <f t="shared" si="20"/>
@@ -2988,27 +3025,27 @@
       </c>
       <c r="BB36">
         <f t="shared" si="10"/>
-        <v>23683.387200000001</v>
+        <v>21530.351999999999</v>
       </c>
       <c r="BC36">
         <f t="shared" si="11"/>
-        <v>19332.5</v>
+        <v>17575</v>
       </c>
       <c r="BD36">
         <f t="shared" si="12"/>
-        <v>19163.920600000001</v>
+        <v>17421.745999999999</v>
       </c>
       <c r="BE36">
         <f t="shared" si="13"/>
-        <v>18996.8878</v>
+        <v>17269.898000000001</v>
       </c>
       <c r="BF36">
         <f t="shared" si="14"/>
-        <v>18665.915400000002</v>
+        <v>16969.013999999999</v>
       </c>
       <c r="BG36">
         <f t="shared" si="15"/>
-        <v>18341.129400000002</v>
+        <v>16673.754000000001</v>
       </c>
       <c r="BJ36">
         <v>1</v>
@@ -3028,7 +3065,7 @@
         <v>2017</v>
       </c>
       <c r="X37">
-        <v>14021.305759999999</v>
+        <v>12746.641600000001</v>
       </c>
       <c r="Z37" s="7" t="s">
         <v>21</v>
@@ -3090,7 +3127,7 @@
       </c>
       <c r="BB37">
         <f t="shared" si="10"/>
-        <v>14021.305759999999</v>
+        <v>12746.641600000001</v>
       </c>
       <c r="BC37" t="str">
         <f t="shared" si="11"/>
@@ -3118,7 +3155,7 @@
     </row>
     <row r="38" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T38" s="9" t="s">
         <v>49</v>
@@ -3133,7 +3170,7 @@
         <v>2017</v>
       </c>
       <c r="X38">
-        <v>38234.504000000001</v>
+        <v>34758.639999999999</v>
       </c>
       <c r="Z38" s="7" t="s">
         <v>21</v>
@@ -3195,7 +3232,7 @@
       </c>
       <c r="BB38">
         <f t="shared" si="10"/>
-        <v>38234.504000000001</v>
+        <v>34758.639999999999</v>
       </c>
       <c r="BC38" t="str">
         <f t="shared" si="11"/>
@@ -3235,7 +3272,7 @@
         <v>2017</v>
       </c>
       <c r="X39">
-        <v>15396.688560000001</v>
+        <v>13996.989600000001</v>
       </c>
       <c r="Z39" s="7" t="s">
         <v>21</v>
@@ -3297,7 +3334,7 @@
       </c>
       <c r="BB39">
         <f t="shared" si="10"/>
-        <v>15396.688560000001</v>
+        <v>13996.989600000001</v>
       </c>
       <c r="BC39" t="str">
         <f t="shared" si="11"/>
@@ -3325,7 +3362,7 @@
     </row>
     <row r="40" spans="2:62" x14ac:dyDescent="0.25">
       <c r="C40" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G40" s="2">
         <v>2017</v>
@@ -3358,7 +3395,7 @@
         <v>2017</v>
       </c>
       <c r="X40">
-        <v>33832.897120000001</v>
+        <v>30757.179199999999</v>
       </c>
       <c r="Z40" s="7" t="s">
         <v>21</v>
@@ -3420,7 +3457,7 @@
       </c>
       <c r="BB40">
         <f t="shared" si="10"/>
-        <v>33832.897120000001</v>
+        <v>30757.179199999999</v>
       </c>
       <c r="BC40" t="str">
         <f t="shared" si="11"/>
@@ -3451,7 +3488,7 @@
         <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G41" s="5">
         <f>1-M32</f>
@@ -3486,7 +3523,7 @@
         <v>2017</v>
       </c>
       <c r="X41">
-        <v>21875.425439999999</v>
+        <v>19886.750400000001</v>
       </c>
       <c r="Z41" s="7" t="s">
         <v>21</v>
@@ -3548,7 +3585,7 @@
       </c>
       <c r="BB41">
         <f t="shared" si="10"/>
-        <v>21875.425439999999</v>
+        <v>19886.750400000001</v>
       </c>
       <c r="BC41" t="str">
         <f t="shared" si="11"/>
@@ -3580,7 +3617,7 @@
         <v>cmach_e</v>
       </c>
       <c r="F42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G42" s="5">
         <f>G41</f>
@@ -3615,7 +3652,7 @@
         <v>2017</v>
       </c>
       <c r="X42">
-        <v>29248.437984222699</v>
+        <v>26589.4890765661</v>
       </c>
       <c r="Z42" s="7" t="s">
         <v>21</v>
@@ -3677,7 +3714,7 @@
       </c>
       <c r="BB42">
         <f t="shared" si="10"/>
-        <v>29248.437984222699</v>
+        <v>26589.4890765661</v>
       </c>
       <c r="BC42" t="str">
         <f t="shared" si="11"/>
@@ -3709,7 +3746,7 @@
         <v>cmach_e</v>
       </c>
       <c r="F43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G43" s="5">
         <f>G42</f>
@@ -3744,7 +3781,7 @@
         <v>2017</v>
       </c>
       <c r="X43">
-        <v>29248.437984222699</v>
+        <v>26589.4890765661</v>
       </c>
       <c r="Z43" s="7" t="s">
         <v>21</v>
@@ -3806,7 +3843,7 @@
       </c>
       <c r="BB43">
         <f t="shared" si="10"/>
-        <v>29248.437984222699</v>
+        <v>26589.4890765661</v>
       </c>
       <c r="BC43" t="str">
         <f t="shared" si="11"/>
@@ -3838,7 +3875,7 @@
         <v>cmach_e</v>
       </c>
       <c r="F44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G44" s="5">
         <f>G43</f>
@@ -3865,7 +3902,7 @@
         <v>0.47058823529411764</v>
       </c>
       <c r="N44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T44" s="9" t="s">
         <v>61</v>
@@ -3880,7 +3917,7 @@
         <v>2017</v>
       </c>
       <c r="X44">
-        <v>42015.284959999997</v>
+        <v>38195.713600000003</v>
       </c>
       <c r="Z44" s="7" t="s">
         <v>21</v>
@@ -3893,7 +3930,7 @@
         <v>2020</v>
       </c>
       <c r="AC44">
-        <v>26933.083740014099</v>
+        <v>24484.621581831001</v>
       </c>
       <c r="AE44" s="7" t="s">
         <v>21</v>
@@ -3906,7 +3943,7 @@
         <v>2025</v>
       </c>
       <c r="AH44">
-        <v>26591.811125704</v>
+        <v>24174.373750639999</v>
       </c>
       <c r="AJ44" s="7" t="s">
         <v>21</v>
@@ -3919,7 +3956,7 @@
         <v>2030</v>
       </c>
       <c r="AM44">
-        <v>22290.023759944099</v>
+        <v>20263.657963585501</v>
       </c>
       <c r="AP44" s="7" t="s">
         <v>21</v>
@@ -3932,7 +3969,7 @@
         <v>2040</v>
       </c>
       <c r="AS44">
-        <v>18852.7362232987</v>
+        <v>17138.851112089698</v>
       </c>
       <c r="AU44" s="7" t="s">
         <v>21</v>
@@ -3945,7 +3982,7 @@
         <v>2050</v>
       </c>
       <c r="AX44">
-        <v>15417.019777003599</v>
+        <v>14015.472524548701</v>
       </c>
       <c r="AZ44" t="str">
         <f t="shared" si="20"/>
@@ -3957,27 +3994,27 @@
       </c>
       <c r="BB44">
         <f t="shared" si="10"/>
-        <v>42015.284959999997</v>
+        <v>38195.713600000003</v>
       </c>
       <c r="BC44">
         <f t="shared" si="11"/>
-        <v>26933.083740014099</v>
+        <v>24484.621581831001</v>
       </c>
       <c r="BD44">
         <f t="shared" si="12"/>
-        <v>26591.811125704</v>
+        <v>24174.373750639999</v>
       </c>
       <c r="BE44">
         <f t="shared" si="13"/>
-        <v>22290.023759944099</v>
+        <v>20263.657963585501</v>
       </c>
       <c r="BF44">
         <f t="shared" si="14"/>
-        <v>18852.7362232987</v>
+        <v>17138.851112089698</v>
       </c>
       <c r="BG44">
         <f t="shared" si="15"/>
-        <v>15417.019777003599</v>
+        <v>14015.472524548701</v>
       </c>
       <c r="BJ44">
         <v>1</v>
@@ -3997,7 +4034,7 @@
         <v>2017</v>
       </c>
       <c r="X45">
-        <v>24888.396712212401</v>
+        <v>22625.8151929204</v>
       </c>
       <c r="Z45" s="7" t="s">
         <v>21</v>
@@ -4010,7 +4047,7 @@
         <v>2020</v>
       </c>
       <c r="AC45">
-        <v>17621.853096070899</v>
+        <v>16019.866450973501</v>
       </c>
       <c r="AE45" s="7" t="s">
         <v>21</v>
@@ -4023,7 +4060,7 @@
         <v>2025</v>
       </c>
       <c r="AH45">
-        <v>16541.418592424801</v>
+        <v>15037.6532658407</v>
       </c>
       <c r="AJ45" s="7" t="s">
         <v>21</v>
@@ -4036,7 +4073,7 @@
         <v>2030</v>
       </c>
       <c r="AM45">
-        <v>15540.0813187964</v>
+        <v>14127.346653451301</v>
       </c>
       <c r="AP45" s="7" t="s">
         <v>21</v>
@@ -4049,7 +4086,7 @@
         <v>2040</v>
       </c>
       <c r="AS45">
-        <v>13804.9910177699</v>
+        <v>12549.991834336301</v>
       </c>
       <c r="AU45" s="7" t="s">
         <v>21</v>
@@ -4062,7 +4099,7 @@
         <v>2050</v>
       </c>
       <c r="AX45">
-        <v>12196.119700814201</v>
+        <v>11087.3815461947</v>
       </c>
       <c r="AZ45" t="str">
         <f t="shared" si="20"/>
@@ -4074,27 +4111,27 @@
       </c>
       <c r="BB45">
         <f t="shared" si="10"/>
-        <v>24888.396712212401</v>
+        <v>22625.8151929204</v>
       </c>
       <c r="BC45">
         <f t="shared" si="11"/>
-        <v>17621.853096070899</v>
+        <v>16019.866450973501</v>
       </c>
       <c r="BD45">
         <f t="shared" si="12"/>
-        <v>16541.418592424801</v>
+        <v>15037.6532658407</v>
       </c>
       <c r="BE45">
         <f t="shared" si="13"/>
-        <v>15540.0813187964</v>
+        <v>14127.346653451301</v>
       </c>
       <c r="BF45">
         <f t="shared" si="14"/>
-        <v>13804.9910177699</v>
+        <v>12549.991834336301</v>
       </c>
       <c r="BG45">
         <f t="shared" si="15"/>
-        <v>12196.119700814201</v>
+        <v>11087.3815461947</v>
       </c>
       <c r="BJ45">
         <v>1</v>
@@ -4114,7 +4151,7 @@
         <v>2017</v>
       </c>
       <c r="X46">
-        <v>24888.396712212401</v>
+        <v>22625.8151929204</v>
       </c>
       <c r="Z46" s="7" t="s">
         <v>21</v>
@@ -4127,7 +4164,7 @@
         <v>2020</v>
       </c>
       <c r="AC46">
-        <v>17621.853096070899</v>
+        <v>16019.866450973501</v>
       </c>
       <c r="AE46" s="7" t="s">
         <v>21</v>
@@ -4140,7 +4177,7 @@
         <v>2025</v>
       </c>
       <c r="AH46">
-        <v>16541.418592424801</v>
+        <v>15037.6532658407</v>
       </c>
       <c r="AJ46" s="7" t="s">
         <v>21</v>
@@ -4153,7 +4190,7 @@
         <v>2030</v>
       </c>
       <c r="AM46">
-        <v>15540.0813187964</v>
+        <v>14127.346653451301</v>
       </c>
       <c r="AP46" s="7" t="s">
         <v>21</v>
@@ -4166,7 +4203,7 @@
         <v>2040</v>
       </c>
       <c r="AS46">
-        <v>13804.9910177699</v>
+        <v>12549.991834336301</v>
       </c>
       <c r="AU46" s="7" t="s">
         <v>21</v>
@@ -4179,7 +4216,7 @@
         <v>2050</v>
       </c>
       <c r="AX46">
-        <v>12196.119700814201</v>
+        <v>11087.3815461947</v>
       </c>
       <c r="AZ46" t="str">
         <f t="shared" si="20"/>
@@ -4191,27 +4228,27 @@
       </c>
       <c r="BB46">
         <f t="shared" si="10"/>
-        <v>24888.396712212401</v>
+        <v>22625.8151929204</v>
       </c>
       <c r="BC46">
         <f t="shared" si="11"/>
-        <v>17621.853096070899</v>
+        <v>16019.866450973501</v>
       </c>
       <c r="BD46">
         <f t="shared" si="12"/>
-        <v>16541.418592424801</v>
+        <v>15037.6532658407</v>
       </c>
       <c r="BE46">
         <f t="shared" si="13"/>
-        <v>15540.0813187964</v>
+        <v>14127.346653451301</v>
       </c>
       <c r="BF46">
         <f t="shared" si="14"/>
-        <v>13804.9910177699</v>
+        <v>12549.991834336301</v>
       </c>
       <c r="BG46">
         <f t="shared" si="15"/>
-        <v>12196.119700814201</v>
+        <v>11087.3815461947</v>
       </c>
       <c r="BJ46">
         <v>1</v>
@@ -4219,7 +4256,7 @@
     </row>
     <row r="47" spans="2:62" x14ac:dyDescent="0.25">
       <c r="C47" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T47" t="s">
         <v>67</v>
@@ -4234,7 +4271,7 @@
         <v>2017</v>
       </c>
       <c r="X47">
-        <v>24888.396712212401</v>
+        <v>22625.8151929204</v>
       </c>
       <c r="Z47" s="7" t="s">
         <v>21</v>
@@ -4247,7 +4284,7 @@
         <v>2020</v>
       </c>
       <c r="AC47">
-        <v>17621.853096070899</v>
+        <v>16019.866450973501</v>
       </c>
       <c r="AE47" s="7" t="s">
         <v>21</v>
@@ -4260,7 +4297,7 @@
         <v>2025</v>
       </c>
       <c r="AH47">
-        <v>16541.418592424801</v>
+        <v>15037.6532658407</v>
       </c>
       <c r="AJ47" s="7" t="s">
         <v>21</v>
@@ -4273,7 +4310,7 @@
         <v>2030</v>
       </c>
       <c r="AM47">
-        <v>15540.0813187964</v>
+        <v>14127.346653451301</v>
       </c>
       <c r="AP47" s="7" t="s">
         <v>21</v>
@@ -4286,7 +4323,7 @@
         <v>2040</v>
       </c>
       <c r="AS47">
-        <v>13804.9910177699</v>
+        <v>12549.991834336301</v>
       </c>
       <c r="AU47" s="7" t="s">
         <v>21</v>
@@ -4299,7 +4336,7 @@
         <v>2050</v>
       </c>
       <c r="AX47">
-        <v>12196.119700814201</v>
+        <v>11087.3815461947</v>
       </c>
       <c r="AZ47" t="str">
         <f t="shared" si="20"/>
@@ -4311,27 +4348,27 @@
       </c>
       <c r="BB47">
         <f t="shared" si="10"/>
-        <v>24888.396712212401</v>
+        <v>22625.8151929204</v>
       </c>
       <c r="BC47">
         <f t="shared" si="11"/>
-        <v>17621.853096070899</v>
+        <v>16019.866450973501</v>
       </c>
       <c r="BD47">
         <f t="shared" si="12"/>
-        <v>16541.418592424801</v>
+        <v>15037.6532658407</v>
       </c>
       <c r="BE47">
         <f t="shared" si="13"/>
-        <v>15540.0813187964</v>
+        <v>14127.346653451301</v>
       </c>
       <c r="BF47">
         <f t="shared" si="14"/>
-        <v>13804.9910177699</v>
+        <v>12549.991834336301</v>
       </c>
       <c r="BG47">
         <f t="shared" si="15"/>
-        <v>12196.119700814201</v>
+        <v>11087.3815461947</v>
       </c>
       <c r="BJ47">
         <v>1</v>
@@ -4342,7 +4379,7 @@
         <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G48" s="5">
         <f>1-L32</f>
@@ -4377,7 +4414,7 @@
         <v>2017</v>
       </c>
       <c r="X48">
-        <v>37547.150212389402</v>
+        <v>34133.772920354</v>
       </c>
       <c r="Z48" s="7" t="s">
         <v>21</v>
@@ -4390,7 +4427,7 @@
         <v>2020</v>
       </c>
       <c r="AC48">
-        <v>26584.692170796399</v>
+        <v>24167.901973451299</v>
       </c>
       <c r="AE48" s="7" t="s">
         <v>21</v>
@@ -4403,7 +4440,7 @@
         <v>2025</v>
       </c>
       <c r="AH48">
-        <v>24954.7263247788</v>
+        <v>22686.114840708</v>
       </c>
       <c r="AJ48" s="7" t="s">
         <v>21</v>
@@ -4416,7 +4453,7 @@
         <v>2030</v>
       </c>
       <c r="AM48">
-        <v>23444.088196460099</v>
+        <v>21312.8074513274</v>
       </c>
       <c r="AP48" s="7" t="s">
         <v>21</v>
@@ -4429,7 +4466,7 @@
         <v>2040</v>
       </c>
       <c r="AS48">
-        <v>20826.4950699115</v>
+        <v>18933.177336283199</v>
       </c>
       <c r="AU48" s="7" t="s">
         <v>21</v>
@@ -4442,7 +4479,7 @@
         <v>2050</v>
       </c>
       <c r="AX48">
-        <v>18399.318514159299</v>
+        <v>16726.653194690301</v>
       </c>
       <c r="AZ48" t="str">
         <f t="shared" si="20"/>
@@ -4454,27 +4491,27 @@
       </c>
       <c r="BB48">
         <f t="shared" si="10"/>
-        <v>37547.150212389402</v>
+        <v>34133.772920354</v>
       </c>
       <c r="BC48">
         <f t="shared" si="11"/>
-        <v>26584.692170796399</v>
+        <v>24167.901973451299</v>
       </c>
       <c r="BD48">
         <f t="shared" si="12"/>
-        <v>24954.7263247788</v>
+        <v>22686.114840708</v>
       </c>
       <c r="BE48">
         <f t="shared" si="13"/>
-        <v>23444.088196460099</v>
+        <v>21312.8074513274</v>
       </c>
       <c r="BF48">
         <f t="shared" si="14"/>
-        <v>20826.4950699115</v>
+        <v>18933.177336283199</v>
       </c>
       <c r="BG48">
         <f t="shared" si="15"/>
-        <v>18399.318514159299</v>
+        <v>16726.653194690301</v>
       </c>
       <c r="BJ48">
         <v>1</v>
@@ -4486,7 +4523,7 @@
         <v>cemch_e</v>
       </c>
       <c r="F49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G49" s="5">
         <f>G48</f>
@@ -4521,7 +4558,7 @@
         <v>2017</v>
       </c>
       <c r="X49">
-        <v>24888.396712212401</v>
+        <v>22625.8151929204</v>
       </c>
       <c r="Z49" s="7" t="s">
         <v>21</v>
@@ -4534,7 +4571,7 @@
         <v>2020</v>
       </c>
       <c r="AC49">
-        <v>17621.853096070899</v>
+        <v>16019.866450973501</v>
       </c>
       <c r="AE49" s="7" t="s">
         <v>21</v>
@@ -4547,7 +4584,7 @@
         <v>2025</v>
       </c>
       <c r="AH49">
-        <v>16541.418592424801</v>
+        <v>15037.6532658407</v>
       </c>
       <c r="AJ49" s="7" t="s">
         <v>21</v>
@@ -4560,7 +4597,7 @@
         <v>2030</v>
       </c>
       <c r="AM49">
-        <v>15540.0813187964</v>
+        <v>14127.346653451301</v>
       </c>
       <c r="AP49" s="7" t="s">
         <v>21</v>
@@ -4573,7 +4610,7 @@
         <v>2040</v>
       </c>
       <c r="AS49">
-        <v>13804.9910177699</v>
+        <v>12549.991834336301</v>
       </c>
       <c r="AU49" s="7" t="s">
         <v>21</v>
@@ -4586,7 +4623,7 @@
         <v>2050</v>
       </c>
       <c r="AX49">
-        <v>12196.119700814201</v>
+        <v>11087.3815461947</v>
       </c>
       <c r="AZ49" t="str">
         <f t="shared" si="20"/>
@@ -4598,27 +4635,27 @@
       </c>
       <c r="BB49">
         <f t="shared" si="10"/>
-        <v>24888.396712212401</v>
+        <v>22625.8151929204</v>
       </c>
       <c r="BC49">
         <f t="shared" si="11"/>
-        <v>17621.853096070899</v>
+        <v>16019.866450973501</v>
       </c>
       <c r="BD49">
         <f t="shared" si="12"/>
-        <v>16541.418592424801</v>
+        <v>15037.6532658407</v>
       </c>
       <c r="BE49">
         <f t="shared" si="13"/>
-        <v>15540.0813187964</v>
+        <v>14127.346653451301</v>
       </c>
       <c r="BF49">
         <f t="shared" si="14"/>
-        <v>13804.9910177699</v>
+        <v>12549.991834336301</v>
       </c>
       <c r="BG49">
         <f t="shared" si="15"/>
-        <v>12196.119700814201</v>
+        <v>11087.3815461947</v>
       </c>
       <c r="BJ49">
         <v>1</v>
@@ -4630,7 +4667,7 @@
         <v>cemch_e</v>
       </c>
       <c r="F50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G50" s="5">
         <f>G49</f>
@@ -4665,7 +4702,7 @@
         <v>2017</v>
       </c>
       <c r="X50">
-        <v>6962.23719948902</v>
+        <v>6329.3065449900196</v>
       </c>
       <c r="Z50" s="7"/>
       <c r="AA50" s="9"/>
@@ -4689,7 +4726,7 @@
       </c>
       <c r="BB50">
         <f t="shared" si="10"/>
-        <v>6962.23719948902</v>
+        <v>6329.3065449900196</v>
       </c>
       <c r="BJ50">
         <v>1</v>
@@ -4701,7 +4738,7 @@
         <v>cemch_e</v>
       </c>
       <c r="F51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G51" s="5">
         <f>G50</f>
@@ -4728,7 +4765,7 @@
         <v>0.47538200339558578</v>
       </c>
       <c r="N51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T51" s="9" t="s">
         <v>75</v>
@@ -4743,7 +4780,7 @@
         <v>2017</v>
       </c>
       <c r="X51">
-        <v>3093.2</v>
+        <v>2812</v>
       </c>
       <c r="Z51" s="7"/>
       <c r="AA51" s="9"/>
@@ -4761,7 +4798,7 @@
       </c>
       <c r="BB51">
         <f t="shared" si="10"/>
-        <v>3093.2</v>
+        <v>2812</v>
       </c>
       <c r="BJ51">
         <v>1</v>
@@ -4781,7 +4818,7 @@
         <v>2017</v>
       </c>
       <c r="X52">
-        <v>40688.264738559599</v>
+        <v>36989.331580508697</v>
       </c>
       <c r="Z52" s="7"/>
       <c r="AA52" s="9"/>
@@ -4799,7 +4836,7 @@
       </c>
       <c r="BB52">
         <f t="shared" si="10"/>
-        <v>40688.264738559599</v>
+        <v>36989.331580508697</v>
       </c>
       <c r="BJ52">
         <v>1</v>
@@ -4807,7 +4844,7 @@
     </row>
     <row r="53" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C53" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T53" s="9" t="s">
         <v>79</v>
@@ -4822,7 +4859,7 @@
         <v>2017</v>
       </c>
       <c r="X53">
-        <v>20344.132435184001</v>
+        <v>18494.665850167301</v>
       </c>
       <c r="Z53" s="7"/>
       <c r="AA53" s="9"/>
@@ -4840,7 +4877,7 @@
       </c>
       <c r="BB53">
         <f t="shared" si="10"/>
-        <v>20344.132435184001</v>
+        <v>18494.665850167301</v>
       </c>
       <c r="BJ53">
         <v>1</v>
@@ -4848,10 +4885,10 @@
     </row>
     <row r="54" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F54" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G54" s="6">
         <f>1-O32</f>
@@ -4894,7 +4931,7 @@
         <v>2017</v>
       </c>
       <c r="X54">
-        <v>9670.4719226068701</v>
+        <v>8791.3381114607892</v>
       </c>
       <c r="Z54" s="7"/>
       <c r="AA54" s="9"/>
@@ -4912,7 +4949,7 @@
       </c>
       <c r="BB54">
         <f t="shared" si="10"/>
-        <v>9670.4719226068701</v>
+        <v>8791.3381114607892</v>
       </c>
       <c r="BJ54">
         <v>1</v>
@@ -4920,10 +4957,10 @@
     </row>
     <row r="55" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G55" s="6">
         <f>G54</f>
@@ -4962,7 +4999,7 @@
         <v>2017</v>
       </c>
       <c r="X55">
-        <v>9670.4719226068701</v>
+        <v>8791.3381114607892</v>
       </c>
       <c r="Z55" s="7"/>
       <c r="AA55" s="9"/>
@@ -4980,7 +5017,7 @@
       </c>
       <c r="BB55">
         <f t="shared" si="10"/>
-        <v>9670.4719226068701</v>
+        <v>8791.3381114607892</v>
       </c>
       <c r="BJ55">
         <v>1</v>
@@ -4988,10 +5025,10 @@
     </row>
     <row r="56" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G56" s="6">
         <f>G55</f>
@@ -5029,7 +5066,7 @@
         <v>2017</v>
       </c>
       <c r="X56">
-        <v>15536.865868655899</v>
+        <v>14124.4235169599</v>
       </c>
       <c r="Z56" s="7"/>
       <c r="AA56" s="9"/>
@@ -5047,7 +5084,7 @@
       </c>
       <c r="BB56">
         <f t="shared" si="10"/>
-        <v>15536.865868655899</v>
+        <v>14124.4235169599</v>
       </c>
       <c r="BJ56">
         <v>1</v>
@@ -5055,10 +5092,10 @@
     </row>
     <row r="57" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G57" s="6">
         <f>G56</f>
@@ -5085,7 +5122,7 @@
         <v>0.93842364532019706</v>
       </c>
       <c r="N57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T57" s="9" t="s">
         <v>87</v>
@@ -5100,7 +5137,7 @@
         <v>2017</v>
       </c>
       <c r="X57">
-        <v>9670.4719226068701</v>
+        <v>8791.3381114607892</v>
       </c>
       <c r="AZ57" t="str">
         <f t="shared" si="20"/>
@@ -5112,7 +5149,7 @@
       </c>
       <c r="BB57">
         <f t="shared" si="10"/>
-        <v>9670.4719226068701</v>
+        <v>8791.3381114607892</v>
       </c>
       <c r="BJ57">
         <v>1</v>
@@ -5132,7 +5169,7 @@
         <v>2017</v>
       </c>
       <c r="X58">
-        <v>9670.4719226068701</v>
+        <v>8791.3381114607892</v>
       </c>
       <c r="AZ58" t="str">
         <f t="shared" si="20"/>
@@ -5144,7 +5181,7 @@
       </c>
       <c r="BB58">
         <f t="shared" si="10"/>
-        <v>9670.4719226068701</v>
+        <v>8791.3381114607892</v>
       </c>
       <c r="BJ58">
         <v>1</v>
@@ -5152,7 +5189,7 @@
     </row>
     <row r="59" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C59" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T59" s="9" t="s">
         <v>91</v>
@@ -5167,7 +5204,7 @@
         <v>2017</v>
       </c>
       <c r="X59">
-        <v>9670.4719226068701</v>
+        <v>8791.3381114607892</v>
       </c>
       <c r="AZ59" t="str">
         <f t="shared" si="20"/>
@@ -5179,7 +5216,7 @@
       </c>
       <c r="BB59">
         <f t="shared" si="10"/>
-        <v>9670.4719226068701</v>
+        <v>8791.3381114607892</v>
       </c>
       <c r="BJ59">
         <v>1</v>
@@ -5187,10 +5224,10 @@
     </row>
     <row r="60" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C60" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F60" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G60" s="6">
         <f>1-N32</f>
@@ -5233,7 +5270,7 @@
         <v>2017</v>
       </c>
       <c r="X60">
-        <v>9670.4719226068701</v>
+        <v>8791.3381114607892</v>
       </c>
       <c r="AZ60" t="str">
         <f t="shared" si="20"/>
@@ -5245,7 +5282,7 @@
       </c>
       <c r="BB60">
         <f t="shared" si="10"/>
-        <v>9670.4719226068701</v>
+        <v>8791.3381114607892</v>
       </c>
       <c r="BJ60">
         <v>1</v>
@@ -5257,7 +5294,7 @@
         <v>cmetp</v>
       </c>
       <c r="F61" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G61" s="6">
         <f>G60</f>
@@ -5296,7 +5333,7 @@
         <v>2017</v>
       </c>
       <c r="X61">
-        <v>15536.865868655899</v>
+        <v>14124.4235169599</v>
       </c>
       <c r="AZ61" t="str">
         <f t="shared" si="20"/>
@@ -5308,7 +5345,7 @@
       </c>
       <c r="BB61">
         <f t="shared" si="10"/>
-        <v>15536.865868655899</v>
+        <v>14124.4235169599</v>
       </c>
       <c r="BJ61">
         <v>1</v>
@@ -5320,7 +5357,7 @@
         <v>cmetp</v>
       </c>
       <c r="F62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G62" s="6">
         <f>G61</f>
@@ -5359,7 +5396,7 @@
         <v>2017</v>
       </c>
       <c r="X62">
-        <v>15536.865868655899</v>
+        <v>14124.4235169599</v>
       </c>
       <c r="AZ62" t="str">
         <f t="shared" si="20"/>
@@ -5371,7 +5408,7 @@
       </c>
       <c r="BB62">
         <f t="shared" si="10"/>
-        <v>15536.865868655899</v>
+        <v>14124.4235169599</v>
       </c>
       <c r="BJ62">
         <v>1</v>
@@ -5383,7 +5420,7 @@
         <v>cmetp</v>
       </c>
       <c r="F63" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G63" s="6">
         <f>G62</f>
@@ -5410,7 +5447,7 @@
         <v>0.76065573770491801</v>
       </c>
       <c r="N63" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T63" s="9" t="s">
         <v>99</v>
@@ -5425,7 +5462,7 @@
         <v>2017</v>
       </c>
       <c r="X63">
-        <v>40688.264738559599</v>
+        <v>36989.331580508697</v>
       </c>
       <c r="AZ63" t="str">
         <f t="shared" si="20"/>
@@ -5437,7 +5474,7 @@
       </c>
       <c r="BB63">
         <f t="shared" si="10"/>
-        <v>40688.264738559599</v>
+        <v>36989.331580508697</v>
       </c>
       <c r="BJ63">
         <v>1</v>
@@ -5457,7 +5494,7 @@
         <v>2017</v>
       </c>
       <c r="X64">
-        <v>20344.132435184001</v>
+        <v>18494.665850167301</v>
       </c>
       <c r="AZ64" t="str">
         <f t="shared" si="20"/>
@@ -5469,7 +5506,7 @@
       </c>
       <c r="BB64">
         <f t="shared" si="10"/>
-        <v>20344.132435184001</v>
+        <v>18494.665850167301</v>
       </c>
       <c r="BJ64">
         <v>1</v>
@@ -5477,7 +5514,7 @@
     </row>
     <row r="65" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C65" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T65" s="9" t="s">
         <v>103</v>
@@ -5492,7 +5529,7 @@
         <v>2017</v>
       </c>
       <c r="X65">
-        <v>10172.066217592001</v>
+        <v>9247.3329250836705</v>
       </c>
       <c r="AZ65" t="str">
         <f t="shared" si="20"/>
@@ -5504,7 +5541,7 @@
       </c>
       <c r="BB65">
         <f t="shared" si="10"/>
-        <v>10172.066217592001</v>
+        <v>9247.3329250836705</v>
       </c>
       <c r="BJ65">
         <v>1</v>
@@ -5512,7 +5549,7 @@
     </row>
     <row r="66" spans="3:62" x14ac:dyDescent="0.25">
       <c r="F66" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G66" s="6">
         <v>0</v>
@@ -5537,7 +5574,7 @@
     </row>
     <row r="67" spans="3:62" x14ac:dyDescent="0.25">
       <c r="F67" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G67" s="6">
         <v>0</v>
@@ -5560,7 +5597,7 @@
     </row>
     <row r="68" spans="3:62" x14ac:dyDescent="0.25">
       <c r="F68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G68" s="6">
         <v>0</v>
@@ -5583,7 +5620,7 @@
     </row>
     <row r="69" spans="3:62" x14ac:dyDescent="0.25">
       <c r="F69" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G69" s="6">
         <v>0</v>
@@ -5606,24 +5643,24 @@
     </row>
     <row r="79" spans="3:62" x14ac:dyDescent="0.25">
       <c r="G79" t="s">
+        <v>129</v>
+      </c>
+      <c r="H79" t="s">
         <v>130</v>
-      </c>
-      <c r="H79" t="s">
-        <v>131</v>
       </c>
       <c r="I79" t="s">
         <v>9</v>
       </c>
       <c r="J79" t="s">
+        <v>131</v>
+      </c>
+      <c r="K79" t="s">
         <v>132</v>
-      </c>
-      <c r="K79" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="80" spans="3:62" x14ac:dyDescent="0.25">
       <c r="F80" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G80">
         <v>100</v>
@@ -5651,7 +5688,7 @@
     </row>
     <row r="82" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F82" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G82">
         <v>36.5</v>
@@ -5685,5 +5722,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/suppxls/Scen_Localisation-Lo.xlsx
+++ b/suppxls/Scen_Localisation-Lo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\suppxls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FBE982-D05A-4EAB-967C-2AA6AB46D87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA14016E-3FFD-4938-8CEA-AE81E3879A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="630" windowWidth="28770" windowHeight="15570" xr2:uid="{232E471A-D1BC-46EA-822F-4A9C8F9BFC34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{232E471A-D1BC-46EA-822F-4A9C8F9BFC34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="139">
   <si>
     <t>~TFM_INS-TS</t>
   </si>
@@ -462,6 +462,15 @@
   </si>
   <si>
     <t>TFM_FILL</t>
+  </si>
+  <si>
+    <t>Localisation</t>
+  </si>
+  <si>
+    <t>Cost increase</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -471,7 +480,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,6 +556,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -561,7 +578,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -664,6 +681,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -673,7 +705,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
@@ -710,6 +742,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="5"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="5" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Heading 4" xfId="2" builtinId="19"/>
@@ -737,15 +772,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>48</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>210608</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>137583</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>423333</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -760,8 +795,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="29860875" y="1743075"/>
-          <a:ext cx="1323975" cy="219075"/>
+          <a:off x="30828191" y="3757083"/>
+          <a:ext cx="1440392" cy="522817"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1108,14 +1143,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C1C3BE-43A3-4F6E-B7BA-55F1C4F1EF02}">
-  <dimension ref="B2:BL83"/>
+  <dimension ref="B1:BL83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" customWidth="1"/>
@@ -1123,22 +1159,38 @@
     <col min="53" max="53" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C2" s="10" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="32" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C3" s="30" t="s">
+      <c r="C1" s="18"/>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="19"/>
+      <c r="C2" s="22"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>138</v>
+      </c>
       <c r="E4" s="10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="19"/>
+      <c r="C5" s="22"/>
       <c r="G5" s="12">
         <v>2017</v>
       </c>
@@ -1158,7 +1210,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
       <c r="E6" t="s">
         <v>8</v>
       </c>
@@ -1190,7 +1244,7 @@
         <v>0.47058823529411764</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>11</v>
       </c>
@@ -1222,7 +1276,7 @@
         <v>0.47538200339558578</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>123</v>
       </c>
@@ -1254,7 +1308,7 @@
         <v>0.76065573770491801</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>120</v>
       </c>
@@ -1286,12 +1340,12 @@
         <v>0.93842364532019706</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C12" s="10" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1301,7 +1355,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
         <v>1</v>
       </c>
@@ -1333,7 +1387,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
         <v>3</v>
       </c>
@@ -1396,7 +1450,7 @@
         <v>0.52461799660441422</v>
       </c>
       <c r="I17" s="5">
-        <f t="shared" ref="I17:L17" si="5">1-I7</f>
+        <f t="shared" ref="I17:K17" si="5">1-I7</f>
         <v>0.52461799660441422</v>
       </c>
       <c r="J17" s="5">
@@ -1408,7 +1462,7 @@
         <v>0.52461799660441422</v>
       </c>
       <c r="L17" s="5">
-        <f t="shared" si="5"/>
+        <f>1-L7</f>
         <v>0.52461799660441422</v>
       </c>
     </row>
@@ -1551,11 +1605,11 @@
         <v>108</v>
       </c>
       <c r="BB22" s="4">
-        <f>SUMIF($F$66:$F$69,$C$3,G66:G69)</f>
+        <f>SUMIF($F$66:$F$69,$C$4,G66:G69)</f>
         <v>0</v>
       </c>
       <c r="BC22" s="4">
-        <f t="shared" ref="BC22:BG22" si="8">SUMIF($F$66:$F$69,$C$3,H66:H69)</f>
+        <f t="shared" ref="BC22:BG22" si="8">SUMIF($F$66:$F$69,$C$4,H66:H69)</f>
         <v>0</v>
       </c>
       <c r="BD22" s="4">
@@ -3153,8 +3207,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="B38" s="10" t="s">
+    <row r="38" spans="2:62" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B38" s="31" t="s">
         <v>114</v>
       </c>
       <c r="T38" s="9" t="s">
@@ -5512,8 +5566,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="3:62" x14ac:dyDescent="0.25">
-      <c r="C65" s="10" t="s">
+    <row r="65" spans="2:62" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B65" s="31" t="s">
         <v>134</v>
       </c>
       <c r="T65" s="9" t="s">
@@ -5547,7 +5601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:62" x14ac:dyDescent="0.25">
       <c r="F66" t="s">
         <v>111</v>
       </c>
@@ -5564,15 +5618,15 @@
         <v>0.05</v>
       </c>
       <c r="K66" s="6">
-        <v>7.4999999999999997E-2</v>
+        <v>0.125</v>
       </c>
       <c r="L66" s="6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="V66" s="9"/>
       <c r="W66" s="9"/>
     </row>
-    <row r="67" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:62" x14ac:dyDescent="0.25">
       <c r="F67" t="s">
         <v>112</v>
       </c>
@@ -5583,19 +5637,19 @@
         <v>0</v>
       </c>
       <c r="I67" s="6">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J67" s="6">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="K67" s="6">
-        <v>0.05</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="L67" s="6">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="68" spans="3:62" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:62" x14ac:dyDescent="0.25">
       <c r="F68" t="s">
         <v>113</v>
       </c>
@@ -5605,22 +5659,22 @@
       <c r="H68" s="6">
         <v>0</v>
       </c>
-      <c r="I68" s="28">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J68" s="6">
+      <c r="I68" s="6">
         <v>0.01</v>
       </c>
-      <c r="K68" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="L68" s="6">
+      <c r="J68" s="5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K68" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L68" s="5">
         <v>0.05</v>
       </c>
     </row>
-    <row r="69" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:62" x14ac:dyDescent="0.25">
       <c r="F69" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="G69" s="6">
         <v>0</v>
@@ -5641,7 +5695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:62" x14ac:dyDescent="0.25">
       <c r="G79" t="s">
         <v>129</v>
       </c>
@@ -5658,7 +5712,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="80" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:62" x14ac:dyDescent="0.25">
       <c r="F80" t="s">
         <v>128</v>
       </c>
@@ -5715,9 +5769,12 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{28F83205-2B6D-4B86-9C9B-CC3DB94DE282}">
       <formula1>$F$41:$F$44</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{B1584D95-3338-4846-9756-AAD3A2F15D0C}">
+      <formula1>$F$66:$F$69</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/suppxls/Scen_Localisation-Lo.xlsx
+++ b/suppxls/Scen_Localisation-Lo.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <workbookPr updateLinks="never" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA14016E-3FFD-4938-8CEA-AE81E3879A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{232E471A-D1BC-46EA-822F-4A9C8F9BFC34}"/>
+    <workbookView xWindow="-75" yWindow="-18270" windowWidth="28695" windowHeight="15570" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,10 +43,12 @@
   <commentList>
     <comment ref="U24" authorId="0" shapeId="0" xr:uid="{BFF637BF-F295-4BD2-8A3C-4C0D24997E80}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     This must be re-activated when Reference costs are changed. One must leave it de-activated for High Localisation scenarios</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -461,9 +463,6 @@
     <t>Cost Increase</t>
   </si>
   <si>
-    <t>TFM_FILL</t>
-  </si>
-  <si>
     <t>Localisation</t>
   </si>
   <si>
@@ -471,6 +470,9 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>~TFM_FILL</t>
   </si>
 </sst>
 </file>
@@ -480,7 +482,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,11 +491,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -575,6 +576,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -584,86 +586,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -679,14 +601,85 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color rgb="FF7F7F7F"/>
@@ -694,68 +687,171 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="24">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="20"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="20" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="22" applyFont="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="22" applyFont="1">
+      <alignment/>
+      <protection/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="15" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="15" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="5"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="23"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="23" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Heading 4" xfId="2" builtinId="19"/>
-    <cellStyle name="Input" xfId="5" builtinId="20"/>
+  <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 13" xfId="4" xr:uid="{8D155F1E-CE31-43C4-B63E-69EA0E23AFF4}"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{114B2D43-D8F0-4A77-911E-913BD0BF594C}"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
+    <cellStyle name="Currency" xfId="16" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
+    <cellStyle name="Comma" xfId="18" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Normal 2" xfId="21"/>
+    <cellStyle name="Normal 13" xfId="22"/>
+    <cellStyle name="Input" xfId="23" builtinId="20"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -768,7 +864,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>48</xdr:col>
@@ -782,12 +878,12 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Arrow: Right 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A247403-132B-398E-E96F-241036AD5818}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6a247403-132b-398e-e96f-241036ad5818}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -795,12 +891,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="30828191" y="3757083"/>
-          <a:ext cx="1440392" cy="522817"/>
+          <a:off x="31089600" y="3752850"/>
+          <a:ext cx="1428750" cy="523875"/>
         </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rightArrow"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -815,7 +909,7 @@
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="bg1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -839,9 +933,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -879,7 +973,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -985,7 +1079,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1127,13 +1221,13 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComments1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="U24" dT="2023-12-19T09:22:03.61" personId="{B5E69722-C63D-4CBF-877A-AF5854BD44E9}" id="{BFF637BF-F295-4BD2-8A3C-4C0D24997E80}">
     <text>This must be re-activated when Reference costs are changed. One must leave it de-activated for High Localisation scenarios</text>
@@ -1142,53 +1236,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C1C3BE-43A3-4F6E-B7BA-55F1C4F1EF02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C1C3BE-43A3-4F6E-B7BA-55F1C4F1EF02}">
   <dimension ref="B1:BL83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="53" max="53" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="13.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="11.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="9.85714285714286" customWidth="1"/>
+    <col min="6" max="6" width="19.4285714285714" customWidth="1"/>
+    <col min="53" max="53" width="16.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" ht="15">
       <c r="B1" s="32" t="s">
         <v>119</v>
       </c>
       <c r="C1" s="18"/>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="15">
       <c r="B2" s="19"/>
       <c r="C2" s="22"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" ht="15">
       <c r="B3" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" ht="15">
       <c r="B4" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>137</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>138</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" ht="15">
       <c r="B5" s="19"/>
       <c r="C5" s="22"/>
       <c r="G5" s="12">
@@ -1210,7 +1304,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" ht="15">
       <c r="B6" s="25"/>
       <c r="C6" s="26"/>
       <c r="E6" t="s">
@@ -1232,7 +1326,7 @@
         <v>0.47058823529411764</v>
       </c>
       <c r="J6" s="27">
-        <f t="shared" ref="J6:L6" si="0">SUMIFS(J$41:J$63,$C$41:$C$63,$E16,$F$41:$F$63,$C$3)</f>
+        <f t="shared" si="0" ref="J6:L6">SUMIFS(J$41:J$63,$C$41:$C$63,$E16,$F$41:$F$63,$C$3)</f>
         <v>0.47058823529411764</v>
       </c>
       <c r="K6" s="27">
@@ -1244,7 +1338,7 @@
         <v>0.47058823529411764</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:12" ht="15">
       <c r="E7" t="s">
         <v>11</v>
       </c>
@@ -1260,7 +1354,7 @@
         <v>0.47538200339558578</v>
       </c>
       <c r="I7" s="27">
-        <f t="shared" ref="I7:L7" si="1">SUMIFS(I$41:I$63,$C$41:$C$63,$E17,$F$41:$F$63,$C$3)</f>
+        <f t="shared" si="1" ref="I7:L7">SUMIFS(I$41:I$63,$C$41:$C$63,$E17,$F$41:$F$63,$C$3)</f>
         <v>0.47538200339558578</v>
       </c>
       <c r="J7" s="27">
@@ -1276,7 +1370,7 @@
         <v>0.47538200339558578</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:12" ht="15">
       <c r="E8" t="s">
         <v>123</v>
       </c>
@@ -1292,7 +1386,7 @@
         <v>0.76065573770491801</v>
       </c>
       <c r="I8" s="27">
-        <f t="shared" ref="I8:L8" si="2">SUMIFS(I$41:I$63,$C$41:$C$63,$E18,$F$41:$F$63,$C$3)</f>
+        <f t="shared" si="2" ref="I8:L8">SUMIFS(I$41:I$63,$C$41:$C$63,$E18,$F$41:$F$63,$C$3)</f>
         <v>0.76065573770491801</v>
       </c>
       <c r="J8" s="27">
@@ -1308,7 +1402,7 @@
         <v>0.76065573770491801</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:12" ht="15">
       <c r="E9" t="s">
         <v>120</v>
       </c>
@@ -1324,7 +1418,7 @@
         <v>0.93842364532019706</v>
       </c>
       <c r="I9" s="27">
-        <f t="shared" ref="I9:L9" si="3">SUMIFS(I$41:I$63,$C$41:$C$63,$E19,$F$41:$F$63,$C$3)</f>
+        <f t="shared" si="3" ref="I9:L9">SUMIFS(I$41:I$63,$C$41:$C$63,$E19,$F$41:$F$63,$C$3)</f>
         <v>0.93842364532019706</v>
       </c>
       <c r="J9" s="27">
@@ -1340,12 +1434,12 @@
         <v>0.93842364532019706</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:3" ht="15">
       <c r="C12" s="10" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:8" ht="15">
       <c r="C14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1355,7 +1449,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:12" ht="15">
       <c r="C15" s="2" t="s">
         <v>1</v>
       </c>
@@ -1387,7 +1481,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:14" ht="15">
       <c r="C16" s="3" t="s">
         <v>3</v>
       </c>
@@ -1413,7 +1507,7 @@
         <v>0.52941176470588236</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" ref="J16:L16" si="4">1-J6</f>
+        <f t="shared" si="4" ref="J16:L16">1-J6</f>
         <v>0.52941176470588236</v>
       </c>
       <c r="K16" s="5">
@@ -1428,7 +1522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" ht="15">
       <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1450,7 +1544,7 @@
         <v>0.52461799660441422</v>
       </c>
       <c r="I17" s="5">
-        <f t="shared" ref="I17:K17" si="5">1-I7</f>
+        <f t="shared" si="5" ref="I17:K17">1-I7</f>
         <v>0.52461799660441422</v>
       </c>
       <c r="J17" s="5">
@@ -1466,7 +1560,7 @@
         <v>0.52461799660441422</v>
       </c>
     </row>
-    <row r="18" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:64" ht="15">
       <c r="C18" t="s">
         <v>121</v>
       </c>
@@ -1488,7 +1582,7 @@
         <v>0.23934426229508196</v>
       </c>
       <c r="I18" s="5">
-        <f t="shared" ref="I18:L18" si="6">1-I8</f>
+        <f t="shared" si="6" ref="I18:L18">1-I8</f>
         <v>0.23934426229508199</v>
       </c>
       <c r="J18" s="5">
@@ -1551,7 +1645,7 @@
       <c r="BK18" s="13"/>
       <c r="BL18" s="13"/>
     </row>
-    <row r="19" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:20" ht="15">
       <c r="C19" t="s">
         <v>122</v>
       </c>
@@ -1566,38 +1660,38 @@
       </c>
       <c r="G19" s="6">
         <f>O32</f>
-        <v>6.1576354679802957E-2</v>
+        <v>0.061576354679802957</v>
       </c>
       <c r="H19" s="5">
         <f>G19</f>
-        <v>6.1576354679802957E-2</v>
+        <v>0.061576354679802957</v>
       </c>
       <c r="I19" s="5">
-        <f t="shared" ref="I19:L19" si="7">1-I9</f>
-        <v>6.1576354679802936E-2</v>
+        <f t="shared" si="7" ref="I19:L19">1-I9</f>
+        <v>0.061576354679802936</v>
       </c>
       <c r="J19" s="5">
         <f t="shared" si="7"/>
-        <v>6.1576354679802936E-2</v>
+        <v>0.061576354679802936</v>
       </c>
       <c r="K19" s="5">
         <f t="shared" si="7"/>
-        <v>6.1576354679802936E-2</v>
+        <v>0.061576354679802936</v>
       </c>
       <c r="L19" s="5">
         <f t="shared" si="7"/>
-        <v>6.1576354679802936E-2</v>
+        <v>0.061576354679802936</v>
       </c>
       <c r="T19" s="11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="21" spans="52:52" ht="15">
       <c r="AZ21" s="14" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="22" spans="20:59" ht="15">
       <c r="T22" s="14" t="s">
         <v>106</v>
       </c>
@@ -1609,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="BC22" s="4">
-        <f t="shared" ref="BC22:BG22" si="8">SUMIF($F$66:$F$69,$C$4,H66:H69)</f>
+        <f t="shared" si="8" ref="BC22:BG22">SUMIF($F$66:$F$69,$C$4,H66:H69)</f>
         <v>0</v>
       </c>
       <c r="BD22" s="4">
@@ -1629,32 +1723,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="23" spans="14:14" ht="15">
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="24" spans="21:62" ht="15">
       <c r="U24" s="30" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Z24" t="str">
         <f>U24</f>
-        <v>TFM_FILL</v>
+        <v>~TFM_FILL</v>
       </c>
       <c r="AE24" t="str">
         <f>Z24</f>
-        <v>TFM_FILL</v>
+        <v>~TFM_FILL</v>
       </c>
       <c r="AJ24" t="str">
         <f>AE24</f>
-        <v>TFM_FILL</v>
+        <v>~TFM_FILL</v>
       </c>
       <c r="AP24" t="str">
         <f>AJ24</f>
-        <v>TFM_FILL</v>
+        <v>~TFM_FILL</v>
       </c>
       <c r="AU24" t="str">
         <f>AP24</f>
-        <v>TFM_FILL</v>
+        <v>~TFM_FILL</v>
       </c>
       <c r="AZ24" s="1" t="s">
         <v>0</v>
@@ -1663,7 +1757,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="25" spans="20:59" ht="15">
       <c r="T25" s="8" t="s">
         <v>22</v>
       </c>
@@ -1768,7 +1862,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="26" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="26" spans="20:62" ht="15">
       <c r="T26" s="9" t="s">
         <v>25</v>
       </c>
@@ -1818,7 +1912,7 @@
         <v>21</v>
       </c>
       <c r="AQ26" s="9" t="str">
-        <f t="shared" ref="AQ26:AQ49" si="9">V26</f>
+        <f t="shared" si="9" ref="AQ26:AQ49">V26</f>
         <v>ETCLEMEDU-N</v>
       </c>
       <c r="AR26" s="7">
@@ -1843,34 +1937,34 @@
         <v>ETCLEMEDU-N</v>
       </c>
       <c r="BB26">
-        <f t="shared" ref="BB26:BB65" si="10">IF($BJ26,X26*(1+$BB$22),X26)</f>
+        <f t="shared" si="10" ref="BB26:BB65">IF($BJ26,X26*(1+$BB$22),X26)</f>
         <v>51359.8538564517</v>
       </c>
       <c r="BC26" t="str">
-        <f t="shared" ref="BC26:BC49" si="11">IF(IF($BJ26,AC26*(1+BC$22),AC26)=0,"",IF($BJ26,AC26*(1+BC$22),AC26))</f>
+        <f t="shared" si="11" ref="BC26:BC49">IF(IF($BJ26,AC26*(1+BC$22),AC26)=0,"",IF($BJ26,AC26*(1+BC$22),AC26))</f>
         <v/>
       </c>
       <c r="BD26" t="str">
-        <f t="shared" ref="BD26:BD49" si="12">IF(IF($BJ26,AH26*(1+BD$22),AH26)=0,"",IF($BJ26,AH26*(1+BD$22),AH26))</f>
+        <f t="shared" si="12" ref="BD26:BD49">IF(IF($BJ26,AH26*(1+BD$22),AH26)=0,"",IF($BJ26,AH26*(1+BD$22),AH26))</f>
         <v/>
       </c>
       <c r="BE26" t="str">
-        <f t="shared" ref="BE26:BE49" si="13">IF(IF($BJ26,AM26*(1+BE$22),AM26)=0,"",IF($BJ26,AM26*(1+BE$22),AM26))</f>
+        <f t="shared" si="13" ref="BE26:BE49">IF(IF($BJ26,AM26*(1+BE$22),AM26)=0,"",IF($BJ26,AM26*(1+BE$22),AM26))</f>
         <v/>
       </c>
       <c r="BF26" t="str">
-        <f t="shared" ref="BF26:BF49" si="14">IF(IF($BJ26,AS26*(1+BF$22),AS26)=0,"",IF($BJ26,AS26*(1+BF$22),AS26))</f>
+        <f t="shared" si="14" ref="BF26:BF49">IF(IF($BJ26,AS26*(1+BF$22),AS26)=0,"",IF($BJ26,AS26*(1+BF$22),AS26))</f>
         <v/>
       </c>
       <c r="BG26" t="str">
-        <f t="shared" ref="BG26:BG49" si="15">IF(IF($BJ26,AX26*(1+BG$22),AX26)=0,"",IF($BJ26,AX26*(1+BG$22),AX26))</f>
+        <f t="shared" si="15" ref="BG26:BG49">IF(IF($BJ26,AX26*(1+BG$22),AX26)=0,"",IF($BJ26,AX26*(1+BG$22),AX26))</f>
         <v/>
       </c>
       <c r="BJ26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="27" spans="20:62" ht="15">
       <c r="T27" s="9" t="s">
         <v>27</v>
       </c>
@@ -1890,7 +1984,7 @@
         <v>21</v>
       </c>
       <c r="AA27" s="9" t="str">
-        <f t="shared" ref="AA27:AA49" si="16">V27</f>
+        <f t="shared" si="16" ref="AA27:AA49">V27</f>
         <v>ETCLEKUSI-N</v>
       </c>
       <c r="AB27" s="7">
@@ -1900,7 +1994,7 @@
         <v>21</v>
       </c>
       <c r="AF27" s="9" t="str">
-        <f t="shared" ref="AF27:AF49" si="17">AA27</f>
+        <f t="shared" si="17" ref="AF27:AF49">AA27</f>
         <v>ETCLEKUSI-N</v>
       </c>
       <c r="AG27" s="7">
@@ -1910,7 +2004,7 @@
         <v>21</v>
       </c>
       <c r="AK27" s="9" t="str">
-        <f t="shared" ref="AK27:AK49" si="18">AF27</f>
+        <f t="shared" si="18" ref="AK27:AK49">AF27</f>
         <v>ETCLEKUSI-N</v>
       </c>
       <c r="AL27" s="7">
@@ -1930,18 +2024,18 @@
         <v>21</v>
       </c>
       <c r="AV27" s="9" t="str">
-        <f t="shared" ref="AV27:AV49" si="19">V27</f>
+        <f t="shared" si="19" ref="AV27:AV49">V27</f>
         <v>ETCLEKUSI-N</v>
       </c>
       <c r="AW27" s="7">
         <v>2050</v>
       </c>
       <c r="AZ27" t="str">
-        <f t="shared" ref="AZ27:AZ65" si="20">U27</f>
+        <f t="shared" si="20" ref="AZ27:AZ65">U27</f>
         <v>NCAP_COST</v>
       </c>
       <c r="BA27" t="str">
-        <f t="shared" ref="BA27:BA65" si="21">V27</f>
+        <f t="shared" si="21" ref="BA27:BA65">V27</f>
         <v>ETCLEKUSI-N</v>
       </c>
       <c r="BB27">
@@ -1972,7 +2066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:62" ht="15">
       <c r="C28" s="10" t="s">
         <v>17</v>
       </c>
@@ -2077,7 +2171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:62" ht="15">
       <c r="C29" s="16"/>
       <c r="D29" s="17" t="s">
         <v>12</v>
@@ -2200,7 +2294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:62" ht="15">
       <c r="C30" s="19"/>
       <c r="D30" t="s">
         <v>13</v>
@@ -2328,7 +2422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:62" ht="15">
       <c r="C31" s="19" t="s">
         <v>15</v>
       </c>
@@ -2467,7 +2561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:62" ht="15">
       <c r="C32" s="19">
         <v>2019</v>
       </c>
@@ -2478,14 +2572,14 @@
         <v>3.33</v>
       </c>
       <c r="F32">
-        <v>5.6</v>
+        <v>5.60</v>
       </c>
       <c r="G32">
         <v>2.96</v>
       </c>
       <c r="I32">
         <f>D32+F32</f>
-        <v>11.78</v>
+        <v>11.779999999999999</v>
       </c>
       <c r="J32">
         <f>E32+G32</f>
@@ -2505,7 +2599,7 @@
       </c>
       <c r="O32" s="24">
         <f>G81</f>
-        <v>6.1576354679802957E-2</v>
+        <v>0.061576354679802957</v>
       </c>
       <c r="T32" s="9" t="s">
         <v>37</v>
@@ -2608,7 +2702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:62" ht="15">
       <c r="C33" s="19">
         <v>2020</v>
       </c>
@@ -2619,10 +2713,10 @@
         <v>8.48</v>
       </c>
       <c r="F33">
-        <v>6.5</v>
+        <v>6.50</v>
       </c>
       <c r="G33">
-        <v>7.2</v>
+        <v>7.20</v>
       </c>
       <c r="O33" s="22"/>
       <c r="T33" s="9" t="s">
@@ -2638,7 +2732,7 @@
         <v>2017</v>
       </c>
       <c r="X33">
-        <v>81279.984337530506</v>
+        <v>81278.984337530506</v>
       </c>
       <c r="Z33" s="7" t="s">
         <v>21</v>
@@ -2651,7 +2745,7 @@
         <v>2020</v>
       </c>
       <c r="AC33">
-        <v>73998.533002521595</v>
+        <v>81279.984337530506</v>
       </c>
       <c r="AE33" s="7" t="s">
         <v>21</v>
@@ -2664,7 +2758,7 @@
         <v>2025</v>
       </c>
       <c r="AH33">
-        <v>61862.780777506698</v>
+        <v>63100.036393056798</v>
       </c>
       <c r="AJ33" s="7" t="s">
         <v>21</v>
@@ -2677,7 +2771,7 @@
         <v>2030</v>
       </c>
       <c r="AM33">
-        <v>49727.028552491902</v>
+        <v>52213.379980116501</v>
       </c>
       <c r="AP33" s="7" t="s">
         <v>21</v>
@@ -2690,7 +2784,7 @@
         <v>2040</v>
       </c>
       <c r="AS33">
-        <v>49727.028552491902</v>
+        <v>53456.5556939288</v>
       </c>
       <c r="AU33" s="7" t="s">
         <v>21</v>
@@ -2703,7 +2797,7 @@
         <v>2050</v>
       </c>
       <c r="AX33">
-        <v>49727.028552491902</v>
+        <v>54699.731407741099</v>
       </c>
       <c r="AZ33" t="str">
         <f t="shared" si="20"/>
@@ -2715,33 +2809,33 @@
       </c>
       <c r="BB33">
         <f t="shared" si="10"/>
-        <v>81279.984337530506</v>
+        <v>81278.984337530506</v>
       </c>
       <c r="BC33">
         <f t="shared" si="11"/>
-        <v>73998.533002521595</v>
+        <v>81279.984337530506</v>
       </c>
       <c r="BD33">
         <f t="shared" si="12"/>
-        <v>61862.780777506698</v>
+        <v>63100.036393056798</v>
       </c>
       <c r="BE33">
         <f t="shared" si="13"/>
-        <v>49727.028552491902</v>
+        <v>52213.379980116501</v>
       </c>
       <c r="BF33">
         <f t="shared" si="14"/>
-        <v>49727.028552491902</v>
+        <v>53456.5556939288</v>
       </c>
       <c r="BG33">
         <f t="shared" si="15"/>
-        <v>49727.028552491902</v>
+        <v>54699.731407741099</v>
       </c>
       <c r="BJ33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:62" ht="15">
       <c r="C34" s="25"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
@@ -2768,7 +2862,7 @@
         <v>2017</v>
       </c>
       <c r="X34">
-        <v>19505.013097345101</v>
+        <v>48762.532743362797</v>
       </c>
       <c r="Z34" s="7" t="s">
         <v>21</v>
@@ -2781,7 +2875,7 @@
         <v>2020</v>
       </c>
       <c r="AC34">
-        <v>13810.229699115</v>
+        <v>19505.013097345101</v>
       </c>
       <c r="AE34" s="7" t="s">
         <v>21</v>
@@ -2794,7 +2888,7 @@
         <v>2025</v>
       </c>
       <c r="AH34">
-        <v>12963.4941946903</v>
+        <v>13222.764078584099</v>
       </c>
       <c r="AJ34" s="7" t="s">
         <v>21</v>
@@ -2807,7 +2901,7 @@
         <v>2030</v>
       </c>
       <c r="AM34">
-        <v>12178.7471150442</v>
+        <v>12787.684470796399</v>
       </c>
       <c r="AP34" s="7" t="s">
         <v>21</v>
@@ -2820,7 +2914,7 @@
         <v>2040</v>
       </c>
       <c r="AS34">
-        <v>10818.9584778761</v>
+        <v>11630.3803637168</v>
       </c>
       <c r="AU34" s="7" t="s">
         <v>21</v>
@@ -2833,7 +2927,7 @@
         <v>2050</v>
       </c>
       <c r="AX34">
-        <v>9558.0875398230091</v>
+        <v>10513.896293805299</v>
       </c>
       <c r="AZ34" t="str">
         <f t="shared" si="20"/>
@@ -2845,33 +2939,33 @@
       </c>
       <c r="BB34">
         <f t="shared" si="10"/>
-        <v>19505.013097345101</v>
+        <v>48762.532743362797</v>
       </c>
       <c r="BC34">
         <f t="shared" si="11"/>
-        <v>13810.229699115</v>
+        <v>19505.013097345101</v>
       </c>
       <c r="BD34">
         <f t="shared" si="12"/>
-        <v>12963.4941946903</v>
+        <v>13222.764078584099</v>
       </c>
       <c r="BE34">
         <f t="shared" si="13"/>
-        <v>12178.7471150442</v>
+        <v>12787.684470796399</v>
       </c>
       <c r="BF34">
         <f t="shared" si="14"/>
-        <v>10818.9584778761</v>
+        <v>11630.3803637168</v>
       </c>
       <c r="BG34">
         <f t="shared" si="15"/>
-        <v>9558.0875398230091</v>
+        <v>10513.896293805299</v>
       </c>
       <c r="BJ34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="35" spans="20:62" ht="15">
       <c r="T35" s="9" t="s">
         <v>43</v>
       </c>
@@ -2885,7 +2979,7 @@
         <v>2017</v>
       </c>
       <c r="X35">
-        <v>20793.080000000002</v>
+        <v>51982.699999999997</v>
       </c>
       <c r="Z35" s="7" t="s">
         <v>21</v>
@@ -2898,7 +2992,7 @@
         <v>2020</v>
       </c>
       <c r="AC35">
-        <v>14722.226000000001</v>
+        <v>20793.080000000002</v>
       </c>
       <c r="AE35" s="7" t="s">
         <v>21</v>
@@ -2911,7 +3005,7 @@
         <v>2025</v>
       </c>
       <c r="AH35">
-        <v>13819.574000000001</v>
+        <v>14095.965480000001</v>
       </c>
       <c r="AJ35" s="7" t="s">
         <v>21</v>
@@ -2924,7 +3018,7 @@
         <v>2030</v>
       </c>
       <c r="AM35">
-        <v>12983.004000000001</v>
+        <v>13632.154200000001</v>
       </c>
       <c r="AP35" s="7" t="s">
         <v>21</v>
@@ -2937,7 +3031,7 @@
         <v>2040</v>
       </c>
       <c r="AS35">
-        <v>11533.418</v>
+        <v>12398.424349999999</v>
       </c>
       <c r="AU35" s="7" t="s">
         <v>21</v>
@@ -2950,7 +3044,7 @@
         <v>2050</v>
       </c>
       <c r="AX35">
-        <v>10189.281999999999</v>
+        <v>11208.2102</v>
       </c>
       <c r="AZ35" t="str">
         <f t="shared" si="20"/>
@@ -2962,33 +3056,33 @@
       </c>
       <c r="BB35">
         <f t="shared" si="10"/>
-        <v>20793.080000000002</v>
+        <v>51982.699999999997</v>
       </c>
       <c r="BC35">
         <f t="shared" si="11"/>
-        <v>14722.226000000001</v>
+        <v>20793.080000000002</v>
       </c>
       <c r="BD35">
         <f t="shared" si="12"/>
-        <v>13819.574000000001</v>
+        <v>14095.965480000001</v>
       </c>
       <c r="BE35">
         <f t="shared" si="13"/>
-        <v>12983.004000000001</v>
+        <v>13632.154200000001</v>
       </c>
       <c r="BF35">
         <f t="shared" si="14"/>
-        <v>11533.418</v>
+        <v>12398.424349999999</v>
       </c>
       <c r="BG35">
         <f t="shared" si="15"/>
-        <v>10189.281999999999</v>
+        <v>11208.2102</v>
       </c>
       <c r="BJ35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="36" spans="20:62" ht="15">
       <c r="T36" s="9" t="s">
         <v>45</v>
       </c>
@@ -3002,7 +3096,7 @@
         <v>2017</v>
       </c>
       <c r="X36">
-        <v>21530.351999999999</v>
+        <v>32295.527999999998</v>
       </c>
       <c r="Z36" s="7" t="s">
         <v>21</v>
@@ -3015,7 +3109,7 @@
         <v>2020</v>
       </c>
       <c r="AC36">
-        <v>17575</v>
+        <v>21530.351999999999</v>
       </c>
       <c r="AE36" s="7" t="s">
         <v>21</v>
@@ -3028,7 +3122,7 @@
         <v>2025</v>
       </c>
       <c r="AH36">
-        <v>17421.745999999999</v>
+        <v>17770.180919999999</v>
       </c>
       <c r="AJ36" s="7" t="s">
         <v>21</v>
@@ -3041,7 +3135,7 @@
         <v>2030</v>
       </c>
       <c r="AM36">
-        <v>17269.898000000001</v>
+        <v>18133.392899999999</v>
       </c>
       <c r="AP36" s="7" t="s">
         <v>21</v>
@@ -3054,7 +3148,7 @@
         <v>2040</v>
       </c>
       <c r="AS36">
-        <v>16969.013999999999</v>
+        <v>18241.690050000001</v>
       </c>
       <c r="AU36" s="7" t="s">
         <v>21</v>
@@ -3067,7 +3161,7 @@
         <v>2050</v>
       </c>
       <c r="AX36">
-        <v>16673.754000000001</v>
+        <v>18341.129400000002</v>
       </c>
       <c r="AZ36" t="str">
         <f t="shared" si="20"/>
@@ -3079,33 +3173,33 @@
       </c>
       <c r="BB36">
         <f t="shared" si="10"/>
-        <v>21530.351999999999</v>
+        <v>32295.527999999998</v>
       </c>
       <c r="BC36">
         <f t="shared" si="11"/>
-        <v>17575</v>
+        <v>21530.351999999999</v>
       </c>
       <c r="BD36">
         <f t="shared" si="12"/>
-        <v>17421.745999999999</v>
+        <v>17770.180919999999</v>
       </c>
       <c r="BE36">
         <f t="shared" si="13"/>
-        <v>17269.898000000001</v>
+        <v>18133.392899999999</v>
       </c>
       <c r="BF36">
         <f t="shared" si="14"/>
-        <v>16969.013999999999</v>
+        <v>18241.690050000001</v>
       </c>
       <c r="BG36">
         <f t="shared" si="15"/>
-        <v>16673.754000000001</v>
+        <v>18341.129400000002</v>
       </c>
       <c r="BJ36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="37" spans="20:62" ht="15">
       <c r="T37" s="9" t="s">
         <v>47</v>
       </c>
@@ -3207,7 +3301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:62" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:62" ht="23.25">
       <c r="B38" s="31" t="s">
         <v>114</v>
       </c>
@@ -3312,7 +3406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="39" spans="20:62" ht="15">
       <c r="T39" s="9" t="s">
         <v>51</v>
       </c>
@@ -3414,7 +3508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:62" ht="15">
       <c r="C40" s="10" t="s">
         <v>115</v>
       </c>
@@ -3537,7 +3631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:62" ht="15">
       <c r="C41" s="3" t="s">
         <v>8</v>
       </c>
@@ -3556,7 +3650,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J41" s="15">
-        <v>0.7</v>
+        <v>0.70</v>
       </c>
       <c r="K41" s="15">
         <v>0.75</v>
@@ -3665,7 +3759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:62" ht="15">
       <c r="C42" t="str">
         <f>C41</f>
         <v>cmach_e</v>
@@ -3682,13 +3776,13 @@
         <v>0.47058823529411764</v>
       </c>
       <c r="I42" s="15">
-        <v>0.5</v>
+        <v>0.50</v>
       </c>
       <c r="J42" s="15">
         <v>0.65</v>
       </c>
       <c r="K42" s="15">
-        <v>0.7</v>
+        <v>0.70</v>
       </c>
       <c r="L42" s="15">
         <v>0.75</v>
@@ -3794,7 +3888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:62" ht="15">
       <c r="C43" t="str">
         <f>C42</f>
         <v>cmach_e</v>
@@ -3811,16 +3905,16 @@
         <v>0.47058823529411764</v>
       </c>
       <c r="I43" s="15">
-        <v>0.5</v>
+        <v>0.50</v>
       </c>
       <c r="J43" s="15">
-        <v>0.6</v>
+        <v>0.60</v>
       </c>
       <c r="K43" s="15">
         <v>0.65</v>
       </c>
       <c r="L43" s="15">
-        <v>0.7</v>
+        <v>0.70</v>
       </c>
       <c r="T43" s="9" t="s">
         <v>59</v>
@@ -3923,7 +4017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:62" ht="15">
       <c r="C44" t="str">
         <f>C43</f>
         <v>cmach_e</v>
@@ -3940,7 +4034,7 @@
         <v>0.47058823529411764</v>
       </c>
       <c r="I44" s="5">
-        <f t="shared" ref="I44:L44" si="22">H44</f>
+        <f t="shared" si="22" ref="I44:L44">H44</f>
         <v>0.47058823529411764</v>
       </c>
       <c r="J44" s="5">
@@ -3984,7 +4078,7 @@
         <v>2020</v>
       </c>
       <c r="AC44">
-        <v>24484.621581831001</v>
+        <v>38195.713600000003</v>
       </c>
       <c r="AE44" s="7" t="s">
         <v>21</v>
@@ -3997,7 +4091,7 @@
         <v>2025</v>
       </c>
       <c r="AH44">
-        <v>24174.373750639999</v>
+        <v>24657.861225652799</v>
       </c>
       <c r="AJ44" s="7" t="s">
         <v>21</v>
@@ -4010,7 +4104,7 @@
         <v>2030</v>
       </c>
       <c r="AM44">
-        <v>20263.657963585501</v>
+        <v>21276.840861764798</v>
       </c>
       <c r="AP44" s="7" t="s">
         <v>21</v>
@@ -4023,7 +4117,7 @@
         <v>2040</v>
       </c>
       <c r="AS44">
-        <v>17138.851112089698</v>
+        <v>18424.264945496401</v>
       </c>
       <c r="AU44" s="7" t="s">
         <v>21</v>
@@ -4036,7 +4130,7 @@
         <v>2050</v>
       </c>
       <c r="AX44">
-        <v>14015.472524548701</v>
+        <v>15417.019777003599</v>
       </c>
       <c r="AZ44" t="str">
         <f t="shared" si="20"/>
@@ -4052,29 +4146,29 @@
       </c>
       <c r="BC44">
         <f t="shared" si="11"/>
-        <v>24484.621581831001</v>
+        <v>38195.713600000003</v>
       </c>
       <c r="BD44">
         <f t="shared" si="12"/>
-        <v>24174.373750639999</v>
+        <v>24657.861225652799</v>
       </c>
       <c r="BE44">
         <f t="shared" si="13"/>
-        <v>20263.657963585501</v>
+        <v>21276.840861764798</v>
       </c>
       <c r="BF44">
         <f t="shared" si="14"/>
-        <v>17138.851112089698</v>
+        <v>18424.264945496401</v>
       </c>
       <c r="BG44">
         <f t="shared" si="15"/>
-        <v>14015.472524548701</v>
+        <v>15417.019777003599</v>
       </c>
       <c r="BJ44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="45" spans="20:62" ht="15">
       <c r="T45" t="s">
         <v>63</v>
       </c>
@@ -4088,7 +4182,7 @@
         <v>2017</v>
       </c>
       <c r="X45">
-        <v>22625.8151929204</v>
+        <v>56564.537982300899</v>
       </c>
       <c r="Z45" s="7" t="s">
         <v>21</v>
@@ -4101,7 +4195,7 @@
         <v>2020</v>
       </c>
       <c r="AC45">
-        <v>16019.866450973501</v>
+        <v>22625.8151929204</v>
       </c>
       <c r="AE45" s="7" t="s">
         <v>21</v>
@@ -4114,7 +4208,7 @@
         <v>2025</v>
       </c>
       <c r="AH45">
-        <v>15037.6532658407</v>
+        <v>15338.406331157499</v>
       </c>
       <c r="AJ45" s="7" t="s">
         <v>21</v>
@@ -4127,7 +4221,7 @@
         <v>2030</v>
       </c>
       <c r="AM45">
-        <v>14127.346653451301</v>
+        <v>14833.713986123899</v>
       </c>
       <c r="AP45" s="7" t="s">
         <v>21</v>
@@ -4140,7 +4234,7 @@
         <v>2040</v>
       </c>
       <c r="AS45">
-        <v>12549.991834336301</v>
+        <v>13491.241221911499</v>
       </c>
       <c r="AU45" s="7" t="s">
         <v>21</v>
@@ -4153,7 +4247,7 @@
         <v>2050</v>
       </c>
       <c r="AX45">
-        <v>11087.3815461947</v>
+        <v>12196.119700814201</v>
       </c>
       <c r="AZ45" t="str">
         <f t="shared" si="20"/>
@@ -4165,33 +4259,33 @@
       </c>
       <c r="BB45">
         <f t="shared" si="10"/>
-        <v>22625.8151929204</v>
+        <v>56564.537982300899</v>
       </c>
       <c r="BC45">
         <f t="shared" si="11"/>
-        <v>16019.866450973501</v>
+        <v>22625.8151929204</v>
       </c>
       <c r="BD45">
         <f t="shared" si="12"/>
-        <v>15037.6532658407</v>
+        <v>15338.406331157499</v>
       </c>
       <c r="BE45">
         <f t="shared" si="13"/>
-        <v>14127.346653451301</v>
+        <v>14833.713986123899</v>
       </c>
       <c r="BF45">
         <f t="shared" si="14"/>
-        <v>12549.991834336301</v>
+        <v>13491.241221911499</v>
       </c>
       <c r="BG45">
         <f t="shared" si="15"/>
-        <v>11087.3815461947</v>
+        <v>12196.119700814201</v>
       </c>
       <c r="BJ45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="46" spans="20:62" ht="15">
       <c r="T46" t="s">
         <v>65</v>
       </c>
@@ -4205,7 +4299,7 @@
         <v>2017</v>
       </c>
       <c r="X46">
-        <v>22625.8151929204</v>
+        <v>56564.537982300899</v>
       </c>
       <c r="Z46" s="7" t="s">
         <v>21</v>
@@ -4218,7 +4312,7 @@
         <v>2020</v>
       </c>
       <c r="AC46">
-        <v>16019.866450973501</v>
+        <v>22625.8151929204</v>
       </c>
       <c r="AE46" s="7" t="s">
         <v>21</v>
@@ -4231,7 +4325,7 @@
         <v>2025</v>
       </c>
       <c r="AH46">
-        <v>15037.6532658407</v>
+        <v>15338.406331157499</v>
       </c>
       <c r="AJ46" s="7" t="s">
         <v>21</v>
@@ -4244,7 +4338,7 @@
         <v>2030</v>
       </c>
       <c r="AM46">
-        <v>14127.346653451301</v>
+        <v>14833.713986123899</v>
       </c>
       <c r="AP46" s="7" t="s">
         <v>21</v>
@@ -4257,7 +4351,7 @@
         <v>2040</v>
       </c>
       <c r="AS46">
-        <v>12549.991834336301</v>
+        <v>13491.241221911499</v>
       </c>
       <c r="AU46" s="7" t="s">
         <v>21</v>
@@ -4270,7 +4364,7 @@
         <v>2050</v>
       </c>
       <c r="AX46">
-        <v>11087.3815461947</v>
+        <v>12196.119700814201</v>
       </c>
       <c r="AZ46" t="str">
         <f t="shared" si="20"/>
@@ -4282,33 +4376,33 @@
       </c>
       <c r="BB46">
         <f t="shared" si="10"/>
-        <v>22625.8151929204</v>
+        <v>56564.537982300899</v>
       </c>
       <c r="BC46">
         <f t="shared" si="11"/>
-        <v>16019.866450973501</v>
+        <v>22625.8151929204</v>
       </c>
       <c r="BD46">
         <f t="shared" si="12"/>
-        <v>15037.6532658407</v>
+        <v>15338.406331157499</v>
       </c>
       <c r="BE46">
         <f t="shared" si="13"/>
-        <v>14127.346653451301</v>
+        <v>14833.713986123899</v>
       </c>
       <c r="BF46">
         <f t="shared" si="14"/>
-        <v>12549.991834336301</v>
+        <v>13491.241221911499</v>
       </c>
       <c r="BG46">
         <f t="shared" si="15"/>
-        <v>11087.3815461947</v>
+        <v>12196.119700814201</v>
       </c>
       <c r="BJ46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:62" ht="15">
       <c r="C47" s="10" t="s">
         <v>116</v>
       </c>
@@ -4325,7 +4419,7 @@
         <v>2017</v>
       </c>
       <c r="X47">
-        <v>22625.8151929204</v>
+        <v>56564.537982300899</v>
       </c>
       <c r="Z47" s="7" t="s">
         <v>21</v>
@@ -4338,7 +4432,7 @@
         <v>2020</v>
       </c>
       <c r="AC47">
-        <v>16019.866450973501</v>
+        <v>22625.8151929204</v>
       </c>
       <c r="AE47" s="7" t="s">
         <v>21</v>
@@ -4351,7 +4445,7 @@
         <v>2025</v>
       </c>
       <c r="AH47">
-        <v>15037.6532658407</v>
+        <v>15338.406331157499</v>
       </c>
       <c r="AJ47" s="7" t="s">
         <v>21</v>
@@ -4364,7 +4458,7 @@
         <v>2030</v>
       </c>
       <c r="AM47">
-        <v>14127.346653451301</v>
+        <v>14833.713986123899</v>
       </c>
       <c r="AP47" s="7" t="s">
         <v>21</v>
@@ -4377,7 +4471,7 @@
         <v>2040</v>
       </c>
       <c r="AS47">
-        <v>12549.991834336301</v>
+        <v>13491.241221911499</v>
       </c>
       <c r="AU47" s="7" t="s">
         <v>21</v>
@@ -4390,7 +4484,7 @@
         <v>2050</v>
       </c>
       <c r="AX47">
-        <v>11087.3815461947</v>
+        <v>12196.119700814201</v>
       </c>
       <c r="AZ47" t="str">
         <f t="shared" si="20"/>
@@ -4402,33 +4496,33 @@
       </c>
       <c r="BB47">
         <f t="shared" si="10"/>
-        <v>22625.8151929204</v>
+        <v>56564.537982300899</v>
       </c>
       <c r="BC47">
         <f t="shared" si="11"/>
-        <v>16019.866450973501</v>
+        <v>22625.8151929204</v>
       </c>
       <c r="BD47">
         <f t="shared" si="12"/>
-        <v>15037.6532658407</v>
+        <v>15338.406331157499</v>
       </c>
       <c r="BE47">
         <f t="shared" si="13"/>
-        <v>14127.346653451301</v>
+        <v>14833.713986123899</v>
       </c>
       <c r="BF47">
         <f t="shared" si="14"/>
-        <v>12549.991834336301</v>
+        <v>13491.241221911499</v>
       </c>
       <c r="BG47">
         <f t="shared" si="15"/>
-        <v>11087.3815461947</v>
+        <v>12196.119700814201</v>
       </c>
       <c r="BJ47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:62" ht="15">
       <c r="C48" s="3" t="s">
         <v>11</v>
       </c>
@@ -4447,7 +4541,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J48" s="15">
-        <v>0.7</v>
+        <v>0.70</v>
       </c>
       <c r="K48" s="15">
         <v>0.75</v>
@@ -4468,7 +4562,7 @@
         <v>2017</v>
       </c>
       <c r="X48">
-        <v>34133.772920354</v>
+        <v>85334.432300885004</v>
       </c>
       <c r="Z48" s="7" t="s">
         <v>21</v>
@@ -4481,7 +4575,7 @@
         <v>2020</v>
       </c>
       <c r="AC48">
-        <v>24167.901973451299</v>
+        <v>34133.772920354</v>
       </c>
       <c r="AE48" s="7" t="s">
         <v>21</v>
@@ -4494,7 +4588,7 @@
         <v>2025</v>
       </c>
       <c r="AH48">
-        <v>22686.114840708</v>
+        <v>23139.837137522201</v>
       </c>
       <c r="AJ48" s="7" t="s">
         <v>21</v>
@@ -4507,7 +4601,7 @@
         <v>2030</v>
       </c>
       <c r="AM48">
-        <v>21312.8074513274</v>
+        <v>22378.447823893799</v>
       </c>
       <c r="AP48" s="7" t="s">
         <v>21</v>
@@ -4520,7 +4614,7 @@
         <v>2040</v>
       </c>
       <c r="AS48">
-        <v>18933.177336283199</v>
+        <v>20353.1656365044</v>
       </c>
       <c r="AU48" s="7" t="s">
         <v>21</v>
@@ -4533,7 +4627,7 @@
         <v>2050</v>
       </c>
       <c r="AX48">
-        <v>16726.653194690301</v>
+        <v>18399.318514159299</v>
       </c>
       <c r="AZ48" t="str">
         <f t="shared" si="20"/>
@@ -4545,33 +4639,33 @@
       </c>
       <c r="BB48">
         <f t="shared" si="10"/>
-        <v>34133.772920354</v>
+        <v>85334.432300885004</v>
       </c>
       <c r="BC48">
         <f t="shared" si="11"/>
-        <v>24167.901973451299</v>
+        <v>34133.772920354</v>
       </c>
       <c r="BD48">
         <f t="shared" si="12"/>
-        <v>22686.114840708</v>
+        <v>23139.837137522201</v>
       </c>
       <c r="BE48">
         <f t="shared" si="13"/>
-        <v>21312.8074513274</v>
+        <v>22378.447823893799</v>
       </c>
       <c r="BF48">
         <f t="shared" si="14"/>
-        <v>18933.177336283199</v>
+        <v>20353.1656365044</v>
       </c>
       <c r="BG48">
         <f t="shared" si="15"/>
-        <v>16726.653194690301</v>
+        <v>18399.318514159299</v>
       </c>
       <c r="BJ48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:62" ht="15">
       <c r="C49" t="str">
         <f>C48</f>
         <v>cemch_e</v>
@@ -4588,13 +4682,13 @@
         <v>0.47538200339558578</v>
       </c>
       <c r="I49" s="15">
-        <v>0.5</v>
+        <v>0.50</v>
       </c>
       <c r="J49" s="15">
         <v>0.65</v>
       </c>
       <c r="K49" s="15">
-        <v>0.7</v>
+        <v>0.70</v>
       </c>
       <c r="L49" s="15">
         <v>0.75</v>
@@ -4612,7 +4706,7 @@
         <v>2017</v>
       </c>
       <c r="X49">
-        <v>22625.8151929204</v>
+        <v>56564.537982300899</v>
       </c>
       <c r="Z49" s="7" t="s">
         <v>21</v>
@@ -4625,7 +4719,7 @@
         <v>2020</v>
       </c>
       <c r="AC49">
-        <v>16019.866450973501</v>
+        <v>22625.8151929204</v>
       </c>
       <c r="AE49" s="7" t="s">
         <v>21</v>
@@ -4638,7 +4732,7 @@
         <v>2025</v>
       </c>
       <c r="AH49">
-        <v>15037.6532658407</v>
+        <v>15338.406331157499</v>
       </c>
       <c r="AJ49" s="7" t="s">
         <v>21</v>
@@ -4651,7 +4745,7 @@
         <v>2030</v>
       </c>
       <c r="AM49">
-        <v>14127.346653451301</v>
+        <v>14833.713986123899</v>
       </c>
       <c r="AP49" s="7" t="s">
         <v>21</v>
@@ -4664,7 +4758,7 @@
         <v>2040</v>
       </c>
       <c r="AS49">
-        <v>12549.991834336301</v>
+        <v>13491.241221911499</v>
       </c>
       <c r="AU49" s="7" t="s">
         <v>21</v>
@@ -4677,7 +4771,7 @@
         <v>2050</v>
       </c>
       <c r="AX49">
-        <v>11087.3815461947</v>
+        <v>12196.119700814201</v>
       </c>
       <c r="AZ49" t="str">
         <f t="shared" si="20"/>
@@ -4689,33 +4783,33 @@
       </c>
       <c r="BB49">
         <f t="shared" si="10"/>
-        <v>22625.8151929204</v>
+        <v>56564.537982300899</v>
       </c>
       <c r="BC49">
         <f t="shared" si="11"/>
-        <v>16019.866450973501</v>
+        <v>22625.8151929204</v>
       </c>
       <c r="BD49">
         <f t="shared" si="12"/>
-        <v>15037.6532658407</v>
+        <v>15338.406331157499</v>
       </c>
       <c r="BE49">
         <f t="shared" si="13"/>
-        <v>14127.346653451301</v>
+        <v>14833.713986123899</v>
       </c>
       <c r="BF49">
         <f t="shared" si="14"/>
-        <v>12549.991834336301</v>
+        <v>13491.241221911499</v>
       </c>
       <c r="BG49">
         <f t="shared" si="15"/>
-        <v>11087.3815461947</v>
+        <v>12196.119700814201</v>
       </c>
       <c r="BJ49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:62" ht="15">
       <c r="C50" t="str">
         <f>C49</f>
         <v>cemch_e</v>
@@ -4732,16 +4826,16 @@
         <v>0.47538200339558578</v>
       </c>
       <c r="I50" s="15">
-        <v>0.5</v>
+        <v>0.50</v>
       </c>
       <c r="J50" s="15">
-        <v>0.6</v>
+        <v>0.60</v>
       </c>
       <c r="K50" s="15">
         <v>0.65</v>
       </c>
       <c r="L50" s="15">
-        <v>0.7</v>
+        <v>0.70</v>
       </c>
       <c r="T50" s="9" t="s">
         <v>73</v>
@@ -4756,7 +4850,7 @@
         <v>2017</v>
       </c>
       <c r="X50">
-        <v>6329.3065449900196</v>
+        <v>1637.60737116</v>
       </c>
       <c r="Z50" s="7"/>
       <c r="AA50" s="9"/>
@@ -4780,13 +4874,13 @@
       </c>
       <c r="BB50">
         <f t="shared" si="10"/>
-        <v>6329.3065449900196</v>
+        <v>1637.60737116</v>
       </c>
       <c r="BJ50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:28 47:62" ht="15">
       <c r="C51" t="str">
         <f>C50</f>
         <v>cemch_e</v>
@@ -4803,7 +4897,7 @@
         <v>0.47538200339558578</v>
       </c>
       <c r="I51" s="5">
-        <f t="shared" ref="I51:L51" si="23">H51</f>
+        <f t="shared" si="23" ref="I51:L51">H51</f>
         <v>0.47538200339558578</v>
       </c>
       <c r="J51" s="5">
@@ -4834,7 +4928,7 @@
         <v>2017</v>
       </c>
       <c r="X51">
-        <v>2812</v>
+        <v>337.44</v>
       </c>
       <c r="Z51" s="7"/>
       <c r="AA51" s="9"/>
@@ -4852,13 +4946,13 @@
       </c>
       <c r="BB51">
         <f t="shared" si="10"/>
-        <v>2812</v>
+        <v>337.44</v>
       </c>
       <c r="BJ51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="52" spans="20:62" ht="15">
       <c r="T52" s="9" t="s">
         <v>77</v>
       </c>
@@ -4872,7 +4966,7 @@
         <v>2017</v>
       </c>
       <c r="X52">
-        <v>36989.331580508697</v>
+        <v>19046.524215158599</v>
       </c>
       <c r="Z52" s="7"/>
       <c r="AA52" s="9"/>
@@ -4890,13 +4984,13 @@
       </c>
       <c r="BB52">
         <f t="shared" si="10"/>
-        <v>36989.331580508697</v>
+        <v>19046.524215158599</v>
       </c>
       <c r="BJ52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:3 20:28 47:62" ht="15">
       <c r="C53" s="10" t="s">
         <v>117</v>
       </c>
@@ -4913,7 +5007,7 @@
         <v>2017</v>
       </c>
       <c r="X53">
-        <v>18494.665850167301</v>
+        <v>9523.2621384296508</v>
       </c>
       <c r="Z53" s="7"/>
       <c r="AA53" s="9"/>
@@ -4931,13 +5025,13 @@
       </c>
       <c r="BB53">
         <f t="shared" si="10"/>
-        <v>18494.665850167301</v>
+        <v>9523.2621384296508</v>
       </c>
       <c r="BJ53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:28 47:62" ht="15">
       <c r="C54" t="s">
         <v>128</v>
       </c>
@@ -4949,7 +5043,7 @@
         <v>0.93842364532019706</v>
       </c>
       <c r="H54" s="6">
-        <f t="shared" ref="H54:I56" si="24">G54</f>
+        <f t="shared" si="24" ref="H54:I56">G54</f>
         <v>0.93842364532019706</v>
       </c>
       <c r="I54" s="15">
@@ -4961,16 +5055,16 @@
         <v>0.94827586206896552</v>
       </c>
       <c r="K54" s="15">
-        <f t="shared" ref="K54:K55" si="25">J54</f>
+        <f t="shared" si="25" ref="K54:K55">J54</f>
         <v>0.94827586206896552</v>
       </c>
       <c r="L54" s="15">
-        <f t="shared" ref="L54:L55" si="26">K54</f>
+        <f t="shared" si="26" ref="L54:L55">K54</f>
         <v>0.94827586206896552</v>
       </c>
       <c r="O54" s="5">
         <f>J81</f>
-        <v>9.852216748768473E-3</v>
+        <v>0.009852216748768473</v>
       </c>
       <c r="T54" s="9" t="s">
         <v>81</v>
@@ -4985,7 +5079,7 @@
         <v>2017</v>
       </c>
       <c r="X54">
-        <v>8791.3381114607892</v>
+        <v>4526.8304959535499</v>
       </c>
       <c r="Z54" s="7"/>
       <c r="AA54" s="9"/>
@@ -5003,13 +5097,13 @@
       </c>
       <c r="BB54">
         <f t="shared" si="10"/>
-        <v>8791.3381114607892</v>
+        <v>4526.8304959535499</v>
       </c>
       <c r="BJ54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:28 47:62" ht="15">
       <c r="C55" t="s">
         <v>128</v>
       </c>
@@ -5053,7 +5147,7 @@
         <v>2017</v>
       </c>
       <c r="X55">
-        <v>8791.3381114607892</v>
+        <v>4526.8304959535499</v>
       </c>
       <c r="Z55" s="7"/>
       <c r="AA55" s="9"/>
@@ -5071,13 +5165,13 @@
       </c>
       <c r="BB55">
         <f t="shared" si="10"/>
-        <v>8791.3381114607892</v>
+        <v>4526.8304959535499</v>
       </c>
       <c r="BJ55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:28 47:62" ht="15">
       <c r="C56" t="s">
         <v>128</v>
       </c>
@@ -5120,7 +5214,7 @@
         <v>2017</v>
       </c>
       <c r="X56">
-        <v>14124.4235169599</v>
+        <v>7272.9396030149201</v>
       </c>
       <c r="Z56" s="7"/>
       <c r="AA56" s="9"/>
@@ -5138,13 +5232,13 @@
       </c>
       <c r="BB56">
         <f t="shared" si="10"/>
-        <v>14124.4235169599</v>
+        <v>7272.9396030149201</v>
       </c>
       <c r="BJ56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:24 52:62" ht="15">
       <c r="C57" t="s">
         <v>128</v>
       </c>
@@ -5168,7 +5262,7 @@
         <v>0.93842364532019706</v>
       </c>
       <c r="K57" s="6">
-        <f t="shared" ref="K57:L57" si="27">J57</f>
+        <f t="shared" si="27" ref="K57:L57">J57</f>
         <v>0.93842364532019706</v>
       </c>
       <c r="L57" s="6">
@@ -5191,7 +5285,7 @@
         <v>2017</v>
       </c>
       <c r="X57">
-        <v>8791.3381114607892</v>
+        <v>4526.8304959535499</v>
       </c>
       <c r="AZ57" t="str">
         <f t="shared" si="20"/>
@@ -5203,13 +5297,13 @@
       </c>
       <c r="BB57">
         <f t="shared" si="10"/>
-        <v>8791.3381114607892</v>
+        <v>4526.8304959535499</v>
       </c>
       <c r="BJ57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="58" spans="20:24 52:62" ht="15">
       <c r="T58" s="9" t="s">
         <v>89</v>
       </c>
@@ -5223,7 +5317,7 @@
         <v>2017</v>
       </c>
       <c r="X58">
-        <v>8791.3381114607892</v>
+        <v>4526.8304959535499</v>
       </c>
       <c r="AZ58" t="str">
         <f t="shared" si="20"/>
@@ -5235,13 +5329,13 @@
       </c>
       <c r="BB58">
         <f t="shared" si="10"/>
-        <v>8791.3381114607892</v>
+        <v>4526.8304959535499</v>
       </c>
       <c r="BJ58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:3 20:24 52:62" ht="15">
       <c r="C59" s="10" t="s">
         <v>118</v>
       </c>
@@ -5258,7 +5352,7 @@
         <v>2017</v>
       </c>
       <c r="X59">
-        <v>8791.3381114607892</v>
+        <v>4526.8304959535499</v>
       </c>
       <c r="AZ59" t="str">
         <f t="shared" si="20"/>
@@ -5270,13 +5364,13 @@
       </c>
       <c r="BB59">
         <f t="shared" si="10"/>
-        <v>8791.3381114607892</v>
+        <v>4526.8304959535499</v>
       </c>
       <c r="BJ59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:24 52:62" ht="15">
       <c r="C60" s="3" t="s">
         <v>123</v>
       </c>
@@ -5288,7 +5382,7 @@
         <v>0.76065573770491801</v>
       </c>
       <c r="H60" s="6">
-        <f t="shared" ref="H60:I62" si="28">G60</f>
+        <f t="shared" si="28" ref="H60:I62">G60</f>
         <v>0.76065573770491801</v>
       </c>
       <c r="I60" s="15">
@@ -5300,7 +5394,7 @@
         <v>0.78098360655737697</v>
       </c>
       <c r="K60" s="15">
-        <f t="shared" ref="K60:L63" si="29">J60</f>
+        <f t="shared" si="29" ref="K60:L63">J60</f>
         <v>0.78098360655737697</v>
       </c>
       <c r="L60" s="15">
@@ -5309,7 +5403,7 @@
       </c>
       <c r="O60" s="28">
         <f>J83</f>
-        <v>2.0327868852459016E-2</v>
+        <v>0.020327868852459016</v>
       </c>
       <c r="T60" s="9" t="s">
         <v>93</v>
@@ -5324,7 +5418,7 @@
         <v>2017</v>
       </c>
       <c r="X60">
-        <v>8791.3381114607892</v>
+        <v>4526.8304959535499</v>
       </c>
       <c r="AZ60" t="str">
         <f t="shared" si="20"/>
@@ -5336,13 +5430,13 @@
       </c>
       <c r="BB60">
         <f t="shared" si="10"/>
-        <v>8791.3381114607892</v>
+        <v>4526.8304959535499</v>
       </c>
       <c r="BJ60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:24 52:62" ht="15">
       <c r="C61" t="str">
         <f>C60</f>
         <v>cmetp</v>
@@ -5387,7 +5481,7 @@
         <v>2017</v>
       </c>
       <c r="X61">
-        <v>14124.4235169599</v>
+        <v>7272.9396030149201</v>
       </c>
       <c r="AZ61" t="str">
         <f t="shared" si="20"/>
@@ -5399,13 +5493,13 @@
       </c>
       <c r="BB61">
         <f t="shared" si="10"/>
-        <v>14124.4235169599</v>
+        <v>7272.9396030149201</v>
       </c>
       <c r="BJ61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:24 52:62" ht="15">
       <c r="C62" t="str">
         <f>C61</f>
         <v>cmetp</v>
@@ -5450,7 +5544,7 @@
         <v>2017</v>
       </c>
       <c r="X62">
-        <v>14124.4235169599</v>
+        <v>7272.9396030149201</v>
       </c>
       <c r="AZ62" t="str">
         <f t="shared" si="20"/>
@@ -5462,13 +5556,13 @@
       </c>
       <c r="BB62">
         <f t="shared" si="10"/>
-        <v>14124.4235169599</v>
+        <v>7272.9396030149201</v>
       </c>
       <c r="BJ62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:24 52:62" ht="15">
       <c r="C63" t="str">
         <f>C62</f>
         <v>cmetp</v>
@@ -5489,7 +5583,7 @@
         <v>0.76065573770491801</v>
       </c>
       <c r="J63" s="6">
-        <f t="shared" ref="J63" si="30">I63</f>
+        <f t="shared" si="30" ref="J63">I63</f>
         <v>0.76065573770491801</v>
       </c>
       <c r="K63" s="6">
@@ -5516,7 +5610,7 @@
         <v>2017</v>
       </c>
       <c r="X63">
-        <v>36989.331580508697</v>
+        <v>19046.524215158599</v>
       </c>
       <c r="AZ63" t="str">
         <f t="shared" si="20"/>
@@ -5528,13 +5622,13 @@
       </c>
       <c r="BB63">
         <f t="shared" si="10"/>
-        <v>36989.331580508697</v>
+        <v>19046.524215158599</v>
       </c>
       <c r="BJ63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="64" spans="20:24 52:62" ht="15">
       <c r="T64" s="9" t="s">
         <v>101</v>
       </c>
@@ -5548,7 +5642,7 @@
         <v>2017</v>
       </c>
       <c r="X64">
-        <v>18494.665850167301</v>
+        <v>9523.2621384296508</v>
       </c>
       <c r="AZ64" t="str">
         <f t="shared" si="20"/>
@@ -5560,13 +5654,13 @@
       </c>
       <c r="BB64">
         <f t="shared" si="10"/>
-        <v>18494.665850167301</v>
+        <v>9523.2621384296508</v>
       </c>
       <c r="BJ64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:62" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2 20:24 52:62" ht="23.25">
       <c r="B65" s="31" t="s">
         <v>134</v>
       </c>
@@ -5583,7 +5677,7 @@
         <v>2017</v>
       </c>
       <c r="X65">
-        <v>9247.3329250836705</v>
+        <v>4761.6310692148199</v>
       </c>
       <c r="AZ65" t="str">
         <f t="shared" si="20"/>
@@ -5595,13 +5689,13 @@
       </c>
       <c r="BB65">
         <f t="shared" si="10"/>
-        <v>9247.3329250836705</v>
+        <v>4761.6310692148199</v>
       </c>
       <c r="BJ65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:23" ht="15">
       <c r="F66" t="s">
         <v>111</v>
       </c>
@@ -5621,12 +5715,12 @@
         <v>0.125</v>
       </c>
       <c r="L66" s="6">
-        <v>0.2</v>
+        <v>0.20</v>
       </c>
       <c r="V66" s="9"/>
       <c r="W66" s="9"/>
     </row>
-    <row r="67" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:12" ht="15">
       <c r="F67" t="s">
         <v>112</v>
       </c>
@@ -5643,13 +5737,13 @@
         <v>0.05</v>
       </c>
       <c r="K67" s="6">
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
       <c r="L67" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:62" x14ac:dyDescent="0.25">
+        <v>0.10</v>
+      </c>
+    </row>
+    <row r="68" spans="6:12" ht="15">
       <c r="F68" t="s">
         <v>113</v>
       </c>
@@ -5663,18 +5757,18 @@
         <v>0.01</v>
       </c>
       <c r="J68" s="5">
-        <v>1.4999999999999999E-2</v>
+        <v>0.015</v>
       </c>
       <c r="K68" s="5">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="L68" s="5">
         <v>0.05</v>
       </c>
     </row>
-    <row r="69" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:12" ht="15">
       <c r="F69" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G69" s="6">
         <v>0</v>
@@ -5695,7 +5789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="79" spans="7:11" ht="15">
       <c r="G79" t="s">
         <v>129</v>
       </c>
@@ -5712,7 +5806,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="80" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:10" ht="15">
       <c r="F80" t="s">
         <v>128</v>
       </c>
@@ -5730,22 +5824,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="7:10" ht="15">
       <c r="G81" s="4">
         <f>G80/I80</f>
-        <v>6.1576354679802957E-2</v>
+        <v>0.061576354679802957</v>
       </c>
       <c r="J81" s="29">
         <f>J80/I80</f>
-        <v>9.852216748768473E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="6:10" x14ac:dyDescent="0.25">
+        <v>0.009852216748768473</v>
+      </c>
+    </row>
+    <row r="82" spans="6:10" ht="15">
       <c r="F82" t="s">
         <v>133</v>
       </c>
       <c r="G82">
-        <v>36.5</v>
+        <v>36.50</v>
       </c>
       <c r="H82">
         <v>116</v>
@@ -5755,30 +5849,30 @@
         <v>152.5</v>
       </c>
       <c r="J82">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="83" spans="6:10" x14ac:dyDescent="0.25">
+        <v>3.10</v>
+      </c>
+    </row>
+    <row r="83" spans="7:10" ht="15">
       <c r="G83" s="29">
         <f>G82/I82</f>
         <v>0.23934426229508196</v>
       </c>
       <c r="J83" s="29">
         <f>J82/I82</f>
-        <v>2.0327868852459016E-2</v>
+        <v>0.020327868852459016</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{28F83205-2B6D-4B86-9C9B-CC3DB94DE282}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
       <formula1>$F$41:$F$44</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{B1584D95-3338-4846-9756-AAD3A2F15D0C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
       <formula1>$F$66:$F$69</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>